--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="704">
   <si>
     <t>word</t>
   </si>
@@ -23,54 +23,22 @@
     <t>total</t>
   </si>
   <si>
-    <t xml:space="preserve">- 20 aplikasi pengasah otak terbaik di android, dijamin bikin pinter!-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 5 kesalahan nyeleneh film hollywood yang mungkin belum kamu sadari-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 7 situs membuat website gratis terbaik dengan tampilan menawan 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- babe - baca berita -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- cara mengetahui website down di internet dengan mudah -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- jangan salah beli! ini 3 perbedaan dual kamera smartphone yang wajib kamu tahu-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- langkah cara membuat website mudah dan gratis -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- ngakak abis! 7 fanpage kocak yang bikin kamu balikan sama facebook-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- ngeri banget! 10 percobaan gila ini pernah dilakukan pada smartphone-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (0274) 545653 im</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 085727776660 support@domainesia</t>
+    <t xml:space="preserve"> (021) 79184155 fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (021) 7941417</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (024) 6716780 fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (024) 76581513</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0274) 415585 fax </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0274-385603</t>
   </si>
   <si>
     <t xml:space="preserve"> 1</t>
@@ -82,1483 +50,2080 @@
     <t xml:space="preserve"> 11</t>
   </si>
   <si>
+    <t xml:space="preserve"> 11+ ide bisnis digital terbaik baiklah</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 12</t>
   </si>
   <si>
+    <t xml:space="preserve"> 12 peluang usaha di digital tahun 2018   idwebhost 1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 2</t>
   </si>
   <si>
+    <t xml:space="preserve"> 2 sukabumi, indonesia 43353 partnership https</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 3</t>
   </si>
   <si>
+    <t xml:space="preserve"> 33 yogyakarta 55161 telp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 4</t>
   </si>
   <si>
+    <t xml:space="preserve"> 43 miliar setahun ! ya, anda tidak salah dengar</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 5</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 7</t>
   </si>
   <si>
     <t xml:space="preserve"> 8</t>
   </si>
   <si>
-    <t xml:space="preserve"> […]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ada ratusan bahkan ribuan tema dari toko online, aplikasi perkantoran, hingga teknologi terbaru yang bisa anda temukan ketika menggunakan platform wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ada ratusan template profesional yang untuk dan berbeda dari yang lain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> agar website muncul di halaman pertama google, kamu bisa lakukan research keyword dari konten yang ingin ditulis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> akhir kata nah itulah 7 situs membuat website gratis terbaik dengan tampilan menawan yang bisa kamu coba</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> alih-alih berhasil, iklan anda justru akan diblokir</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> all rights reserved</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda bisa menyesuaikan tampilan tanpa harus berurusan dengan baris kode</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda bisa mulai belajar meta tag, breadcumb, serp, blogwalking, link builder dan yang lainnya didalam teknik-teknik seo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda dapat menambahkan gambar hanya dengan melakukan drag dan drop</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda hanya cukup menghubungkan aplikasi catatan (evernote) ke postach</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda harus memutar otak dan mencari ide-ide yang inovatif agar website anda tetap eksis dan menarik untuk di kunjungi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda juga bisa membayar buzzer atau endoser seperti akun-akun tweeter yang berfollower sangat banyak</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda juga bisa menggunakan beberapa platform sekaligus untuk menyebarkan tulisan-tulisan atau konten yang ingin anda buat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda juga dapat melakukan beberapa penyesuaian seperti tema, penambahan dari website lain, komentar disqus, dan opsi untuk menggunakan dropbox sebagai pengganti untuk menyimpan konten</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apabila anda pengguna webpraktis dan tidak memiliki banyak waktu untuk selalu mengupdate konten website anda, anda juga dapat menggunakan jasa perawatan website dari webpraktis untuk membantu anda membuat artikel dan mengupload produk hingga membagikannya ke social media dan marketplace</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apabila anda telah melakukan tips-tips memaksimalkan artikel untuk meningkatkan seo namun tetap saja traffic website anda sepi pengunjung, inilah cara untuk membuat website anda ramai pengunjung</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apabila para pengguna internet tertarik dengan review atau ulasan orang lain terhadap bisnis online anda, hal yang akan mereka lakukan selanjutnya adalah mengunjungi website anda, membaca testimoni pelanggan lainnya hingga meneliti produk-produk anda sebelum akhirnya melakukan pembelian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apakah seo berbayara?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aplikasi tersebut seperti penjadwalan (scheduling), akuntansi (accounting), chat langsung (live chat), dan masih banyak lagi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> atau yang simple seperti ask</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bagi anda yang membuat website maupun toko online di webpraktis, anda juga dapat menggunakan jasa pemasangan iklan google adwords yang telah disediakan webpraktis sebagai jasa iklan paling terpercaya yang dapat digunakan untuk memaksimalkan bisnis anda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bagi pengguna wordpress, selalu gunakan plugin w3 total cache atau w3 super cache </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bahkan, tersedia juga lebih dari 200 aplikasi dengan kualitas yang baik yang membuat pengembangan website menjadi lebih simpel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bakal jadi kebutuhan hidup, inilah 7 situs membuat website gratis terbaik dengan tampilan menawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bangun kerjasama dengan media sehingga bisnis online anda diliput </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bayangkan kalau kamu punya toko online atau website catering</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> beberapa tidak perlu membutuhkan kemampuan teknis yang baik, cukup mengikuti beberapa panduan sederhana dan anda sudah bisa membuat konten yang bisa diakses oleh pengguna internet di seluruh dunia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> berbagai macam informasi dan kebutuhan tentu bisa kamu dapatkan, mulai dari berita, hiburan, hingga berbelanja kebutuhan kamu loh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> berikan link-link yang sesuai dengan isi konten untuk mendukung apa yang kamu tulis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> blogger</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> buat kamu yang punya budget tipis, inilah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> buat website yang sederhana namun tetap terlihat elegan </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> buatlah konten yang interaktif </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> buatlah stiker kecil-kecil dan pasang dikendaraan anda atau dibagikan ke teman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> buatlah website yang fokus terhadap satu topik </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cache browser akan menyimpan sesuatu hal yang pernah diakses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cara membuat website mudah untuk pemula</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cara paling pertama untuk membuat website anda ramai pengunjung adalah dengan memudahkan siapapun untuk mengingatnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cocok buat kamu berbujet tipis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> contact us </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cukup menarik, bukan? 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> daily diary (publik), ekspresif journal (pribadi), dan travel journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dan pastikan juga kamu menggunakan dimensi gambar yang tepat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dengan begini kamu juga bisa mendapatkan hosting dan bandwith unlimited loh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dengan dukungan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dengan kombinasi ketiga hal tersebut dapat dipastikan website kamu bisa “nangkring” di halaman pertama google!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dengan social media yang interaktif, anda dapat meningkatkan engagement kepada follower anda sehingga mereka termotivasi untuk membeli bukan karena dibujuk, namun karena menganggap bahwa produk dan layanan anda memang dapat dipercaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> di wordpress kamu akan diberikan juga informasi trafik, beserta 3gb ruang penyimpanan dan bandwith unlimited</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dikutip dari wikipedia , seo merupakan serangkaian proses yang dilakukan secara sistematis untuk meningkatkan volume dan kualitas trafik kunjungan melalui search engine menuju situs web tertentu dengan memanfaatkan algoritme tertentu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ghost</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> google), dan menempati posisi teratas maka peluang datangnya pengunjung sangat besar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gunakan cara gratis terlebih dahulu seperti rajin nge-share atau mentweet website dan konten yang ada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gunakan domain yang mudah diingat </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gunakan layanan iklan berbayar </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hal ini yang terkadang membuat para pemilik website menjadi malas dalam memaksimalkan artikelnya, padahal tujuan utama dari memaksimalkan artikel adalah untuk meningkatkan  seo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hal lain seperti di kartu nama, tanda pengenal dan yang lainnya juga kita bisa manfaatkan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ini adalah salah satu platform yang sangat terkenal saat ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ini memang bukan blog yang menggunakan konsep tradisional seperti apa yang sering kita lihat saat ini, jadi mungkin akan terlihat sedikit aneh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jadi fokuslah pada konten utama website seperti produk yang anda jual, banner yang relevan serta artikel yang sesuai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaminan keamanan dan kemudahan yang diberikan karena terintegrasi dengan google menjadi nilai positif yang dimiliki oleh platform ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jangan sampai karena terlalu mengedepankan seo maka konten kamu jadi susah dimengerti</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jangankan memberikan komentar, yang membaca saja tak ada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jawablah pertanyaan-pertanyaan mereka di social media, teruslah berbagi konten-konten yang bermanfaat serta arahkan mereka menuju link website anda untuk membuat website anda ramai pengunjung</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jika anda ingin mencoba untuk pertama kalinya, bisa menggunakan versi </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jika anda memerlukan panduan membuat blog, silahkan baca tutorialnya di  cara membuat blog dengan langkah mudah </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jika dilihat-lihat ini bukan termasuk platform yang sepenuhnya platform karena juga menjadi wadah dari sebuah komunitas yang memberikan penggunanya ruang sendiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jika kamu mau lebih expert, kamu pun bisa mempelajari kemampuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jika pengunjung website banyak, maka semakin banyak pula keuntungan yang bisa didapat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jika website anda menggunakan kategori toko online, maka berikan informasi informasi tentang produk yang anda jual</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jika website berada di halaman pertama dalam search engine (baca</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jika website kamu ada di halaman pertama google, otomatis semakin sering di klik dan dibuka pengunjung kan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kami menyediakan beberapa informasi setiap minggunya, anda bisa melakukan subscribe untuk mendapatkan notifikasi langsung dari kami</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kamu akan mendapatkan 2 buah halaman website saja dengan batasan 500 pengunjung saja</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kamu bisa gunakan aplikasi photoshop atau aplikasi kompresi gambar seperti imageoptim atau jpegmini </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kamu bisa juga menggunakan amp (accelerated mobile pages) agar pengunjung dapat membaca sekilas dan cepat tanpa harus mengunjungi website terlebih dahulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kamu bisa menggunakan beberapa plugin seperti yoastseo untuk membantumu dalam menuliskan meta description</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kamu nggak buat?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kamu pun bisa mengedit tampilan weebly langsung dari aplikasi mobile </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> karena dibuat dengan javascript, ghost memiliki waktu akses yang cepat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> karena penggunaan fitur yang terlalu banyak dapat membuat koneksi ke website anda menjadi lebih berat sehingga pengunjung website anda malas untuk menunggunya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> karena waktu loading merupakan salah satu faktor penting dalam mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kecepatan akses ini dapat dipengaruhi oleh beberapa aspek lho misalnya ukuran gambar yang terlalu besar, gambar memiliki dimensi yang besar, script yang berlebihan, tidak memperhatikan cache dan sebagainya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> keep […]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kembali pada tujuan anda membuat website, untuk apa anda membuat website dan hal apa saja yang ingin anda sampaikan kepada pengunjung website</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kemudian juga bisa membuat artikel beberapa halaman dengan menggunakan tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kemudian, gunakanlah permainan warna yang tidak mencolok dan kurangi penggunaan fitur-fitur yang dirasa tidak penting agar website anda tidak terkesan terlalu ramai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kesimpulan ada banyak website yang bisa menjadi sarana untuk menyebarkan tulisan anda secara gratis dan mudah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ketika ada orang yang melakukan pencarian di google dengan kata kunci “catering murah”, maka website akan muncul dan orang akan membuka website kamu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ketika menggunakan layanan iklan berbayar seperti google adwords, pebisnis tentunya memiliki berbagai tujuan seperti semakin banyak yang berkunjung ke situs website maupun toko online, mendapatkan banyak penjualan melalui ads dan lain-lain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> konten seperti gambar, video, musik, dan beberapa lainnya dapat ditampilkan dengan mudah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kualitas mobile bisa dilihat dari tampilan versi mobile, performa website ketika dibuka dalam browser mobile serta konten yang ada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> let the content speak for itself </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lewat internet, kamu bisa cari segala informasi yang kamu mau dari mulai berita terbaru, resep masakan, fashion yang lagi hits hingga diskon di berbagai toko online</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> livejournal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> livejournal merupakan salah satu platform yang digunakan untuk diskusi sekaligus untuk menulis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maka anda dapat mempublikasikan artikel yang berhubungan dengan tujuan website anda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maka dari itu, google sudah menerapkan mobile first indexing atau bisa disebut mobileseo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> makanya kamu mestinya buru-buru membuat website</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> makasih share artikle nya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maklom cupu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mau tanya, apa boleh kita mengubah templet blog yang di download? mohon pencerahannya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> medium dikembangkan oleh evan williams, mantan ceo twitter dan salah satu pengembang blogger, bersama dengan biz stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> melakukan promosi online melalui website tentunya didukung oleh tools lain seperti social media</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> membuat website anda ramai dikunjungi memang bukanlah perkara yang mudah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mengingat koneksi mobile lebih lambat jika dibandingkan dengan desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mereka menawarkan pengembangan website dari yang sangat simpel buat pengguna baru atau pengguna yang sudah terbiasa di dalam pengembangan website</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mereka menganggap bahwa platform ini memberikan visualisasi yang sangat menarik</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> metrik tersebut digunakan google untuk menentukan peringkat website di berdasarkan kualitas versi mobile dari website tersebut</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nah pastikan kamu menggunakan javascript dan css seperlunya saja ya! segala sesuatu yang berlebihan tidak baik bukan? untuk para programmer, kamu bisa memperkecil ukuran script dengan teknologi minify atau minifying </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nah, domainesia punya tips cara agar website muncul di halaman pertama google</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nah, pernah nggak kamu perhatikan bahwa website yang ada di halaman pertama google selalu jadi prioritas utama? hayo ngaku kalau kamu sedang berselancar di google atau biasa disebut “gugling” pasti selalu melakukan klik website yang ada di halaman pertama? bisa nggak sih website kita bisa tembus di halaman pertama google? atau bahkan bisa muncul di urutan pertama? bisa dong! ada berbagai cara mudah agar website muncul di halaman pertama google</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> namun beberapa fitur bisa digunakan ketika anda menggunakan akun bisnis atau berbayar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> namun kerap kali anda dihadapkan dengan kenyataan bahwa traffic website anda sepi pengunjung dan tetap berada di posisi terbawah atau dapat dikatakan tidak terjadi peningkatan sama sekali</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> namun saat ini sudah bisa diakses kembali</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> namun squarespace lebih diperuntukkan buat kamu yang hendak presentasi lewat website ke klien loh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> namun, sebagai gantinya, anda harus menentukan alamat url untuk menentukan artikel dan mengatur password untuknya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> navigasi yang disediakan tidak terlalu membingungkan bagi pengguna yang bahkan sama sekali belum pernah membukanya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> other words are unimportant things you will never need to know</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pada umumnya blogger diakses menggunakan alamat domain blogspot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pasar manggis, kec</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pastikan bahwa anda menggunakan jasa iklan yang memiliki track record yang bagus dan tidak termasuk jasa iklan yang sering melanggar aturan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pastikan kamu menggunakan gambar dengan format jpeg/ jpg atau png ya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pastikan kamu telah melakukan optimalisasi gambar hingga 70-80 persen dari ukuran aslinya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pemblokiran tumblr sudah terjadi sebanyak dua kali sejak tahun 2016 sampai dengan sekarang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pengembangan website pun cukup mudah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pengen tahu? yuk cek informasinya berikut ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pengertian, cara menggunakan dan contohnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pengguna cukup mendaftar pada halaman website dan langsung dapat membuat website menggunakan server</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pengguna dapat membuat website pribadi, bisnis, event, portofolio, dan blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pengguna dapat menyesuaikan tampilan antarmuka berbasiskan browser cukup dengan melakukan drag dan drop elemen untuk menyesuaikan halaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> penzu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> penzu menjaga journal anda tetap aman dengan proteksi password ganda dan enkripsi militer yang sangat kuat untuk memastikan apa yang anda masukkan aman di penzu vault</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pernah nggak kamu menemui website dengan tampilan yang super bagus namun loadingnya lama banget? tampilannya bagus sih dilengkapi dengan berbagai macam jenis javascript, video, warnanya menarik tetapi lama banget pas diakses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> platform blogging yang didirikan oleh john o’nolan pada tahun 2013 ini merupakan </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> platform ini adalah salah satu veteran dari daftar ini, livejournal memulai pengembangan pada tahun 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> platform ini beberapa waktu lalu sempat menuai kontroversi terkait dengan pemblokiran dari kementerian komunikasi dan informatika</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> platform ini cocok untuk anda yang ingin membuat web profesional seperti company profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> platform ini sangat fleksibel digunakan karena anda dapat menambahkan berbagai macam plugin, mengganti tema, dan bahkan menggunakan tema anda sendiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> postach</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> punya bbm akun atau instant messaging yang lainnya? coba nama anda ganti menjadi nama anda | www</t>
+    <t xml:space="preserve"> 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99 b semarang 50274 telp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ada banyak marketplace besar yang sudah ada di indonesia seperti lazada, tokopedia, bukalapak, shopee dan lain sebagainya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ahmad yani no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> akan tetapi, anda bisa membangun kursus online anda sendiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> akomodasi menggeluti startup yang berhubungan dengan akomodasi ini menggiurkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alasan dropshipping bisa menjadi bisnis digital yang menarik adalah anda bisa memulainya tanpa modal dan menentukan sendiri produk apa yang ingin anda jual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alasan pertama, hampir setiap orang mengandalkan mesin pencari sebelum membeli sebuah produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> analisa strategi digital yang telah digunakan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda bisa dengan leluasa mengatur bagaimana produk akan ditampilkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda bisa menggunakan media blog ini sebagai salah satu media untuk membangun bisnis digital, dan bisa membangun berbagai macam bisnis digital yang anda inginkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda bisa saja menjadi sosok sukses berikutnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda hanya perlu cermat mengamati kebutuhan pasar dan menciptakan produk yang dibutuhkan masyarakat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda hanya perlu memikirkan apa yang menjadi keahlian anda dan juga menarik untuk dijadikan konten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda juga bisa berbisnis dengan membuat website, yang mana domain dan hostingnya bisa beli di idcloudhost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda juga bisa membuat kursus online, yakni dengan memberi member beberapa tutorial dalam bentuk video atau bisa juga file pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda mahir mengambar? pembuatan  e-comic atau web cartoon  saat ini sedang banyak diminati</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda punya keahlian di bidang ini? kumpulkan teman-teman anda yang memiliki bakat serupa, lalu bangun sebuah startup web developer atau anda bisa juga memulai dengan menjadi freelance developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda tentu menyadari bahwa anda akan ketinggalan jika tidak turut ambil bagian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apa itu peluang bisnis di dunia digital ? 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apabila dijalankan dengan sungguh-sungguh dan niat untuk sukses yang tinggi maka hasil yang maksimal bisa anda dapatkan dengan mudah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aplikasi mobile   idwebhost   sebagian besar masyarakat kini sudah mengenal  smartphone , dan semua aktivitas internet kini bisa dilakukan melalui perangkat mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> artinya, masih banyak inovasi yang bisa dihasilkan sebagai peluang usaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> atau bisa juga berupa jasa atau layanan tertentu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> atau jika anda seorang penulis buku, anda bisa menjual buku elektronik anda di</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> baca juga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> baca juga </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bagaimana caranya? semua berawal dari ide</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bagaimana tanggapan masyarakat tentang bisnis ini? sangat baik! hingga saat ini, jumlah undangan yang telah terkirim mencapai 190 ribu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bagi anda yang baru pertama kali masuk ke dalam bisnis digital harus bisa membedakan perbedaan antara ecommerce dengan marketplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bagi yang ingin menggeluti bisnis digital agency harus tahu tekniknya terlebih dahulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bahkan perlu anda ketahui bahwa bisnis digital yang satu ini merupakan bisnis bagi sejuta umat yang ada di indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> baik dari sisi branding maupun kepercayaan pelanggan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> baik sekedar membaca berita, berbelanja, maupun melakukan investasi semua sudah dapat dilakukan melalui</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banyak juga wirausahawan muda inovatif yang ikut berkontribusi dalam memberikan solusi untuk masalah sosial yang ada melalui bisnis digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banyak pebisnis digital yang sudah mencapai kesuksesan dari bisnis yang dijalaninya, anda pun dapat mengikuti jejak mereka untuk menggeluti bisnis digital tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banyak penjual offline yang kemudian beralih menjual produknya secara online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bayangkan jika pelanggan anda berasal dari seluruh dunia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> beberapa ide bisnis digital yang anda geluti bisa saja tidak menunjukkan hasil di minggu pertama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> beberapa niche memiliki potensi menghasilkan keuntungan yang lebih besar dari yang lain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> berbeda dengan yang kita pahami sebelumnya, bisnis digital tidak semata terkait dengan penjualan produk tanpa wujud saja, seperti perangkat lunak komputer (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bertujuan jangka panjang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bertujuan jangka panjang pengguna internet di indonesia terus meningkat, mencapai 171 juta jiwa di tahun 2018 lalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bidang edukasi sendiri menjadi salah satu segmentasi yang tidak ada habisnya, hal ini juga berbanding lurus dengan semakin banyak lulusan yang mempunyai tujuan tertentu, nah dalam hal ini teknologi mempermudah orang untuk bisa belajar (kursus) secara online sebagai salah satu alternatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bingung bagaimana cara memulai sebuah blog ? pertama-tama, anda buat website! setelah itu anda tentukan nama domain yang menjadi alamat situs anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bisnis digital juga tidak hanya tentang produk fisik yang dikemas dalam bentuk digital seperti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bisnis digital mampu memberikan solusi untuk permasalahan ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bisnis digital yang dipasarkan secara online memiliki potensi penghasilan tanpa batas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bisnis e-commerce peluang yang pertama merupakan e-commerce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bisnis ini kenapa diminati karena resikonya bisa dibilang sangat kecil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bisnis menjual produk pribadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bisnis online atau bisnis digital kini menjadi salah satu pekerjaan yang bisa sangat menjanjikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bisnis yang satu ini merupakan ide bisnis yang menjanjikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> blog sering kali digunakan di dalam memperlancar proses membangun bisnis online seseorang atau bisa disebut dengan bisnis digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> blogger anda hobi menulis, bisa jadi bisnis kok! banyak orang kini mencari informasi hanya dengan hanya  searching  di internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bojonggenteng no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> buat halaman facebook, akun instagram, akun twitter, bahkan halaman linkedin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> buatlah konten kreatif yang sesuai dengan minat anda, seperti gadget reviewer, fashion blogger, food bloger, dan sebagainya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cara mendapatkan uang dari youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cara penyampaian yang menarik dan pilihan makanan yang super pedas membuat banyak orang tertarik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caranya? anda bisa menyewakan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> care@idcloudhost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> coming soon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> contoh produk digital antara lain ebook, video, audio, dll</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> daftar isi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dalam hal ini, digital agency bisa menjadi solusi tepat dalam pemasaran </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dari manakah penghasilan yang anda dapatkan? bisa dari iklan atau dari review berbayar yang anda lakukan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dengan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dengan banyaknya pengguna internet saat ini tentu bidang bisnis di dunia digital akan semakin berkembang dengan pesat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dengan hadirnya kemajuan teknologi yang ada, pengajuan kartu kredit atau peminjaman dana tidak perlu repot-repot untuk datang dahulu ke bank konvensional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dengan memiliki toko online sendiri, anda memiliki kendali penuh untuk menyelesaikan setiap permasalahan mungkin muncul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desain grafis jasa pembuatan desain merupakan peluang usaha yang selalu ramai dibutuhkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> di artikel ini, kami telah merangkumnya untuk anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> di bisnis affiliasi, tugas anda adalah seorang marketer yang menawarkan suatu produk, di bisnis dropship, anda benar-benar menjual barang tersebut dan menerima uang dari pembeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> di era digital ini, kursus online telah menjadi fenomena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> di halaman websitenya, pat flynn menyebutkan penghasilan dari bisnis digitalnya mencapai angka $2 juta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> di indonesia bisnis e-commerce ini berkembang secara signifikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> di sinilah sosial media akan berperan dengan cara yang paling efektif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> di sisi bisnis, ini adalah peluang bagus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> digital agency berfungsi sebagai pemberi solusi bagi para pebisnis yang mengalami kendala dalam berbisnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> digital agency ini sangat diperlukan karena saat ini banyak pebisnis yang mulai go online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> digital agency, membantu bisnis go online   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> digital media bagi anda yang suka menggeluti bisnis kreatif dapat menggeluti digital media</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> digital media startup, hiburan di era informatika</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dimana bidang ini merupakan bidang yang semakin hari semakin diminati oleh sebagian orang untuk dijadikan sebagai pekerjaan atau profesi mereka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> during his free time, he enjoys playing clash royale a lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e-commerce merupakan toko online yang menjadi sarana bisnis retail untuk bisa berjualan barang mereka secara online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e-commerce penjualnya hanya satu orang  sedangkan marketplace banyak penjual dalam satu wadah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e-commerce, belanja itu mudah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eits, tapi anda harus memperdalam ilmu dan tekniknya supaya tidak kalah saing dengan mereka yang sudah mahir di bidang desain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fanpage karma, hootsuite, dan yang lainnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> financial dalam urusan finansial pada era kemajuan teknologi ini, memiliki peran penting di dalamnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gunakan kekuatan dari media sosial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hadirkan konten-konten yang ringan tapi tetap memiliki nilai tersendiri lewat platform internet yang mudah untuk dilihat dan dibagikan, salah satunya menggunakan video atau tulisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hal ini dikarenakan peminat dari bisnis ini sangat banyak dan banyak orang pula yang menggunakan media yang satu ini sebagai sumber pendapatan mereka sebab sangat menjanjikan jika dijalankan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hal ini karena anda tetap bisa menjalankan bisnis tersebut di mana pun anda berada, selama 24 jam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hal ini tentu bergantung dengan bisnis yang anda geluti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hal ini tentu menguntungkan bagi anda, karena sekarang ini banyak masyarakat yang membutuhkan barang dengan cepat dan tidak memiliki banyak waktu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hal ini tentunya memunculkan keuntungan tersendiri bagi setiap pemilik bisnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hal itu dikarenakan potensi wisata pada setiap daerah di suatu kota sudah dimanfaatkan dan dikembangkan, sehingga semakin banyak masyarakat luar kota yang ingin berkunjung dan membutuhkan layanan akomodasi ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hal tersebut dibuktikan dengan banyaknya startup yang bermunculan yang kemudian kian menjadi besar karena banyak digunakan oleh masyarakat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hal utama yang perlu disiapkan nah, jika berbagai keunggulan di atas membuat anda tertarik menggeluti jenis bisnis ini, lalu apa saja yang perlu anda siapkan?   1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> harga terjangkau dan kualitas terbaik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hasilnya, jumlah follower yang mencapai 1,4 juta pengguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> he keeps on pursuing opportunities to engage with more people through articles about wordpress, internet marketing and other it-related issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ia rajin membuat konten di instagram ketika tengah mencicipi makanan di salah satu restoran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ide yang dimiliki sungguh kreatif , berawal dari keinginan untuk mengurangi penggunaan kertas undangan yang pada akhirnya terbuang sia-sia, ia membangun bisnisnya dari nol</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> indonesia sudah memberikan peluang atau tempat bagi para pebisnis digital untuk berkreasi dalam mengembangkan bisnisnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inspirasi bisa datang dari mana saja, anda bisa mencari ide-ide dari aplikasi yang sudah diciptakan di market play store dan app store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> itulah alasan mengapa banyak perusahaan melakukan transformasi digital, untuk meraih potensi besar tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jadi, anda cukup mengandalkan kemampuan menjual anda saja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jadi, pastikan untuk terlebih dahulu menentukan tujuan apa yang ingin dicapai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jangan lupa melengkapinya dengan aplikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jangan lupa untuk membeli hosting yang berguna untuk menyimpan data-datamu di internet ya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jangan lupa untuk mengolahnya dengan kreatif agar tetap menarik dan tidak membuat bosan untuk disimak bersama dengan orang-orang bertalenta pilihan anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jangan ragu untuk menyewa seorang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jangkauan pasar yang luas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jangkauan pasar yang luas jika anda menggeluti bisnis digital yang dijalankan secara online, pangsa pasarnya tentu akan lebih luas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jasa pembuatan website tentu membutuhkan keahlian khusus di bidang it, seperti membeli domain, hosting, serta jaringan internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika anda bingung harus memulai dari mana, silakan ikuti panduan tentang podcast kami</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika anda mampu menemukan ide bisnis digital yang tepat dan membangunnya dengan langkah yang benar, bukan mustahil anda akan mampu mencapai hasil terbaik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika anda menekuni bisnis digital ini dengan baik, anda bisa saja meraih kesuksesan seperti halnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika anda menguasai teknik seo yang baik, anda bisa menjadi konsultan seo untuk membantu website klien anda merajai mesin pencari</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika anda menjadi orang yang pertama terjun di bidang tersebut tentu saja anda akan berpeluang memperoleh peluang usaha yang sangat besar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika anda sudah memiliki blog, pastikan anda memiliki konten menarik yang mampu mendatangkan pengunjung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika anda tertarik dengan bisnis aplikasi mobile, anda bisa mencoba menekuni admob</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika belum, anda bisa membuatnya terlebih dahulu dengan mengikuti panduan lengkap membuat blog ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika di ibaratkan marketplace ini seperti sebuah mall yang dapat menampung banyak penjual dengan berbagai jenis dagangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika dibandingkan melalui</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika diolah secara kreatif maka konten tersebut akan tetap menarik dan membekas di hati pelanggan anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika jumlah follower anda meningkat, bisa saja datang tawaran kerjasama dari pihak baik dengan melakukan posting iklan produk maupun melakukan review berbayar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika proses digitalisasi bisnis dilakukan secara konsisten dalam jangka panjang, a sudah pasti bahwa hal ini akan menghemat banyak uang dan waktu bagi sebuah bisnis kedepannya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika telah mengetahui hasil evaluasi dari usaha mendigitalisasi bisnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kambingjantan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> karena tugas dan tanggung jawabnya banyak maka tidak mengherankan jika digital agency bisa menawarkan layanan yang beragam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> keahlian ini bisa menjadi inti bisnis digital yang anda tekuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kedung mundu raya no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kejelian anda dalam melihat peluang pasar turut menentukan niche yang anda pilih</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kelebihan bisnis digital jika anda masih ragu untuk terjun ke dunia bisnis digital, berikut ini beberapa keunggulan yang dapat anda jadikan pertimbangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kembangkan kemampuan anda agar mampu membuat aplikasi yang menjadi solusi bagi banyak orang seperti halnya gojek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kemudian berinvestasilah dalam iklan secara</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kesabaran anda adalah kuncinya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kesan ini kurang bisa muncul ketika bergabung ke marketplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kesimpulan bagi anda yang ingin menggeluti bisnis digital, idwebhost akan membahas pengertian serta peluangnya untuk 12 bisnis digital potensial tahun 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kesimpulan demikianlah beberapa peluang bisnis digital di indonesia dan potensinya yang begitu menarik, semoga informasi ini bermanfaat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ketekunannya dalam menyajikan konten yang menarik di akun youtubenya membuatnya memiliki hingga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kini anda dapat dengan mudah melakukan distribusi maupun promosi secara</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> koinworks merupakan salah satu perusahaan p2p lending yang terdaftar dan diawasi oleh otoritas jasa keuangan (ojk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> konsultan seo seo (search engine optimization) adalah upaya mendapatkan posisi terbaik di mesin pencari</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kuncinya adalah menentukan bisnis yang sesuai dengan kemampuan anda dan memiliki prospek bisnis yang baik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lalu bagaimana cara melakukannya? berikut adalah 5 langkah mudah untuk membuat bisnis online untuk menjadi lebih digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lalu pilih provider yang pas dan harga terjangkau dari idwebhost web hosting </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> learn how your comment data is processed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lebih banyak prospek calon konsumen tentunya akan mengikuti jika konten yang dimiliki adalah konten berkualitas tinggi yang memang ditujukan untuk target pasar yang spesifik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> luar biasa! ada banyak sekali program afiliasi yang bisa anda ikuti, seperti amazon affiliate yang menjual produk internasional untuk pelanggan global</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mampang prapatan 19c jakarta selatan 12790</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mampang prapatan xv no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mari kita masuk ke daftar 13 ide bisnis digital yang bisa anda coba di tahun 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> marketplace ini berbeda dengan e-commerce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> marpoyan damai pekanbaru 28128, indonesia kantor sukabumi jl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> masukkan email dan terapkan panduan praktisnya!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> melihat peluang yang lebar tidak ada salahnya untuk mencoba membuka bisnis e-commerce tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> membangun digital agency peluang bisnis digital yang menjanjikan selanjutnya adalah dengan membangun atau mendirikan digital agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> membangun toko online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> membangun toko online membangun toko online adalah membuat sebuah website atau platform sebagai sarana bagi transaksi pembelian produk secara online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> memberikan kenyamanan kepada pelanggan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> memberikan kenyamanan kepada pelanggan di tengah kesibukan menjalankan rutinitas, sebagian orang mungkin tidak sempat pergi ke suatu tempat untuk membeli sesuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> membuat aplikasi mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> membuat aplikasi mobile saat ini jumlah pengguna mobile di indonesia mencapai 350 juta jiwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> memiliki sebuah website yang menarik </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> memiliki sebuah website yang menarik  ide bisnis digital memerlukan kehadiran sebuah website yang tidak hanya mendatangkan pengunjung, tapi juga menghasilkan transaksi penjualan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menawarkan jasa pembuatan website</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menawarkan jasa pembuatan website jika anda seorang developer, kemampuan anda membuat website yang menarik bisa menjadi bisnis digital yang potensial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mendirikan marketplace peluang bisnis digital di indonesia yang menarik digeluti selanjutnya adalah dengan mendirikan marketplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menekuni bisnis afiliasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menekuni bisnis afiliasi afiliasi adalah kegiatan memasarkan barang milik orang lain dengan imbalan berupa komisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menentukan tujuan bisnis online anda nah itulah beberapa contoh bisnis digital yang bisa anda jalankan yang mempunyai peluang sukses besar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengajar online kemajuan teknologi informasi telah menjangkau dunia pendidikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengapa anda ingin membuat bisnis menjadi lebih digital? apa tujuanmu? apakah anda ingin mendapatkan lebih banyak penjualan?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengapa demikian? seperti yang kita ketahui, saat ini sosial media adalah salah satu situs yang paling sering diakses oleh masyarakat indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meningkatnya penggunaan internet dan berbagai kemudahan yang ditawarkan oleh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menjadi blogger terkenal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menjadi instagram influencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menjadi seorang podcaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menjadi seorang podcaster podcast adalah konten audio yang bisa diakses secara online dan bersifat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menjadi seorang youtuber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menjadi seorang youtuber berapakah penghasilan yang bisa didapatkan dengan menjadi seorang youtuber? rp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menjajal bisnis dropship</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menjajal bisnis dropship dropship adalah bisnis digital yang memungkinkan anda menjual suatu produk tanpa memikirkan gudang dan pengiriman barang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menjual produk digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menjual produk digital produk digital adalah sebuah produk yang tidak memiliki bentuk fisik dan dijual secara online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menulis konten digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menulis konten digital anda memiliki keahlian menulis? dengan keahlian tersebut, anda bisa menghasilkan banyak uang di era digital saat ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menurut konsultan ternama, jiten kachhela, kesuksesan aplikasi atau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meskipun bisnis marketplace ini telah dikuasai oleh pemain besar, namun bagi pemula masih ada kesempatan untuk menggeluti bisnis ini jika kreatif dan inovatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> minat masyarakat terhadap transportasi saat ini sangat besar karena lebih praktis dibandingkan dengan menggunakan kendaraan pribadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> misalnya akan membuka digital agency yang memberikan layanan seo maka ajaklah teman yang menguasai teknik seo baik off page ataupun on page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> misalnya, jika anda gemar mencicipi berbagai makanan lezat, review makanan mungkin bisa jadi niche anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> misalnya, memberikan konten berupa informasi unik yang menghibur bagi banyak orang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mulai dari pakaian, barang bekas, hingga tiket pesawat, semuanya bisa didapatkan dengan mudah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mulailah dengan belajar menulis konten yang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mulailah dengan membuat website resmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nah beberapa contoh yang mungkin bisa anda jadikan sebagai produk pribadi adalah seperti kerajinan tangan, atau bisa juga produk fashion atau pakaian, dan yang paling baik adalah produk digital, dan masih banyak lagi yang lainnya yang mungkin bisa anda kembangkan sendiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nah maka dari itu, ini lah yang menyebabkan kenapa bisnis online penulis artikel ini merupakan salah satu bisnis digital yang sangat menjanjikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> namun idealnya, anda bisa menggunakan blog anda sebagai sarana menawarkan jasa tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> namun yang disayangkan dari pekerjaan bisnis digital yang satu ini adalah tidak semua orang bisa dan mampu dalam membuat artikel dengan baik dan benar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> namun, ada satu hal yang perlu anda ingat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> namun, dibutuhkan waktu yang tidak singkat untuk melakukannya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> namun, jika anda memiliki sebuah blog yang memiliki pengunjung cukup banyak, anda bisa menawarkan keahlian anda di blog tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> namun, jika anda memulainya dengan benar, proses selanjutnya akan lebih mudah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> namun, sebelum membahasnya lebih lanjut, mari kita pelajari terlebih dahulu apa bisnis digital itu sebenarnya dan apa saja keunggulannya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> niagahoster sendiri memiliki program afiliasi yang bisa anda pelajari lebih lanjut di panduan ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nikmati 9 keuntungan untuk transaksi bisnis, termasuk transaksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> olahraga untuk mental, fisik dan spiritual baca selengkapnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> oleh sebab itu jika anda ingin terjun ke bisnis digital secara online, penting untuk melakukan analisa bisnis digital apa yang banyak dibutuhkan oleh masyarakat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> orang akan menilai seberapa profesional sebuah bisnis didasarkan pada apa yang dilihat melalui</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pancoran jakarta selatan 12790, indonesia kantor pekanbaru jl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pastikan anda untuk terus mencari tahu data terkini agar tetap dapat terus meningkatkan kinerja dan performa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pebisnis digital bisa menawarkan jasa pembuatan toko online kepada orang yang membutuhkannya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> peluang dalam fintech atau financial pada teknologi ini masih sangat terbuka lebar, sehingga bagi anda yang ingin menggeluti bisnis digital di indonesia bisa mencoba dalam bidang ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> peluang usaha pembuatan aplikasi mobile &amp; game akan selalu jadi primadona</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pemilihan niche yang potensial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pemilihan niche yang potensial niche adalah jenis bisnis yang ingin anda geluti secara spesifik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pengertian dan penggunaannya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> percayakan giro 9 untuk membantu anda agar lebih mudah dan nyaman dalam menjalankan aktivitas perbankan sehari-hari</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> periksalah kembali apakah setiap konten yang telah di</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> perintis kemerdekaan no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> perjalanan suksesnya diawali dengan menulis di laman blog pribadinya saat itu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> perkembangan bisnis dunia digital yang semakin pesat, telah dipelopori dengan jaringan internet yang semakin cepat berkembang dan pola belanja masyarakat yang berubah dari offline ke online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pesan yang bisa kita ambil adalah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pilihan yang beragam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pilihan yang beragam perkembangan teknologi diprediksi belum akan berhenti bahkan hingga beberapa dekade mendatang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> podcaster adalah orang yang membuat konten audio tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> potensi bisnis digital membahas potensi bisnis digital di indonesia ini begitu menarik, hal itu dikarenakan peluang bisnis digital masih sangat menggiurkan untuk digeluti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> potensi penghasilan tanpa batas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> potensi penghasilan tanpa batas inilah yang terpenting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> praktis, bukan? 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prioritaskan pada bagian desain</t>
   </si>
   <si>
     <t xml:space="preserve"> required fields are marked *</t>
   </si>
   <si>
-    <t xml:space="preserve"> saat menggunakan wix secara gratis, kamu akan mendapatkan ruang penyimpanan 500mb dan bandwith 1gb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> saharjo no 42e, kel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> salah satu fitur dari postach adalah integrasi dengan evernote</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> salah satu kelebihan platform blog gratis ini adalah navigasi yang mudah dipahami oleh blogger pemula sekalipun</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sama seperti website builder pada umumnya, wix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sampai dengan saat ini wix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> saya ambil contoh nyunyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> search engine optimization adalah salah satu cara menaikkan traffic website agar bisa ada di rangking paling atas pada search engine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sejak tahun 2012 medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sekaligus ada banyak cara untuk menampilkan konten-konten ini di website</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selain dapat membangun kredibilitas bisnis online, diliput oleh media maupun direview oleh blog dengan statistik yang bagus juga dapat memudahkan calon pembeli untuk menemukan tulisan tentang bisnis online yang anda jalankan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selain itu fleksibilitas yang ditawarkan juga menjadi daya tarik sendiri seperti adanya tiga jenis/tipe blog yang ditawarkan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selain itu jika kamu berniat untuk melakukan monetisasi, blogger sangat cocok karena sangat mudah memasangnya lewat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selain itu pastikan desain kamu pas dan cocok dengan proses bisnis yang ada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selain itu, ada fitur custom domain yang bisa anda gunakan untuk membuat website dengan menggunakan domain anda (domain berbayar) sendiri secara gratis tanpa harus upgrade atau membayar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selain itu, lakukan satu panggilan ke server untuk mengambil semua script yang ada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selain itu, rajinlah untuk blogwalking atau memberi komentar ke blog lain agar semakin banyak pula yang mengetahui dan mengunjungi blog anda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selain menawarkan kemudahan, mereka juga memberikan tampilan yang menarik sehingga tidak membosankan bagi pengunjung untuk membaca artikel-artikel yang ada di dalamnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selalu ingat, bahwa website diciptakan untuk mempermudah customer bukan mempersulit customer!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selamat membuat website dan toko online dengan mudah dan murah di webpraktis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selamat mencoba adi sumaryadi - bicara it dan internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> semoga artikel ini memberikan informasi yang bermanfaat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> semoga bermanfaat dan selamat mencoba!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seperti wordpress, ghost juga memiliki dua layanan </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> setia budi, jakarta selatan, dki jakarta 12970, indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> siapa yang tidak ingin websitenya ada di halaman pertama google dan nangkring di rangking pertama</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> silahkan cek web http</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> silahkan daftar sekarang dengan menekan tombol di bawah ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> silahkan memasukkan password yang benar, atau tekan tombol di bawah untuk reset password</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> simanjuntak no</t>
+    <t xml:space="preserve"> saat ini tersedia beberapa data center utama yang dapat anda gunakan dengan berlangganan menggunakan layanan kami</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saat ini, sudah banyak platform manajemen konten dengan menggunakan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> salah satu contohnya,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> salah satu media yang paling sering digunakan dalam membangun suatu bisnis digital adalah blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> salah satunya, dengan mempelajari data kostumer anda agar lebih memahami untuk bertindak nantinya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sama dengan pembuatan marketplace agar bisa bersaing harus kreatif dan juga inovatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sebab, promosi online ataupun cetak membutuhkan tampilan menarik melalui  tools  komputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sebagai contoh bisnis startup transportasi yang ada di indonesia yaitu go-jek, grab, dan lain sebagainya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sebagai contoh, jika anda memiliki kemampuan dalam memberikan motivasi pengembangan diri, anda bisa menjadi seorang motivator online yang sukses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sebelumnya, anda harus pergi ke tempat kursus untuk mendapatkan ilmu baru</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sebutkan siapa saja yang sih membutuhkan jasa web developer? mulai dari e-commerce, lembaga pendidikan, perusahaan, pemerintahan, ekspedisi, games, mobile apps, dan sebagainya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selain bank, pegadaian pun juga telah memanfaatkan teknologi ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selain bekal ilmu yang anda dapat di jurusan kuliah, desain grafis bisa dipelajari dengan cara kursus ataupun dengan otodidak</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selain itu teknik memasarkan produk dengan seo pun bisa dilakukan oleh digital agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selain itu, anda juga bisa mengembangkan bisnis anda sesuai yang anda rencanakan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selain itu, kemampuan mengelola toko online dengan baik menunjukkan anda seorang penjual yang berpengalaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selain itu, seo juga efektif untuk mendatangkan pengunjung website tanpa mengeluarkan biaya, yaitu dari organic traffic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selain potensial, bisnis ini memungkinkan anda bekerja dari rumah atau dari tempat manapun yang anda sukai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selain tidak perlu ada bagi hasil, anda bebas menentukan model bisnis, tarif dan cara promosinya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selain tidak perlu repot ke toko buku, anda cukup membuka handphone untuk membaca novel tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selama jaringan internet lancar, serta jumlah penggunanya kian bertambah maka potensi untuk berbisnis digital ini masih terbuka lebar bagi anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> semakin banyak penonton dan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> semakin menarik blog anda, semakin besar kemungkinan tawaran pekerjaan untuk menulis konten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> senin-jumat, 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> setelah memiliki website anda akan mampu memasuki bisnis digital untuk jangka panjang dengan lebih percaya diri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> setelah sudah cukup paham, tentukan tujuan anda dan tetap fokus untuk mencapai kesuksesan dan jangan lupa untuk selalu membuka diri dengan mempelajari ilmu-ilmu baru</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> silakan pelajari lebih lanjut tentang panduan admob secara lengkap </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solusi yang diberikan misalnya bagaimana cara memasarkan produk dengan benar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> startup yang sudah memiliki nama dalam bidang akomodasi yaitu traveloka</t>
   </si>
   <si>
     <t xml:space="preserve"> subscribe sekarang dan #buildsuccessonline bersama niagahoster!</t>
   </si>
   <si>
-    <t xml:space="preserve"> tampilan yang menarik dan terkesan minimalis membuat orang-orang betah untuk berselancar di dalamnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tarif yang kami berikan pun sangatlah murah, bayangkan anda kirim barang dari jakarta ke pontianak /kg hanya 5000 di mana anda bisa dapat jasa cargo semurah itu? akan tetapi memang ada syaratnya kenapa bisa murah seperti itu, karena syarat sekali kirim 100kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tentu disesuaikan dengan siapa yang akan melihat website kita, bisa juga ikut pameran</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tercatat platform ini sudah ada sejak tahun 2003 yang dikembangkan oleh google melalui pyra labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> terkadang alamat website atau domain menjadi keyword utama di mesin pencari, alangkah baiknya jika alamat website anda mudah diingat agar memudahkan para pengguna internet untuk menemukan website anda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tersedia juga beberapa tema yang bisa digunakan langsung tanpa harus menyusunnya dari awal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> testimoni pelanggan bisa menjadi acuan bagi calon pembeli yang akan membeli produk anda secara online</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tidak hanya company profile, pengguna juga dapat membuat berbagai jenis website sesuai dengan tujuan dan kegunaannya masing-masing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tidak seperti yang lainnya, pen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tumblr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tumblr bisa kamu gunakan selayaknya buku harian dan cocok untuk blog pribadi </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tumblr diblokir karena dianggap menyebarkan konten yang melanggar undang-undang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tumblr sepenuhnya tersedia secara gratis, tanpa memiliki opsi premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tumblr ternyata menjadi idola di beberapa blogger</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tunggu apa lagi, kita manfaatkan teknologi sebaik mungkin sehingga bisa digunakan untuk menyebarkan konten yang kita buat ke seluruh dunia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> umumnya orang mengunjungi website anda untuk mencari informasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> untuk informasi lainnya terkait webpraktis silakan langsung dilihat di tutorial atau faq kami</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> untuk lebih jelasnya, anda dapat membaca artikel perbedaan wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> untuk lebih jelasnya, bisa baca cara install plugin w3 total cache</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> untuk mengatur layout, kamu tinggal melakukan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> webs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> website adalah media promosi yang juga butuh dipromosikan, jika website anda bermuatan bisnis, tak apalah sesekali membuat spanduk atau beriklan di radio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> website ini bisa kamu gunakan secara gratis dengan menawarkan tampilan antarmuka yang cukup mudah dipahami oleh pemula</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> website ini memberikan kemudahan dalam mengelola konten seperti tulisan dan video tanpa kemampuan coding </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> website kamu semakin terkenal, blog kamu semakin banyak yang baca serta jualan kamu semakin laris</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> website sendiri kayanya bakal menjadi salah satu kebutuhan manusia di era modern </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> website yang memiliki konten unik lebih mudah terkenal ketimbang website yang palugada ( segala ada)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> weebly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wordpress menjadi website gratis yang paling banyak digunakan di seluruh dunia dengan populasi 24 persen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wordpress menyediakan dua layanan utama, yaitu wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ya, ghost merupakan platform blogging baru yang mungkin bisa bersaing dengan wordpress dan blogger</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yola</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yola bakal memberikanmu pilihan untuk membuat 5 website secara gratis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yola juga menyediakan hosting dengan kapasitas penyimpanan 1gb,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yola sangat cocok digunakan buat kamu yang memulai bisnis online </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
+    <t xml:space="preserve"> sukses untuk anda!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sungguh sebuah pasar yang potensial!  jika anda memiliki keahlian membuat aplikasi mobile, baik untuk platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> supaya sukses dalam menggeluti bisnis digital media, yang harus anda lakukan adalah dengan memberikan konten melalui tulisan ataupun video yang ringan tetapi menghibur serta menarik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tanpa keahlian pemrograman pun anda mampu membuat sebuah toko online yang profesional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> teknologi sekarang ini dapat dikatakan sudah sangat tidak terpisahkan dari bagian keseharian masyarakat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> telp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> temukan celah apa yang bisa dijadikan peluang bisnis inovatif dengan bekerjasama dengan transportasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tentu anda bisa menemukan bisnis anda sendiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tentu dengan adanya fakta ini bisa membuat kedudukan internet sangat penting adanya bagi masyarakat indonesia di samping kebutuhan sehari-hari seperti sandang pangan dan papan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tentu omset penghasilan anda akan semakin berlipat ganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tentu saja bisnis ini bisa sangat menjanjikan untuk anda khususnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tentunya dengan didukung oleh portofolio hasil pekerjaan anda sehingga membuat calon klien anda semakin tertarik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> terlebih harus menempuh kemacetan kota untuk sampai ke tempat berbelanja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tetapi semuanya bisa dilakukan secara online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tidak hanya itu, bisnis digital juga merupakan upaya untuk membangun identitas online yang bertujuan jangka panjang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tidak hanya itu, konsumen pun merasa lebih aman dalam perjalanan karena informasi rute dan data pengemudi dapat dibagikan kepada kerabat mereka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> transportasi peluang bisnis digital di indonesia yang menarik digeluti selanjutnya adalah dengan membuka startup yang berhubungan dengan transportasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveloka ini sangat membantu pengguna untuk bisa mendapatkan akomodasi seperti yang diharapkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tugas utama anda di dalam melaksanakan pekerjaan yang satu ini adalah dengan mengolah dan mengeksekusi dengan baik sponsor atau iklan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> untuk indonesia, portal berita seperti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> untuk level global dengan menggunakan bahasa inggris, pilihannya antara lain writersweekly </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> untuk membangun sebuah website , anda perlu menyewa hosting dan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> untuk menggeluti bisnis ini, anda harus kreatif dan memberikan konten yang menarik supaya orang-orang menjadi terhibur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> usaha ini sangat menjanjikan, mengingat internet sudah merambah hampir di semua bidang kehidupan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> waktu untuk mengembangkannya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> waktu untuk mengembangkannya anda mungkin pernah mendengar peribahasa “kota roma tidak dibangun dalam semalam” kan? dalam bisnis, hal ini juga berlaku</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> walaupun jalannya terasa cukup panjang, bisnis yang satu ini memiliki peluang cukup baik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> walaupun konsultan seo di indonesia sudah cukup banyak, peluang bisnisnya masih terbuka lebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> web developer web developer sangat bisa untuk dijadikan sebagai peluang bisnis digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> website yang bisa membantu anda menjual karya musik online antara lain tunecore dan songcast </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ya, bisnis digital menawarkan kenyamanan yang lebih kepada pelanggan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yang mana ini akan digunakan untuk melakukan tindakan promosi terhadap suatu produk atau jasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yang pertama dengan membuat daftar layanan apa saja yang akan ditawarkan lalu kemudian ajaklah teman yang memiliki kemampuan atau skill di dalamnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> youtuber punya kamera? punya ide konten? punya keahlian editing video? bikin vlog yuk! upload konten-konten menarik dan informatif melalui </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   idwebhost 8</t>
+  </si>
+  <si>
+    <t>(buku elektronik)</t>
+  </si>
+  <si>
+    <t>(ruang) di blog anda untuk iklan seperti yang dilakukan oleh blogger terkenal,</t>
+  </si>
+  <si>
+    <t>(sesuai permintaan)</t>
   </si>
   <si>
     <t>)</t>
   </si>
   <si>
-    <t>+62 812 114 000 33 (customer care)</t>
-  </si>
-  <si>
-    <t>+62 812 114 000 33 (customer care) +62 857 7494 8401 (pemesanan)</t>
-  </si>
-  <si>
-    <t>+62 857 7494 8401 (pemesanan)</t>
-  </si>
-  <si>
-    <t>//www</t>
+    <t xml:space="preserve">) seperti freelancer </t>
+  </si>
+  <si>
+    <t>* ) jam kerja</t>
+  </si>
+  <si>
+    <t>* pada account hosting</t>
+  </si>
+  <si>
+    <t>, anda bisa hasilkan uang melalui iklan di youtube! 6</t>
+  </si>
+  <si>
+    <t>, anda bisa mencoba menekuni bisnis digital ini</t>
+  </si>
+  <si>
+    <t>, anda memasarkan produk tersebut menggunakan website atau media sosial anda</t>
+  </si>
+  <si>
+    <t>, anda mendaftar pada sebuah program afiliasi dan kemudian mendapatkan kode referal atau tautan khusus</t>
+  </si>
+  <si>
+    <t>, konsumen sudah dapat mencari berbagai macam keperluan yang dibutuhkan</t>
+  </si>
+  <si>
+    <t>, pada saat ada pembeli yang menggunakan kode yang anda berikan atau mengikuti tautan yang anda sarankan, anda akan mendapatkan bagi hasil pendapatan</t>
+  </si>
+  <si>
+    <t>, sebuah website yang menawarkan jasa pembuatan undangan online</t>
+  </si>
+  <si>
+    <t>, sehingga konsumen tidak perlu repot-repot mencarinya di pinggir jalan saat matahari terik ataupun hujan</t>
+  </si>
+  <si>
+    <t>, yaitu ranah bisnis yang belum digarap oleh siapapun</t>
+  </si>
+  <si>
+    <t>-nya</t>
+  </si>
+  <si>
+    <t>//idcloudhost</t>
   </si>
   <si>
     <t>00</t>
   </si>
   <si>
-    <t>00 wib</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>07 wib</t>
-  </si>
-  <si>
-    <t>1 daftar website penyedia blog gratis tebaik &amp;  populer</t>
-  </si>
-  <si>
-    <t>1 optimalisasi kecepatan akses website</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>10 wib | 16</t>
-  </si>
-  <si>
-    <t>11 mei 2019 pukul 23</t>
-  </si>
-  <si>
-    <t>11 website penyedia blog gratis terbaik &amp; terpopuler</t>
-  </si>
-  <si>
-    <t>11 website penyedia blog gratis terbaik &amp; terpopuler 11 website penyedia blog gratis terbaik &amp; terpopuler</t>
-  </si>
-  <si>
-    <t>12 september 2019 pukul 23</t>
-  </si>
-  <si>
-    <t>14 april 2019 pukul 23</t>
-  </si>
-  <si>
-    <t>15 desember 2018 pukul 08</t>
-  </si>
-  <si>
-    <t>15 juli 2019 pukul 17</t>
-  </si>
-  <si>
-    <t>15+ cara cepat meningkatkan penjualan online »</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>16 2014-08-12 11</t>
-  </si>
-  <si>
-    <t>16 agustus 2019 pukul 17</t>
-  </si>
-  <si>
-    <t>16 wib</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19 agustus 2019 pukul 02</t>
-  </si>
-  <si>
-    <t>19 mei 2019 pukul 01</t>
-  </si>
-  <si>
-    <t>19 mei 2019 pukul 23</t>
-  </si>
-  <si>
-    <t>19 oktober 2019 pukul 04</t>
+    <t>00-16</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>1 1</t>
+  </si>
+  <si>
+    <t>1 apa itu bisnis digital?</t>
+  </si>
+  <si>
+    <t>10 10</t>
+  </si>
+  <si>
+    <t>10 orang terkaya di dunia dan cara menjadi seperti mereka</t>
+  </si>
+  <si>
+    <t>10+ plugin woocommerce terbaik untuk toko online anda</t>
+  </si>
+  <si>
+    <t>11 11</t>
+  </si>
+  <si>
+    <t>11 kekuatan kata untuk digunakan email penjualan anda</t>
+  </si>
+  <si>
+    <t>11+ ide bisnis digital yang paling menjanjikan - niagahoster</t>
+  </si>
+  <si>
+    <t>11+ ide bisnis digital yang paling menjanjikan di tahun 2020 11+ ide bisnis digital yang paling menjanjikan di tahun 2020</t>
+  </si>
+  <si>
+    <t>12 2019! diskon 70% hosting 5gb</t>
+  </si>
+  <si>
+    <t>12 peluang bisnis dunia digital 2019 - blog idwebhost</t>
+  </si>
+  <si>
+    <t>12 peluang bisnis dunia digital 2019 apa itu peluang bisnis di dunia digital ? ada beberapa peluang bisnis digital di indonesia yang masih potensial untuk digeluti</t>
+  </si>
+  <si>
+    <t>13 13</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>2 cara mudah agar website muncul di halaman pertama google</t>
-  </si>
-  <si>
-    <t>2 mei 2019 pukul 20</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020 © jalantikus </t>
-  </si>
-  <si>
-    <t>21 juli 2019 pukul 06</t>
-  </si>
-  <si>
-    <t>21 wib</t>
-  </si>
-  <si>
-    <t>23 juli 2019 pukul 12</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>26 juli 2019 pukul 00</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>27 agustus 2019 pukul 09</t>
-  </si>
-  <si>
-    <t>27 april 2019 pukul 03</t>
-  </si>
-  <si>
-    <t>27 april 2019 pukul 23</t>
-  </si>
-  <si>
-    <t>27 mei 2019 pukul 07</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>29 april 2019 pukul 16</t>
-  </si>
-  <si>
-    <t>3 oktober 201820 maret 2018   ditulis oleh mutiara auliya</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>30 oktober 2019 pukul 00</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>45 wib</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>5 april 2018 pukul 11</t>
-  </si>
-  <si>
-    <t>5 tips jitu mendapatkan internet gratis fakta dan trend internet marketing terkini - digital summit 2019 kemana sangkuriang setelah menendang perahu? akankah ada unicorn yang tumbang 5 tahun mendatang?</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>53 wib</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>6 cara menghasilkan uang dari blog tanpa modal dengan mudah</t>
-  </si>
-  <si>
-    <t>6 september 2019 pukul 01</t>
-  </si>
-  <si>
-    <t>6 tampilan website versi mobile</t>
-  </si>
-  <si>
-    <t>606 views | comments 2014-08-12 11</t>
-  </si>
-  <si>
-    <t>65, terban, gondokusuman yogyakarta 55223 daerah istimewa yogyakarta, indonesia phone</t>
-  </si>
-  <si>
-    <t>7 cara membuat website kita terkenal</t>
-  </si>
-  <si>
-    <t>7 situs membuat website gratis terbaik 2018</t>
-  </si>
-  <si>
-    <t>7 situs membuat website gratis terbaik 2018 - jalantikus</t>
-  </si>
-  <si>
-    <t>7 situs membuat website gratis terbaik 2018 0 0 productivity</t>
-  </si>
-  <si>
-    <t>7 situs untuk membuat website gratis</t>
-  </si>
-  <si>
-    <t>8c sebrang tunas toyota cinere</t>
-  </si>
-  <si>
-    <t>9 april 2018 pukul 14</t>
-  </si>
-  <si>
-    <t>9 kebiasaan content creator yang sukses</t>
-  </si>
-  <si>
-    <t>[…] apalah arti website tanpa konten dan seo</t>
-  </si>
-  <si>
-    <t>[…] misalnya cara install ulang komputer, cara membuat website, cara membuat toko online ataupun cara agar website di rangking pertama google</t>
-  </si>
-  <si>
-    <t>[…] misalnya cara install ulang komputer, cara membuat website, cara membuat toko online ataupun cara agar website di rangking pertama google</t>
-  </si>
-  <si>
-    <t>ada beberapa aplikasi atau platform yang dapat membantu anda membuat blog secara gratis untuk mempublikasikan artikel-artikel anda</t>
-  </si>
-  <si>
-    <t>adi sumaryadi | selasa, 12 agustus 2014 11</t>
-  </si>
-  <si>
-    <t>aktifitas mobile yang kita lakukan sehari-hari membuat pengawasan terhadap rumah maupun tempat tinggal kita tidak maksimal, bahkan dibeberapa kesempatan kita mendapatkan efek buruk dari minimnya pengawasan kita terharap rumah kesayangan kita seperti kejadian pencurian, kebakaran hingga hal-hal negative yang tidak kita inginkan</t>
-  </si>
-  <si>
-    <t>aktual dan umum 12 sudut pandang 31 islam dan seputarnya 11 cerita dan kisah 6 iseng dan gak jelas 8 teknologi informasi 42 campur-campur 27 curhatan hatiku 8 cerita sehari-hari 2 bisnis dan wirausaha 8 jalan jalan dan kuliner 1 seputar film 3 bangun website 0 sapa teman dan kenalan 7 tentang pangandaran 10 startup indonesia 3 persib bandung 2 saya dan keluarga 1</t>
-  </si>
-  <si>
-    <t>alamat email yang anda masukkan belum terdaftar</t>
-  </si>
-  <si>
-    <t>apa itu slug? tips membuat slug seo-friendly</t>
-  </si>
-  <si>
-    <t>apabilah anda mencari minyak pengasihan maka yang muncul di halaman depan adalah wwww</t>
-  </si>
-  <si>
-    <t>apakah artikel ini membantu kamu?</t>
-  </si>
-  <si>
-    <t>artikel nya sangat bermanfaat ! jangan lupa mampir ke website kami juga ya ka ?? http</t>
-  </si>
-  <si>
-    <t>atau artikel menarik lainnya dari</t>
-  </si>
-  <si>
-    <t>awasi rumah dari manapun dengan home monitoring</t>
+    <t>2 11+ ide bisnis digital terbaik</t>
+  </si>
+  <si>
+    <t>2 2</t>
+  </si>
+  <si>
+    <t>2015 - 2020 © pt cloud hosting indonesia</t>
+  </si>
+  <si>
+    <t>26 juni 2019 15 agustus 2019</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3 3</t>
+  </si>
+  <si>
+    <t>3 tanah datar, kec</t>
+  </si>
+  <si>
+    <t>30 ide bisnis kreatif yang bisa anda lakukan di…</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4 4</t>
+  </si>
+  <si>
+    <t>4 cara meningkatkan penjualan online saat musim liburan</t>
+  </si>
+  <si>
+    <t>4 hal utama yang perlu disiapkan</t>
+  </si>
+  <si>
+    <t>4 ide bisnis digital sukses untuk anda coba</t>
+  </si>
+  <si>
+    <t>4 ide bisnis digital sukses untuk anda coba | blog bank dbs indonesia</t>
+  </si>
+  <si>
+    <t>4 kuliner jepang yang wajib dicoba</t>
+  </si>
+  <si>
+    <t>4 teknik pemasaran bisnis online yang wajib diterapkan</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5 5</t>
+  </si>
+  <si>
+    <t>5 cara ini bisa tingkatkan keuntungan bisnis saat libur natal dan tahun baru!</t>
+  </si>
+  <si>
+    <t>5 langkah membuat bisnis online menjadi lebih digital di era teknologi</t>
+  </si>
+  <si>
+    <t>5 langkah membuat bisnis online menjadi lebih digital di era teknologi | koinworks blog</t>
+  </si>
+  <si>
+    <t>5 manakah bisnis digital anda?</t>
+  </si>
+  <si>
+    <t>5 tips mempersiapkan dana darurat agar keuangan selamat</t>
+  </si>
+  <si>
+    <t>5a duren tiga, kec</t>
+  </si>
+  <si>
+    <t>5a jakarta selatan 12790, indonesia (021) 40000 995 care@idcloudhost</t>
+  </si>
+  <si>
+    <t>6 6</t>
+  </si>
+  <si>
+    <t>6 prinsip pengusaha startup yang bisa kamu terapkan</t>
+  </si>
+  <si>
+    <t>6 tempat wisata di tokyo yang wajib dikunjungi 31, january 2016</t>
+  </si>
+  <si>
+    <t>7 7</t>
+  </si>
+  <si>
+    <t>7 ide bisnis online sampingan terbaik</t>
+  </si>
+  <si>
+    <t>8 platform cms toko online terbaik 2018</t>
+  </si>
+  <si>
+    <t>9 9</t>
+  </si>
+  <si>
+    <t>? menetapkan tujuan akan membantu untuk menentukan strategi digital apa yang perlu digunakan</t>
+  </si>
+  <si>
+    <t>[solved] informasi gangguan akses website menggunakan https</t>
+  </si>
+  <si>
+    <t>ada macam-macam solusi  yang ditawarkan oleh digital</t>
+  </si>
+  <si>
+    <t>adalah alasan mengapa bisnis ini memiliki peluang baik</t>
+  </si>
+  <si>
+    <t>adalah nama youtuber dengan penghasilan tersebut</t>
+  </si>
+  <si>
+    <t>adalah salah satu contohnya</t>
+  </si>
+  <si>
+    <t>agar dapat menjangkau pasar yang lebih luas</t>
+  </si>
+  <si>
+    <t>akan tidak berarti tanpa adanya evaluasi</t>
+  </si>
+  <si>
+    <t>anda sedang melihat peluang yang menjanjikan dalam industri ini? empat ide bisnis digital berikut bisa menjadi sumber inspirasi anda dalam mengembangkannya!</t>
+  </si>
+  <si>
+    <t>anda tentu mengenal sosok raditya dika, seorang penulis buku dan pemain film</t>
+  </si>
+  <si>
+    <t>anda tidak tergantung dengan pihak lain</t>
+  </si>
+  <si>
+    <t>anda, kemudian proses pengembangan dapat mulai dilakukan pada konten-konten berikutnya untuk menciptakan hasil yang lebih maksimal</t>
+  </si>
+  <si>
+    <t>apa itu bisnis digital? bisnis digital adalah suatu jenis usaha yang memanfaatkan kecanggihan teknologi ketika menciptakan sebuah produk ataupun memasarkannya</t>
+  </si>
+  <si>
+    <t>apa itu google news dan bagaimana cara mendaftarkannya</t>
+  </si>
+  <si>
+    <t>apa itu worm, virus, trojan, adware, spyware, spam, bot, dan ransomware?</t>
+  </si>
+  <si>
+    <t>apakah ada pertumbuhan di setiap</t>
+  </si>
+  <si>
+    <t>artikel sebelumnya persiapan dan strategi meningkatkan penjualan bisnis online menjelang ramadhan dan lebaran</t>
+  </si>
+  <si>
+    <t>artikel selanjutnya kebiasaan buang duit yang sering tak disadari</t>
+  </si>
+  <si>
+    <t>artikel terkait dari penulis ini</t>
+  </si>
+  <si>
+    <t>ayo tingkatkan pertumbuhan bisnis bersama koinbisnis!</t>
   </si>
   <si>
     <t>baca juga</t>
   </si>
   <si>
-    <t>banyak complain dan pertanyaan yang mengarah makin membabi butanya facebook dalam menambah fitur membuat saya bertanya, apakah nasibnya akan seperti frienster dahulu kala, bisa jadi iya bisa jadi tidak</t>
-  </si>
-  <si>
-    <t>banyak yang tidak tau kalau satu negara atau satu pulau diseluruh dunia terhubung melalui internet dengan perantara kabel, bagaimana caranya kabel bisa menghubungkan antar benua? apa mungkin membuat tiang seperti yang dilakukan pln</t>
-  </si>
-  <si>
-    <t>baru-baru ini sedang ramai diberitakan tentang sebuah situs palsu, namun saya sendiri tidak menyebut sebagai situs palsu melainkan situs fakenews atau berita bohong yang dibuat untuk menarik pengunjung datang kesitus itu</t>
-  </si>
-  <si>
-    <t>begitu 7 cara supaya website kita terkenal, ingat mendapatkan pengunjung baru ke website kita lebih mudah ketimbang mempertahankannya, jadi lalukan yang terbaik untuk website kita</t>
+    <t>bagaimana tidak? hanya dengan meng-</t>
+  </si>
+  <si>
+    <t>beberapa syarat dan cara pengajuan pinjaman di koperasi</t>
+  </si>
+  <si>
+    <t>begini cara memilih nama domain yang yahut</t>
   </si>
   <si>
     <t>beli domain murah transfer domain</t>
   </si>
   <si>
-    <t>belum punya akun? daftar sekarang</t>
-  </si>
-  <si>
-    <t>berceritalah selalu tentang website anda, setiap ketemu dengan orang ataupun dimanapun yang memungkinkan anda untuk mengenalkan website anda, jangan malu karena siapa lagi yang akan mengenalkan website kita kalau bukan kita sendiri</t>
-  </si>
-  <si>
-    <t>berdasarkan pengalaman yang saya rasakan dari beberapa website yang saya kelola atau menjadi konsultan di beberapa web yang online saat ini ada beberapa hal yang bisa membuat website kita terkenal, tentu tak hanya terkenal di search enggine tetapi di offline juga terkenal</t>
-  </si>
-  <si>
-    <t>bermanfaat sekali, semoga blog saya https</t>
-  </si>
-  <si>
-    <t>biaya migrasi &amp; setup ya, migrasikan layanan saya!</t>
-  </si>
-  <si>
-    <t>blog ku sangat sulit min cek http</t>
-  </si>
-  <si>
-    <t>cara membuat situs dengan website gratis pertama ada</t>
-  </si>
-  <si>
-    <t>cara membuat website sekolah dengan mudah dan biaya rendah</t>
-  </si>
-  <si>
-    <t>cara menghasilkan uang dari blog – judul situs</t>
-  </si>
-  <si>
-    <t>cara mudah agar website muncul di halaman pertama google dikutip dari yoastseo , ada beberapa cara agar website kamu bisa muncul di halaman pertama google</t>
-  </si>
-  <si>
-    <t>cara mudah agar website muncul di halaman pertama google | domainesia</t>
-  </si>
-  <si>
-    <t>cinere raya no</t>
+    <t>bergabung menjadi reseller server vps dengan brand anda</t>
+  </si>
+  <si>
+    <t>berlangganan berhasil! terima kasih ??????</t>
+  </si>
+  <si>
+    <t>bisnis dengan menjual produk pribadi ini merupakan salah satu contoh bisnis digital yang bisa menjadi bisnis online anda</t>
+  </si>
+  <si>
+    <t>bisnis online makin untung dengan website</t>
+  </si>
+  <si>
+    <t>blog simak berbagai artikel lengkap seputar dunia web hosting indonesia</t>
+  </si>
+  <si>
+    <t>blog tips keren 12 peluang bisnis dunia digital 2019</t>
+  </si>
+  <si>
+    <t>blog  &gt;  live smart  &gt;  digital business  &gt;  4 ide bisnis digital sukses untuk anda coba</t>
+  </si>
+  <si>
+    <t>buat website jasa pembuatan website murah dan profesional untuk perusahan &amp; bisnis</t>
+  </si>
+  <si>
+    <t>buka bersama keluarga ceria jogjacamp ramadan 2019</t>
+  </si>
+  <si>
+    <t>bukan hanya itu, bisnis digital juga menjadi wadah bagi generasi muda untuk menyalurkan kreativitas menjadi sebuah peluang usaha</t>
+  </si>
+  <si>
+    <t>cara membuat email pribadi dengan mudah</t>
+  </si>
+  <si>
+    <t>cara membuat website dan toko online, gratis</t>
+  </si>
+  <si>
+    <t>cara membuat website dan toko online, gratis simak tutorial cara membuat business plan dan contohnya mengenal fitur call forwarding yang berpotensi membuat penipuan [kasus maia estianty]</t>
+  </si>
+  <si>
+    <t>cara mendapatkan uang dari internet</t>
+  </si>
+  <si>
+    <t>cara paling mudah optimasi vps di  panel webuzo</t>
+  </si>
+  <si>
+    <t>cara pasang video youtube di wordpress</t>
+  </si>
+  <si>
+    <t>cloud hosting cpanel diskon 25% (selamanya) + gratis ssl + gratis domain + spesifikasi tinggi</t>
+  </si>
+  <si>
+    <t>cloud hosting plesk cloud hosting dengan dukungan panel plesk yang lengkap &amp; terbaik</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>colocation server layanan penyimpanan server untuk kebutuhan server di indonesia</t>
   </si>
   <si>
     <t>com</t>
   </si>
   <si>
-    <t xml:space="preserve">com </t>
-  </si>
-  <si>
-    <t>com adalah salah satu platform penulisan yang bisa anda gunakan secara gratis</t>
-  </si>
-  <si>
-    <t>com adalah website builder yang sangat lengkap untuk membantu anda untuk menyusun/membangun website secara cepat; tanpa melakukan coding</t>
-  </si>
-  <si>
-    <t>com bahkan sudah ada sejak saya sendiri masih kecil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com bisa di halaman pertama google </t>
-  </si>
-  <si>
-    <t>com dan wordpress</t>
-  </si>
-  <si>
-    <t>com dapat anda gunakan secara gratis</t>
-  </si>
-  <si>
-    <t>com dengan jargon “your private online journal”, penzu</t>
-  </si>
-  <si>
-    <t>com hadir untuk menantang website builder lainnya</t>
-  </si>
-  <si>
-    <t>com juga menawarkan beberapa aplikasi tambahan yang bisa anda gunakan untuk menjalankan website sesuai dengan kebutuhan, seperti toko online dan sosial media</t>
-  </si>
-  <si>
-    <t>com juga menawarkan pengembangan website dengan drag dan drop saja</t>
-  </si>
-  <si>
-    <t>com kantor 021-753 8505 marketing 0838-7664 6560 / 0853 1126 2381 lokasi jl</t>
-  </si>
-  <si>
-    <t>com medium</t>
-  </si>
-  <si>
-    <t>com menawarkan platform berbagi journal dengan tingkat keamanan yang tinggi</t>
-  </si>
-  <si>
-    <t>com merupakan website yang cukup mudah digunakan untuk membangun situs yang menarik</t>
-  </si>
-  <si>
-    <t>com platform ini tentu tidak asing lagi buat anda</t>
-  </si>
-  <si>
-    <t>com sudah digunakan lebih dari 125 juta pengguna di seluruh dunia</t>
-  </si>
-  <si>
-    <t>com sudah digunakan olehbanyak penulis untuk membagikan tulisannya</t>
-  </si>
-  <si>
-    <t>com ternyata ada yang lebih ‘tua’ dibandingkan dengan blogger</t>
-  </si>
-  <si>
-    <t>com webs</t>
-  </si>
-  <si>
-    <t>com weebly</t>
-  </si>
-  <si>
-    <t>com wix</t>
-  </si>
-  <si>
-    <t>com wordpress merupakan salah satu platform pembuatan website terkenal di dunia</t>
-  </si>
-  <si>
-    <t>com yang hanya membahas pangandaran</t>
-  </si>
-  <si>
-    <t>com yang lebih konsisten di konten remaja atau mypangandaran</t>
-  </si>
-  <si>
-    <t>com yang terakhir adalah tumblr</t>
-  </si>
-  <si>
-    <t>com, hal simpel yang bisa kita gunakan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daftar harga register domain transfer domain reseller domain persyaratan </t>
-  </si>
-  <si>
-    <t>daftar website penyedia blog gratis tebaik &amp;  populer berikut ini beberapa platform/website populer untuk membuat blog gratis yang bisa anda coba</t>
+    <t>com spesial akhir tahun rp69</t>
+  </si>
+  <si>
+    <t>com spesial akhir tahun rp79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com/partnership/ email </t>
+  </si>
+  <si>
+    <t>contact our international line +6221 2985 2800</t>
+  </si>
+  <si>
+    <t>contoh bisnis digital ini bisa anda coba sendiri</t>
+  </si>
+  <si>
+    <t>contoh bisnis digital yang bisa dicoba dengan hasil bagus</t>
+  </si>
+  <si>
+    <t>contoh bisnis digital yang bisa dicoba dengan hasil bagus | idcloudhost</t>
+  </si>
+  <si>
+    <t>contoh bisnis digital yang ketiga adalah bisnis layanan sponsor</t>
+  </si>
+  <si>
+    <t>contoh bisnis digital yang satu ini berupa jasa untuk mengajar tentang pembuatan suatu hal</t>
+  </si>
+  <si>
+    <t>contoh bisnis digital yang selanjutnya adalah bisnis agen penjualan dimana bisnis ini mencakup dropshiper, affiliate, dan juga menjadi seorang reseller</t>
+  </si>
+  <si>
+    <t>contoh bisnis digital yang selanjutnya adalah bisnis layanan profesional dimana ide bisnis yang satu ini berfokus pada bidang freelancer</t>
+  </si>
+  <si>
+    <t>copyright © 2020 idwebhost allright reserved</t>
+  </si>
+  <si>
+    <t>daftar domain daftar nama domain terlengkap dan termurah di indonesia</t>
+  </si>
+  <si>
+    <t>daftar setting smtp dan pop3 isp se-indonesia</t>
+  </si>
+  <si>
+    <t>dan peluang bisnisnya masih terbuka lebar</t>
   </si>
   <si>
     <t>dapatkan beragam artikel tutorial, insight dan tips menarik seputar dunia online langsung melalui email anda</t>
   </si>
   <si>
-    <t>dapatkan update melalui email anda bila saya menulis sebuah artikel atau tutorial dengan cara mendaftarkan email anda dibawah ini</t>
-  </si>
-  <si>
-    <t>dec 13, 2019 8 min read</t>
-  </si>
-  <si>
-    <t>dec 20, 2019 3 min read</t>
-  </si>
-  <si>
-    <t>dec 21, 2019 3 min read</t>
-  </si>
-  <si>
-    <t>dengan mengirimkan form ini, anda setuju untuk memberikan data tersebut kepada domainesia yang akan memproses dan menggunakannya sesuai dengan kebijakan privasi domainesia</t>
-  </si>
-  <si>
-    <t>di dunia, 30% website menggunakan wordpress</t>
-  </si>
-  <si>
-    <t>di internet kamu bisa menjelajah jutaan bahkan miliaran website yang ada di seluruh dunia</t>
-  </si>
-  <si>
-    <t>ditulis oleh satria aji purwoko</t>
-  </si>
-  <si>
-    <t>ebook - trend marketing media sosial 2019</t>
-  </si>
-  <si>
-    <t>ekspedisi ke kalimantan, tarif indota express paling murah itulah alasan banyak pelanggan memilih indota express sebagai vendor pengiriman antar pulau terutama tujuan pulau kalimantan</t>
-  </si>
-  <si>
-    <t>facebook harus belajar dari kegagalan friendster</t>
-  </si>
-  <si>
-    <t>fm yang hanya bertanya dan menjawab, tapi terkenal, gimana coba?  </t>
-  </si>
-  <si>
-    <t>grckaryamandiri</t>
-  </si>
-  <si>
-    <t>gunakan hal sekecil apapun untuk tempat promosi website</t>
-  </si>
-  <si>
-    <t>haha</t>
-  </si>
-  <si>
-    <t>hai hendrik, seo bisa dilakukan secara gratis dengan cara mandiri</t>
-  </si>
-  <si>
-    <t>halo ibnu, template blog mana yang dimaksud?</t>
-  </si>
-  <si>
-    <t>hi domanesians! sebagai anak kids jaman now, nggak afdol kalau kamu nggak familiar dengan yang namanya internet</t>
-  </si>
-  <si>
-    <t>hi, saya pengguna hosting domainesia</t>
-  </si>
-  <si>
-    <t>home | about me | blogs | tutorial | works | video | contact me adi sumaryadi - bicara it dan internet 2016</t>
-  </si>
-  <si>
-    <t>home   »   tips   »   pengen website kamu muncul di halaman pertama google? ini kuncinya!</t>
-  </si>
-  <si>
-    <t>id bisa muncul di halaman pertama google</t>
-  </si>
-  <si>
-    <t>id bisa selalu di halaman pertama mesin pencarian</t>
-  </si>
-  <si>
-    <t>id control panel</t>
-  </si>
-  <si>
-    <t>iframe</t>
-  </si>
-  <si>
-    <t>iklan</t>
-  </si>
-  <si>
-    <t>indotaexpress</t>
-  </si>
-  <si>
-    <t>inilah cara untuk membuat website anda ramai pengunjung</t>
-  </si>
-  <si>
-    <t>inilah peta kabel internet bawah laut di dunia, waw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">io </t>
-  </si>
-  <si>
-    <t>io dan kemudian menandai catatan menjadi “pusblised” sehingga bisa diakses oleh banyak orang</t>
-  </si>
-  <si>
-    <t>io dengan jargonnya “easiest way to blog” menjadi salah satu platform pembuatan website yang terintegrasi dengan beberapa aplikasi pencatatan online</t>
-  </si>
-  <si>
-    <t>io hal yang berbeda dilakukan oleh pen</t>
-  </si>
-  <si>
-    <t>io para pengembang postach adalah orang-orang yang ikut serta di dalam pengembangan aplikasi pencatatan seperti evernote</t>
-  </si>
-  <si>
-    <t>io tidak memerlukan login</t>
-  </si>
-  <si>
-    <t>jaringankita</t>
-  </si>
-  <si>
-    <t>jasacleaningmurahjakarta</t>
-  </si>
-  <si>
-    <t>jl</t>
-  </si>
-  <si>
-    <t>jum'at, 01 agustus 2014 06</t>
-  </si>
-  <si>
-    <t>jum'at, 03 agustus 2012 06</t>
-  </si>
-  <si>
-    <t>jumat, 6 okt 2017, 11</t>
-  </si>
-  <si>
-    <t>kalo wordpress serba ada plugin, tp kalo bloggspot, hadehh…</t>
-  </si>
-  <si>
-    <t>kamis, 06 februari 2014 18</t>
-  </si>
-  <si>
-    <t>kamu dapat mengotak-atik pengaturan mulai dari tema, template,</t>
-  </si>
-  <si>
-    <t>keluar dari jalantikus apakah anda yakin untuk meninggalkan website jalantikus?</t>
-  </si>
-  <si>
-    <t>kesimpulan cara mudah agar website muncul di halaman pertama google yaitu dengan melakukan optimalisasi kecepatan akses website, optimalisasi mobile serta memperhatikan konten</t>
-  </si>
-  <si>
-    <t>konsistenlah untuk update website, tidak ada website yang gak update terkenal, orang akan menunggu apa yang akan dihadirkan lagi? dan terus menunggu maka serta merta membuat website kita sering dikunjungi</t>
-  </si>
-  <si>
-    <t>lakukan promosi offline</t>
-  </si>
-  <si>
-    <t>lakukan promosi online, anda bisa memanfaatkan iklan di website yang trafik tinggi, di twitter atau f a c e b o o k</t>
-  </si>
-  <si>
-    <t>lakukanlah optimasi seo, banyak tutorialnya dan bertebaran luas di internet, fungsinya supaya terkenal di online khususnya search enggine</t>
+    <t>dapatkan jasa pembuatan website desa gratis di idwebhost</t>
+  </si>
+  <si>
+    <t>dapatkan panduan bisnis via email</t>
+  </si>
+  <si>
+    <t>dec 10, 2019 18 min read</t>
+  </si>
+  <si>
+    <t>dedicated server layanan server yang cocok untuk kebutuhan perusahaan anda</t>
+  </si>
+  <si>
+    <t>dibandingkan dengan sistem transportasi konvensional, transportasi</t>
+  </si>
+  <si>
+    <t>dimanjakan oleh kemudahan berbelanja yang cepat dari mana saja</t>
+  </si>
+  <si>
+    <t>diperlukan strategi khusus bagi suatu</t>
+  </si>
+  <si>
+    <t>diskon 50% akhir pekan hosting 5gb</t>
+  </si>
+  <si>
+    <t>email google g-suite layanan email menggunakan domain anda dengan engine gmail google</t>
+  </si>
+  <si>
+    <t>email hosting zimbra layanan email menggunakan domain anda dengan zimbra email</t>
+  </si>
+  <si>
+    <t>fakta ini tentunya akan membuat orang semakin mengetahui mengenai keberadaan bisnis kita jika kita selalu muncul baik di</t>
+  </si>
+  <si>
+    <t>file core</t>
+  </si>
+  <si>
+    <t>find a branch near you</t>
+  </si>
+  <si>
+    <t>gutenberg teks editor plugin penulisan terbaru untuk wordpress previous</t>
+  </si>
+  <si>
+    <t>hal yang harus anda ketahui tentang web hosting</t>
+  </si>
+  <si>
+    <t>harbolnas 12</t>
+  </si>
+  <si>
+    <t>horseback riding</t>
+  </si>
+  <si>
+    <t>hubungi kami untuk berkonsultasi mengenai kebutuhan anda</t>
+  </si>
+  <si>
+    <t>ialah sosok di balik sukses</t>
+  </si>
+  <si>
+    <t>id naik</t>
+  </si>
+  <si>
+    <t>id turun harga lagi</t>
+  </si>
+  <si>
+    <t>idcloudhost (pt cloud hosting indonesia) adalah penyedia layanan web hosting provider berbasis ssd cloud hosting yang mempunyai tujuan untuk selalu menjaga website tetap hidup dan cepat di akses dari berbagai negara</t>
+  </si>
+  <si>
+    <t>idwebhost penyedia layanan hosting murah no 1 indonesia</t>
+  </si>
+  <si>
+    <t>infograph informasi tutorial partner fitur infograph informasi tutorial partner fitur infograph informasi</t>
+  </si>
+  <si>
+    <t>ingin mengembangkan wirausaha sosial? ketahui 5 strategi ini baca selengkapnya</t>
+  </si>
+  <si>
+    <t>ini 2 cara menghitung bunga pinjaman</t>
+  </si>
+  <si>
+    <t>ini cara orang sukses mengatur keuangan pribadi baca selengkapnya</t>
+  </si>
+  <si>
+    <t>inilah 5 cara baru inspiratif untuk menghasilkan uang tambahan</t>
+  </si>
+  <si>
+    <t>inilah beberapa contoh bisnis digital yang bisa anda coba mulai dari sekarang</t>
+  </si>
+  <si>
+    <t>inilah macam-macam os server yang perlu diketahui</t>
+  </si>
+  <si>
+    <t>jadi, apakah ada salah satu dari inspirasi bisinis digital di atas yang cukup menantang untuk dicoba?</t>
+  </si>
+  <si>
+    <t>jakarta * graha jogjacamp jl</t>
+  </si>
+  <si>
+    <t>jangan pernah membangun bisnis apapun tanpa menentukan sebuah tujuan yang akan dicapai</t>
+  </si>
+  <si>
+    <t>jika anda pengguna instagram dengan jumlah follower yang cukup banyak, menjadi seorang influencer bisa jadi sebuah peluang yang menjanjikan</t>
+  </si>
+  <si>
+    <t>jika anda tertarik untuk memulai bisnis yang lebih kreatif lagi, mungkin digital media bisa menjadi jawabannya</t>
+  </si>
+  <si>
+    <t>jika anda tidak dapat melakukannya sendiri</t>
+  </si>
+  <si>
+    <t>kantor jakarta jl</t>
+  </si>
+  <si>
+    <t>kapan waktu yang tepat untuk pindah dari shared hosting ke dedicated server next</t>
+  </si>
+  <si>
+    <t>kegunaan halaman landing page untuk jualan online</t>
+  </si>
+  <si>
+    <t>kegunaan ssl pada instalasi wordpress di layanan wordpress hosting</t>
+  </si>
+  <si>
+    <t>keuntungan beli paket awesome idwebhost di bukalapak</t>
+  </si>
+  <si>
+    <t>keuntungan dan kerugian menggunakan free domain</t>
+  </si>
+  <si>
+    <t>kirimkan tiket butuh bantuan ? submit ticket anda dengan proses cepat dan mudah</t>
+  </si>
+  <si>
+    <t>koinworks merupakan pionir fintech lending indonesia yang menghubungkan pendana dengan peminjam di sebuah platform berbasis internet dengan teknologi machine-learning yang inovatif, menggunakan sistem peer to peer lending</t>
+  </si>
+  <si>
+    <t>kunci kesuksesan dari bisnis digital transportasi</t>
+  </si>
+  <si>
+    <t>lalu kemudian anda juga dapat berinvestasi untuk membuat iklan di google menggunakan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">layanan email dan cloud storage dari microsoft (status </t>
   </si>
   <si>
     <t>leave a reply cancel reply</t>
   </si>
   <si>
-    <t>lizarifan</t>
-  </si>
-  <si>
-    <t>masih awam tolong bimbinganya https</t>
-  </si>
-  <si>
-    <t>masih ingat seo? seo merupakan singkatan dari</t>
-  </si>
-  <si>
-    <t>masukan nama dan email anda untuk mengunduh pdf</t>
-  </si>
-  <si>
-    <t>metode pembayaran konfirmasi pembayaran konfirmasi deposit afiliasi promo</t>
-  </si>
-  <si>
-    <t>milik wordpress</t>
-  </si>
-  <si>
-    <t>min, kalau untuk orang yang awam akan koding dan hal-hal terkait website, bagaimana optimasi websitenya? mau beli template semuanya membawa embel2 seo friendly, bagiaman cara mengetahui template yang mau kita beli benar2 seo friendly?</t>
-  </si>
-  <si>
-    <t>minggu, 02 februari 2014 22</t>
-  </si>
-  <si>
-    <t>minggu, 24 juni 2012 06</t>
-  </si>
-  <si>
-    <t>minyakpengasiahan</t>
-  </si>
-  <si>
-    <t>mungkin bukanlah website gratis terbaik buat kamu yang suka ngeblog</t>
-  </si>
-  <si>
-    <t>nah, ini dia konten! selalu ingat bahwa kamu berbicara pada manusisa bukan pada mesin! jadi, pastikan konten kamu menarik untuk dibaca orang</t>
-  </si>
-  <si>
-    <t>nya</t>
-  </si>
-  <si>
-    <t>optimalisasi cache browser cache browser juga penting lho dalam membuat website memiliki kecepatan akses yang tinggi</t>
-  </si>
-  <si>
-    <t>optimalisasi gambar ukuran gambar yang besar sangat berpengaruh terhadap kecepatan akses website</t>
-  </si>
-  <si>
-    <t>optimalisasi script website nah ini nih kadang juga sangat berpengaruh terhadap kecepatan akses website</t>
-  </si>
-  <si>
-    <t>optimalkan website di eropa dengan lokasi server london</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org </t>
-  </si>
-  <si>
-    <t>org dan wordpress</t>
-  </si>
-  <si>
-    <t>org mungkin platform blog gratis ini tidak familiar di telinga anda</t>
-  </si>
-  <si>
-    <t>paketmuslimtour</t>
-  </si>
-  <si>
-    <t>password yang anda gunakan salah</t>
-  </si>
-  <si>
-    <t>pembuat situs palsu, pengen untung malah buntung</t>
-  </si>
-  <si>
-    <t>pengen website kamu muncul di halaman pertama google? ini kuncinya!</t>
-  </si>
-  <si>
-    <t>performa website pastikan kamu memasukkan gambar dengan ukuran yang tidak terlalu besar</t>
-  </si>
-  <si>
-    <t>pernah nggak kamu ngerasa males buka website yang loadingnya lama banget? nah mungkin inilah yang jadi salah satu alasan mengapa website kamu nggak muncul di halaman pertama google</t>
-  </si>
-  <si>
-    <t>pertanyaan itu sepertinya ada setiap bulannya</t>
-  </si>
-  <si>
-    <t>please enable javascript to view the comments powered by disqus</t>
+    <t>leave this field empty if you're human</t>
+  </si>
+  <si>
+    <t>lebih disukai konsumen karena kemudahannya</t>
+  </si>
+  <si>
+    <t>lisensi dapatkan layanan lisensi termurah dan terjangkau untuk kebutuhan anda</t>
+  </si>
+  <si>
+    <t>lupakan soal kakunya editorial, ada banyak kreativitas yang bisa anda bagi melalui bisnis digital ini</t>
+  </si>
+  <si>
+    <t>maka dari itu, sangat penting untuk memahami dan mampu belajar lebih dalam mengenai seo</t>
+  </si>
+  <si>
+    <t>manage server service silakan mengirimkan penawaran terkait layanan manage server service</t>
+  </si>
+  <si>
+    <t>maupun aplikasi online yang digunakan saat 10, atau bahkan 5 tahun yang lalu pastinya sudah sangat jauh berbeda dengan apa yang digunakan saat ini</t>
+  </si>
+  <si>
+    <t>melalui digitalisasi bisnis pada masa sekarang cenderung akan menciptakan proses bisnis yang lebih efisien dengan cakupan yang lebih luas</t>
+  </si>
+  <si>
+    <t>melalui sosial media</t>
+  </si>
+  <si>
+    <t>melihat penggunaan resource di wordpress hosting</t>
+  </si>
+  <si>
+    <t>memang tak bisa dipungkiri, bisnis digital yang satu ini dinilai solutif dalam membantu masyarakat untuk mengarungi kemacetan kota-kota besar indonesia saat ini</t>
+  </si>
+  <si>
+    <t>membangun bisnis di era digital memiliki tantangan tersendiri</t>
+  </si>
+  <si>
+    <t>membangun toko online anda sendiri adalah pilihan bijaksana</t>
+  </si>
+  <si>
+    <t>membuat toko online anda sendiri itu mudah</t>
+  </si>
+  <si>
+    <t>menawarkan kesempatan yang serupa</t>
+  </si>
+  <si>
+    <t>mengaktifkan opsi smtp authentication di microsoft outlook</t>
+  </si>
+  <si>
+    <t>mengaktifkan waralaba (afiliasi) dari member area idwebhost</t>
+  </si>
+  <si>
+    <t>mengatasi memory limit melalui php selector</t>
+  </si>
+  <si>
+    <t>mengenal fitur call forwarding yang berpotensi membuat penipuan [kasus maia estianty]</t>
+  </si>
+  <si>
+    <t>mengenal google developer kejar dan cara mendaftar ikutan</t>
+  </si>
+  <si>
+    <t>mengenal lebih dalam fitur facebook marketplace</t>
+  </si>
+  <si>
+    <t>mengenal perbedaan kpi dan okr untuk tujuan bisnis</t>
+  </si>
+  <si>
+    <t>mengenal sekilas jenis-jenis flowchart pada pemrograman website dan aplikasi</t>
+  </si>
+  <si>
+    <t>nah contoh bisnis digital pertama yang bisa anda coba adalah dengan menyediakan layanan bisnis iklan banner atau yang bisa disebut dengan display ads</t>
+  </si>
+  <si>
+    <t>nah contoh bisnis digital yang kedua adalah dengan melakukan bisnis penulis artikel, dimana tugas anda hanyalah membuat artikel sebanyak banyaknya</t>
+  </si>
+  <si>
+    <t>namun yang perlu diingat, tentunya proses digitalisasi bisnis adalah sebuah proses yang perlu kesabaran dan konsistensi sehingga diperlukan proses membangun dan usaha yang lebih saat diawal</t>
+  </si>
+  <si>
+    <t>nov 6, 2019 59 sec read</t>
+  </si>
+  <si>
+    <t>panduan cara daftar google news dengan mudah »</t>
+  </si>
+  <si>
+    <t>panduan install wordpress di plesk panel</t>
+  </si>
+  <si>
+    <t>panduan menggunakan cpanel untuk pemula</t>
+  </si>
+  <si>
+    <t>panduan panduan lengkap seputar web hosting untuk kebutuhan anda</t>
+  </si>
+  <si>
+    <t>pastikan konten yang dibuat terkait dengan target pasar yang ingin dituju</t>
+  </si>
+  <si>
+    <t>pembayaran informasi mengenai pembayaran dan konfirmasi pembayaran layanan</t>
+  </si>
+  <si>
+    <t>pengertian dasar domain &amp; hosting</t>
+  </si>
+  <si>
+    <t>pengertian space hosting dan bandwith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penting! mulai 1 januari 2020 harga domain </t>
+  </si>
+  <si>
+    <t>perlu anda ketahui sebelumnya bahwa negara kita indonesia ini merupakan negara dengan pengguna internet yang paling besar di dunia</t>
+  </si>
+  <si>
+    <t>persyaratan dokumen yang dikirim jika anda membeli domain indonesia</t>
+  </si>
+  <si>
+    <t>perusahaan adalah wajah dari sebuah perusahaan</t>
   </si>
   <si>
     <t>please enter an answer in digits</t>
   </si>
   <si>
-    <t>pt deneva jl</t>
-  </si>
-  <si>
-    <t>saat ini situs jual beli online begitu sangat banyak bak jamur terkena musim penghujan, tumbuh dimana-mana dengan berbagai jenis barang yang disajikan, tak hanya website, sosial media dan forum juga menjadi lapak untuk mereka yang berjualan online</t>
-  </si>
-  <si>
-    <t>saat menggunakannya, kamu akan mendapatkan penyimpanan 500mb dan bandwith unlimited</t>
-  </si>
-  <si>
-    <t>sama seperti wix, cara membuat website gratis dengan</t>
-  </si>
-  <si>
-    <t>saya tertarik dengan seo</t>
+    <t>please enter your email address here</t>
+  </si>
+  <si>
+    <t>please enter your name here</t>
+  </si>
+  <si>
+    <t>private whm server layanan vps manage untuk kebutuhan server website dan aplikasi anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo </t>
+  </si>
+  <si>
+    <t>promo akhir pekan hosting 5gb diskon 50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo! domain </t>
+  </si>
+  <si>
+    <t>pt cloud hosting indonesia jl</t>
+  </si>
+  <si>
+    <t>related article / tips keren</t>
+  </si>
+  <si>
+    <t>reseller domain bergabung bersama kami mewujudkan bisnis jualan domain anda</t>
+  </si>
+  <si>
+    <t>reseller hosting (cpanel) bangun bisnis web hosting anda dengan brand anda (white label)</t>
+  </si>
+  <si>
+    <t>reseller hosting dengan panel plesk pertama dan terlengkap di indonesia</t>
+  </si>
+  <si>
+    <t>rumus perhitungan berbagai jenis bunga pinjaman</t>
+  </si>
+  <si>
+    <t>saat ini dinilai dari cara bekerjanya yang hanya satu tindakan per layar dengan sedikit pilihan</t>
+  </si>
+  <si>
+    <t>sangat mudah bukan untuk membuat sebuah</t>
+  </si>
+  <si>
+    <t>search by tags show all</t>
   </si>
   <si>
     <t>search engine optimization (seo) email bisnis online content marketing media sosial</t>
   </si>
   <si>
-    <t xml:space="preserve">sehingga semudah membuat powerpoint </t>
-  </si>
-  <si>
-    <t>selain optimalisasi kecepatan akses website, kamu juga harus melakukan optimalisasi mobile lho! mengapa? sekarang ini bisa dilihat semua kalangan sudah menggunakan smartphone untuk menemani aktivitas mereka</t>
-  </si>
-  <si>
-    <t>selasa, 28 agustus 2012 07</t>
-  </si>
-  <si>
-    <t>semoga blog saya siyoo</t>
-  </si>
-  <si>
-    <t>semoga website daftar-pspp</t>
-  </si>
-  <si>
-    <t>semuanya tergantung konten, isi dari website kita apakah itu konten bersifat tulisan atau bersifat aplikasi dan fitur</t>
-  </si>
-  <si>
-    <t>server status kontak kami tentang kami karir kebijakan privasi terms of service</t>
-  </si>
-  <si>
-    <t>setiap pemilik website ataupun toko online tentunya ingin memiliki data statistik yang ramai pengunjung, entah dari kunjungan ke toko online maupun ke menu artikel</t>
-  </si>
-  <si>
-    <t>silahkan masukan alamat email anda untuk login</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>subscriber blog daftar news letter sekarang juga</t>
-  </si>
-  <si>
-    <t>tampilan website versi mobile pernah nggak kamu merasa aneh dengan tampilan website ketika dibuka di mobile? yaps, pastikan website kamu sudah menggunakan desain yang responsive ya agar sedap dipandang mata</t>
-  </si>
-  <si>
-    <t>terakhir ada cara membuat website gratis lewat situs</t>
-  </si>
-  <si>
-    <t>tertarik mendapatkan semua fitur layanan domainesia? dapatkan</t>
-  </si>
-  <si>
-    <t>tetap terhubung dan dapat berkomunikasi dengan saya melalui sosial media pilihan anda berikut ini</t>
-  </si>
-  <si>
-    <t>tingkatkan performa dengan google pagespeed insight</t>
-  </si>
-  <si>
-    <t>tips aman berbelanja di internet</t>
-  </si>
-  <si>
-    <t>tips gampang ngehack facebook teman, tapi ingat juga akibatnya</t>
-  </si>
-  <si>
-    <t>tips mendapatkan peringkat dengan google serp snippet</t>
-  </si>
-  <si>
-    <t>to the point! pastikan konten yang kamu buat selalu ringkas, padat, jelas dan to the point langsung ke intinya ya! jangan sampai pengunjung malas buat baca karena konten yang bertele-tele! itu juga jadi salah satu inti cara mudah agar website muncul di halaman pertama google</t>
-  </si>
-  <si>
-    <t>twitter facebook google+ buffer linkedin pin it</t>
-  </si>
-  <si>
-    <t>untuk membuat tampilan kian menarik</t>
-  </si>
-  <si>
-    <t>untuk mengatur layout</t>
-  </si>
-  <si>
-    <t>wah mantap bener ni tips nya ryanblog</t>
+    <t>sekarang setelah memiliki situs sendiri, maka langkah selanjutnya adalah menyebarkannya</t>
+  </si>
+  <si>
+    <t>selain mencari inspirasi untuk memulai bisnis digital, ada baiknya bagi anda memilih cara yang tepat untuk mengembangkan dana dalam berbisnis</t>
+  </si>
+  <si>
+    <t>selamat datang! masuk ke akun anda</t>
+  </si>
+  <si>
+    <t>selamat natal dan tahun baru 2020</t>
+  </si>
+  <si>
+    <t>semarang * jogjacamp semarang jl</t>
+  </si>
+  <si>
+    <t>semua tahu, bisnis digital beberapa tahun belakangan ini telah menjadi sebuah tren usaha yang cukup menggiurkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semua yang anda butuhkan bisa ditemukan di sini </t>
+  </si>
+  <si>
+    <t>semua yang telah dilakukan untuk membuat bisnis menjadi lebih</t>
+  </si>
+  <si>
+    <t>seorang yang tak pandai dalam berkata cuma bisa menuangkannya lewat tulisan saja</t>
+  </si>
+  <si>
+    <t>sep 18, 2019 4 min read</t>
+  </si>
+  <si>
+    <t>serba serbi , startup &amp; bisnis</t>
+  </si>
+  <si>
+    <t>serba serbi , startup &amp; bisnis /</t>
+  </si>
+  <si>
+    <t>sertifikat ssl layanan keamanan untuk melindungi server anda dari serangan cyber</t>
+  </si>
+  <si>
+    <t>sesederhana mungkin, sebaiknya menggunakan nama merek sebagai alamat</t>
+  </si>
+  <si>
+    <t>sesuai dengan target market yang dituju</t>
+  </si>
+  <si>
+    <t>sesuai jenis bisnis anda</t>
+  </si>
+  <si>
+    <t>setting &amp;amp; upload database mysql di cpanel theme x3</t>
+  </si>
+  <si>
+    <t>setting name server dari member area idwebhost</t>
+  </si>
+  <si>
+    <t>setup/install joomla dengan upload manual</t>
+  </si>
+  <si>
+    <t>siap-siap, ini 8 tren produk populer di tahun 2019</t>
+  </si>
+  <si>
+    <t>siapa saja bisa terjun di bisnis digital</t>
+  </si>
+  <si>
+    <t>simak tutorial cara membuat business plan dan contohnya</t>
+  </si>
+  <si>
+    <t>simpan data nama dan email saya di browser ini bila nanti saya berkomentar lagi</t>
+  </si>
+  <si>
+    <t>situs website anda mengejar tren atau konversi? cari tahu jawabannya!</t>
+  </si>
+  <si>
+    <t>sosial media, yang dapat dengan mudah untuk dimunculkan melalui iklan berbayar di sosial media</t>
+  </si>
+  <si>
+    <t>subscribe here to get update</t>
+  </si>
+  <si>
+    <t>sudah bukan rahasia lagi, untuk menjangkau</t>
+  </si>
+  <si>
+    <t>sudah tidak zamannya lagi belanja yang menghabiskan banyak waktu</t>
+  </si>
+  <si>
+    <t>suryadi kurniawan follow suryadi is a digital content writer at niagahoster</t>
+  </si>
+  <si>
+    <t>syarat pengajuan pinjaman di koinworks</t>
+  </si>
+  <si>
+    <t>tanya jawab tanya jawab seputar layanan idcloudhost secara lengkap</t>
+  </si>
+  <si>
+    <t>telah tepat dan mendapat respond yang positif dari target pasar yang dituju? apakah iklan yang telah dibuat berjalan dengan efektif?</t>
+  </si>
+  <si>
+    <t>tentu dapat dipesan dengan satu sentuhan pada aplikasi</t>
+  </si>
+  <si>
+    <t>tentunya akan sangat menguntungkan jika sebuah bisnis selalu menjadi yang pertama muncul di daftar google saat seseorang mencari</t>
+  </si>
+  <si>
+    <t>terkait dengan hal ini, maka membuat sebuah bisnis untuk menjadi lebih digital adalah sebuah keharusan</t>
+  </si>
+  <si>
+    <t>terlebih dahulu</t>
+  </si>
+  <si>
+    <t>terletak pada kemudahan konsumen</t>
+  </si>
+  <si>
+    <t>tersebut akan diisi dengan konten-konten yang sesuai</t>
+  </si>
+  <si>
+    <t>tertentu yang berhubungan dengan apa yang anda jual</t>
+  </si>
+  <si>
+    <t>this site uses akismet to reduce spam</t>
+  </si>
+  <si>
+    <t>tips kenalkan bisnismu dengan google my business</t>
+  </si>
+  <si>
+    <t>tips memilih penyedia web hosting yang tepat</t>
+  </si>
+  <si>
+    <t>toko online anda akan tampil beda</t>
+  </si>
+  <si>
+    <t>transfer domain pemindahan gratis untuk anda yang ingin berlangganan di idcloudhost</t>
+  </si>
+  <si>
+    <t>transportasi online, bepergian jadi lebih mudah  </t>
+  </si>
+  <si>
+    <t>untuk memasarkan produk agar selalu teringat dalam benak konsumen, salah satunya dengan</t>
+  </si>
+  <si>
+    <t>untuk memilih barang agar tidak menyulitkan pengguna dengan mengomptimalkan fungsi aplikasi yang lebih fleksibel untuk digunakan</t>
+  </si>
+  <si>
+    <t>untuk memulai bisnis digital ini, anda bisa mentukan jenis</t>
+  </si>
+  <si>
+    <t>untuk memulainya, anda bisa mempelajari konsep</t>
+  </si>
+  <si>
+    <t>upload file menggunakan filezilla v 3</t>
+  </si>
+  <si>
+    <t>upload file pada file manager cpanel (theme x3)</t>
+  </si>
+  <si>
+    <t>vps server vps dengan datacenter di indonesia</t>
   </si>
   <si>
     <t>web hosting gratis domain mulai dari</t>
   </si>
   <si>
-    <t>web hosting web hosting indonesia web hosting wordpress virtual private server sertifikat ssl web apps migrasi hosting</t>
-  </si>
-  <si>
-    <t>website mungkin bisa kamu temukan jutaan bahkan miliaran di dunia ini</t>
-  </si>
-  <si>
-    <t>websiteanda</t>
+    <t>web hosting memiliki dampak besar terhadap seo</t>
   </si>
   <si>
     <t>wordpress website &amp; blog hosting &amp; domain vps</t>
   </si>
   <si>
-    <t>ya pertanyaan tentang bagaimana cara menghack akun teman kita seringkali saya dapatkan? jawabannnya tentu saya jawab gak mudah jika mengandalkan kemampuan hacking kita</t>
-  </si>
-  <si>
-    <t>yang bertujuan untuk meningkatkan trafik website dan menempatkan website pada halaman pertama pada search engine</t>
-  </si>
-  <si>
-    <t>yang bisa kamu coba sebagai alternatif dari wordpress</t>
-  </si>
-  <si>
-    <t>yang cocok banget buat kamu yang pemula dalam membangun website</t>
-  </si>
-  <si>
-    <t>yang cocok untuk kalangan anak muda yang ingin membuat website gratis sederhana</t>
-  </si>
-  <si>
-    <t>yang ditulis menggunakan bahasa pemrograman javascript</t>
-  </si>
-  <si>
-    <t>yang pasti seo on page dan seo off page http</t>
-  </si>
-  <si>
-    <t>yasin k follow yasin k is a technical content writer for niagahoster blog</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>yang dibuat, baik dinilai dari segi pengunjung, pengikut, maupun</t>
+  </si>
+  <si>
+    <t>yang dituju dan anda juga memiliki kemampuan untuk mengelola akun ini</t>
+  </si>
+  <si>
+    <t>yang juga dapat digunakan secara gratis maupun berbayar, seperti</t>
+  </si>
+  <si>
+    <t>yang memudahkan pembuatan website bahkan bagi pemula sekalipun</t>
+  </si>
+  <si>
+    <t>yang profesional, kemudian dibutuhkan konten yang jelas dan bermanfaat untuk ditampilkan pada</t>
+  </si>
+  <si>
+    <t>yang terdapat pada akun bisnis? untuk melakukan analisa, ada beberapa</t>
+  </si>
+  <si>
+    <t>yogyakarta jl</t>
+  </si>
+  <si>
+    <t>you have entered an incorrect email address!</t>
   </si>
   <si>
     <t>your email address will not be published</t>
   </si>
   <si>
-    <t>         </t>
-  </si>
-  <si>
-    <t>© 2020 jalantikus</t>
-  </si>
-  <si>
-    <t>« tutorial woocommerce lengkap untuk membuat toko online</t>
+    <t> </t>
+  </si>
+  <si>
+    <t>  (021) 40000995     layanan 24 jam call center kami selalu siap sedia membantu anda</t>
+  </si>
+  <si>
+    <t>  1</t>
+  </si>
+  <si>
+    <t>  3</t>
+  </si>
+  <si>
+    <t>  3 tahapan sebelum melakukan ekspansi bisnis</t>
+  </si>
+  <si>
+    <t>  4</t>
+  </si>
+  <si>
+    <t>  5 alasan kenapa bisnis anda membutuhkan pinjaman modal usaha</t>
+  </si>
+  <si>
+    <t>  5 kesalahan bisnis yang harus dihindari para pebisnis ukm</t>
+  </si>
+  <si>
+    <t>  6</t>
+  </si>
+  <si>
+    <t>  6 ide bisnis di tahun 2017 yang bisa diaplikasikan di pasar online</t>
+  </si>
+  <si>
+    <t>  9</t>
+  </si>
+  <si>
+    <t>  agar arus kas bisnis tidak terganggu, berikut 5 tips mengelola arus kas bisnis anda</t>
+  </si>
+  <si>
+    <t>  anda bisa memanfaatkan berbagai platform untuk para pekerja lepas (</t>
+  </si>
+  <si>
+    <t>  anda mungkin langsung membayangkan platform ecommerce seperti tokopedia, bukan? anda tidak salah</t>
+  </si>
+  <si>
+    <t>  bagi anda yang memiliki keahlian mengajar, bisnis digital ini layak anda coba</t>
+  </si>
+  <si>
+    <t>  bagi pemilik bisnis online, 5 tips ini bisa meningkatkan penjualan</t>
+  </si>
+  <si>
+    <t>  bagi sebuah website, terutama yang bertujuan bisnis, peran seo sangatlah penting</t>
+  </si>
+  <si>
+    <t>  banyak sekali website yang bersedia membayar anda untuk sebuah tulisan yang berkualitas</t>
+  </si>
+  <si>
+    <t>  beragam pilihan ide bisnis juga telah kami sampaikan sebagai bahan pertimbangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  berbagai platform bisa anda manfaatkan untuk menjajal dunia podcasting antara lain anchor dan spotify </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  berbagai platform menawarkan peluang untuk mendapatkan penghasilan dengan mengajar online seperti udemy atau ruangguru </t>
+  </si>
+  <si>
+    <t>  butuh modal usaha untuk bisnis online? coba ajukan melalui platform p2p lending</t>
+  </si>
+  <si>
+    <t>  caranya, anda bisa membangun sebuah website yang didukung dengan sistem pembelajaran terintegrasi atau yang lebih dikenal dengan lms (learning management system)</t>
+  </si>
+  <si>
+    <t>  di tahap awal, anda cukup fokus pada kualitas konten yang anda hasilkan</t>
+  </si>
+  <si>
+    <t>  inilah yang paling membedakan antara dropship dengan reseller</t>
+  </si>
+  <si>
+    <t>  jika anda ingin mengetahui lebih lanjut cara membuat website toko online, panduan ini akan dapat membantu anda</t>
+  </si>
+  <si>
+    <t>  jika anda mampu menemukan niche yang tepat, anda bisa saja meraih kesuksesan seperti</t>
+  </si>
+  <si>
+    <t>  jika anda memiliki kemampuan bermusik yang baik dan mampu menghasilkan sebuah lagu yang berkualitas, anda bisa menjual karya anda tersebut</t>
+  </si>
+  <si>
+    <t>  jika anda menggunakan wordpress, banyak tools yang bisa membantu anda membuat website kursus online dengan mudah</t>
+  </si>
+  <si>
+    <t>  jika anda ragu menjadikan blog sebagai bisnis digital anda, cerita sukses para blogger ini mungkin bisa menginspirasi anda</t>
+  </si>
+  <si>
+    <t>  karena potensi bisnis ecommerce yang besar di indonesia, berjualan online merupakan salah satu ide bisnis digital terbaik</t>
+  </si>
+  <si>
+    <t>  keuntungan bisnis dropship berasal dari selisih uang yang anda terima dari pembeli dengan jumlah uang yang anda bayarkan kepada produsen barang</t>
+  </si>
+  <si>
+    <t>  keuntungan menjadikan bisnis online</t>
+  </si>
+  <si>
+    <t>  lalu, apa saja bisnis era digital yang menjanjikan di tahun 2019 ini? pilihannya banyak sekali, namun anda tidak perlu melakukan riset sendiri</t>
+  </si>
+  <si>
+    <t>  langkah selanjutnya yang perlu anda lakukan adalah menjadikan blog anda tersebut sebagai sumber penghasilan</t>
+  </si>
+  <si>
+    <t>  lebih dari itu, semua jenis usaha yang menjual produknya secara online, baik menggunakan website atau aplikasi termasuk dalam ranah bisnis digital</t>
+  </si>
+  <si>
+    <t>  manakah bisnis digital anda? kesempatan untuk menjalankan bisnis digital di indonesia masih sangat potensial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mari kita melihat sosok magdalenaf </t>
+  </si>
+  <si>
+    <t>  mengelola akun youtube dengan berbagai konten yang unik terbukti bisa menjadi sebuah bisnis digital yang menjanjikan</t>
+  </si>
+  <si>
+    <t>  misalnya, anda bisa membeli novel kesukaan anda dalam bentuk digital secara online</t>
+  </si>
+  <si>
+    <t>  namun, anda juga bisa memulainya dari dalam diri anda sendiri, yaitu terkait dengan keahlian yang anda miliki</t>
+  </si>
+  <si>
+    <t>  pada prakteknya, banyak sekali contoh bisnis digital yang terbukti mampu menghasilkan omset yang menggiurkan</t>
+  </si>
+  <si>
+    <t>  persiapan dan strategi meningkatkan penjualan bisnis online menjelang ramadhan dan lebaran</t>
+  </si>
+  <si>
+    <t>  produk bisnis digital bisa berupa barang ataupun jasa</t>
+  </si>
+  <si>
+    <t>  proses pengajuan pinjaman dan tips agar pinjaman bisnis anda di koinworks disetujui</t>
+  </si>
+  <si>
+    <t>  saat ini kebutuhan akan website semakin meningkat, baik untuk instansi pemerintah, perusahaan, maupun individu</t>
+  </si>
+  <si>
+    <t>  satu hal yang menarik dari youtube adalah setiap orang memiliki kesempatan untuk meraih sukses yang sama</t>
+  </si>
+  <si>
+    <t>  satu hal yang paling unik dari dropship adalah produsen lah yang bertugas mengirimkan barang kepada konsumen</t>
+  </si>
+  <si>
+    <t>  secara singkat, cara kerja afiliasi terbagi menjadi tiga bagian</t>
+  </si>
+  <si>
+    <t>  selain itu, dropship juga berbeda dengan afiliasi</t>
+  </si>
+  <si>
+    <t>  selain itu, perhitungkan dengan baik investasi waktu yang telah anda berikan dengan potensi keuntungan yang akan anda terima</t>
+  </si>
+  <si>
+    <t>  semoga artikel ini mampu membantu anda dalam mengambil keputusan ya? mari mulai langkah awal membangun bisnis anda</t>
+  </si>
+  <si>
+    <t>  singkatnya, dropshipper bertugas sebagai penghubung antara penjual dan pembeli barang</t>
+  </si>
+  <si>
+    <t>  tentu saja, anda bisa dengan mudah menjual produk digital tersebut di website anda sendiri</t>
+  </si>
+  <si>
+    <t>  tidak perlu kuatir, membuat channel podcast anda sendiri tidaklah sulit</t>
+  </si>
+  <si>
+    <t>  tipsnya, pelajari potensi pasar dan temukan</t>
+  </si>
+  <si>
+    <t>  walaupun banyak cara untuk dapat membuat website dengan mudah, untuk kustomisasi yang lebih rumit, diperlukan keahlian pemrograman tingkat lanjut yang hanya dimiliki oleh seorang web developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> berikut 12 peluang usaha di digital tahun 2018 </t>
+  </si>
+  <si>
+    <t> hal ini mempunyai tujuan agar sponsor atau iklan yang digunakan menjadi lebih efektif dan bisa menjangkau pembeli atau konsumen dengan lebih luas</t>
+  </si>
+  <si>
+    <t> iklan banner ini biasanya akan berguna untuk melakukan promosi suatu perusahaan, produk, atau jasa tertentu di dalam suatu website</t>
+  </si>
+  <si>
+    <t> kata profesional yang dimaksudkan di sini adalah bisa saja mencakup fotografi, pembuatan suatu film, atau bisa juga website, bahkan pembuatan suatu software</t>
+  </si>
+  <si>
+    <t> nah di bawah ini akan di bahas mengenai beberapa contoh bisnis digital yang sekiranya bisa anda jalankan dengan menggunakan media blog dan yang pasti bisnis ini akan menjanjikan</t>
+  </si>
+  <si>
+    <t> nah di sini, jika ingin terjun ke dalam bisnis menjual produk pribadi ini tentu harus mempunyai produk sendiri, yang mana nantinya bisa anda jual di platform internet dan bisa menghasilkan income untuk sendiri</t>
+  </si>
+  <si>
+    <t> namun kebutuhan atas artikel ini semakin hari akan semakin meningkat jumlahnya</t>
+  </si>
+  <si>
+    <t> pada saat berkecimpung di dalam dunia bisnis agen penjualan ini maka harus bisa dalam memasarkan suatu produk dari brand atau merek yang dimiliki oleh orang lain</t>
+  </si>
+  <si>
+    <t> perlu anda ketahui bahwa di dalam dunia bisnis online ini kedudukan artikel sangatlah penting, yang mana akan digunakan sebagai sarana untuk melakukan promosi atau melakukan review dari suatu produk tertentu</t>
+  </si>
+  <si>
+    <t> potensi bisnis digital 3</t>
+  </si>
+  <si>
+    <t> sesuai dengan namanya jika berminat untuk terjun langsung untuk menjalankan bisnis ini maka tugas utamanya adalah dengan membuat suatu display ads atau sebuah iklan banner</t>
+  </si>
+  <si>
+    <t> youtube anda</t>
+  </si>
+  <si>
+    <t>   11</t>
+  </si>
+  <si>
+    <t>   13</t>
+  </si>
+  <si>
+    <t>   2</t>
+  </si>
+  <si>
+    <t>    2</t>
+  </si>
+  <si>
+    <t>© copyright 2019 • koinworks blog</t>
+  </si>
+  <si>
+    <t>©2015 dbs bank ltd |</t>
+  </si>
+  <si>
+    <t>« curl command</t>
+  </si>
+  <si>
+    <t>– pada zaman sekarang ini teknologi semakin berkembang pesat dari waktu ke waktu</t>
   </si>
 </sst>
 </file>
@@ -1707,10 +2272,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1718,10 +2283,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -1751,10 +2316,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -1762,10 +2327,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1773,10 +2338,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -1795,10 +2360,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -1806,10 +2371,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -1828,10 +2393,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -1839,10 +2404,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -1861,10 +2426,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -2161,7 +2726,7 @@
         <v>1.0</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
@@ -2216,7 +2781,7 @@
         <v>1.0</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
@@ -2810,7 +3375,7 @@
         <v>1.0</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="109">
@@ -2832,7 +3397,7 @@
         <v>1.0</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="111">
@@ -2931,7 +3496,7 @@
         <v>1.0</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="120">
@@ -3019,7 +3584,7 @@
         <v>1.0</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="128">
@@ -3228,7 +3793,7 @@
         <v>1.0</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="147">
@@ -3470,7 +4035,7 @@
         <v>1.0</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="169">
@@ -3602,7 +4167,7 @@
         <v>1.0</v>
       </c>
       <c r="C180" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="181">
@@ -3877,7 +4442,7 @@
         <v>1.0</v>
       </c>
       <c r="C205" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="206">
@@ -3888,7 +4453,7 @@
         <v>1.0</v>
       </c>
       <c r="C206" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="207">
@@ -3940,10 +4505,10 @@
         <v>212</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C211" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="212">
@@ -4138,10 +4703,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C229" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="230">
@@ -4160,10 +4725,10 @@
         <v>232</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C231" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="232">
@@ -4251,7 +4816,7 @@
         <v>1.0</v>
       </c>
       <c r="C239" s="2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="240">
@@ -4262,7 +4827,7 @@
         <v>1.0</v>
       </c>
       <c r="C240" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="241">
@@ -4306,7 +4871,7 @@
         <v>1.0</v>
       </c>
       <c r="C244" s="2" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="245">
@@ -4317,7 +4882,7 @@
         <v>1.0</v>
       </c>
       <c r="C245" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="246">
@@ -4328,7 +4893,7 @@
         <v>1.0</v>
       </c>
       <c r="C246" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="247">
@@ -4383,7 +4948,7 @@
         <v>1.0</v>
       </c>
       <c r="C251" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="252">
@@ -4570,7 +5135,7 @@
         <v>1.0</v>
       </c>
       <c r="C268" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="269">
@@ -4603,7 +5168,7 @@
         <v>1.0</v>
       </c>
       <c r="C271" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="272">
@@ -4691,7 +5256,7 @@
         <v>1.0</v>
       </c>
       <c r="C279" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="280">
@@ -4823,7 +5388,7 @@
         <v>1.0</v>
       </c>
       <c r="C291" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="292">
@@ -4856,7 +5421,7 @@
         <v>1.0</v>
       </c>
       <c r="C294" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="295">
@@ -4889,7 +5454,7 @@
         <v>1.0</v>
       </c>
       <c r="C297" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="298">
@@ -5043,7 +5608,7 @@
         <v>1.0</v>
       </c>
       <c r="C311" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="312">
@@ -5054,7 +5619,7 @@
         <v>1.0</v>
       </c>
       <c r="C312" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="313">
@@ -5120,7 +5685,7 @@
         <v>1.0</v>
       </c>
       <c r="C318" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="319">
@@ -5450,7 +6015,7 @@
         <v>1.0</v>
       </c>
       <c r="C348" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="349">
@@ -5461,7 +6026,7 @@
         <v>1.0</v>
       </c>
       <c r="C349" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="350">
@@ -5480,10 +6045,10 @@
         <v>352</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C351" s="2" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="352">
@@ -5601,10 +6166,10 @@
         <v>363</v>
       </c>
       <c r="B362" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C362" s="2" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="363">
@@ -5626,7 +6191,7 @@
         <v>1.0</v>
       </c>
       <c r="C364" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="365">
@@ -5637,7 +6202,7 @@
         <v>1.0</v>
       </c>
       <c r="C365" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="366">
@@ -5656,10 +6221,10 @@
         <v>368</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C367" s="2" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="368">
@@ -5670,7 +6235,7 @@
         <v>1.0</v>
       </c>
       <c r="C368" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="369">
@@ -5700,10 +6265,10 @@
         <v>372</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C371" s="2" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="372">
@@ -5714,7 +6279,7 @@
         <v>1.0</v>
       </c>
       <c r="C372" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="373">
@@ -5788,10 +6353,10 @@
         <v>380</v>
       </c>
       <c r="B379" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C379" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="380">
@@ -5802,7 +6367,7 @@
         <v>1.0</v>
       </c>
       <c r="C380" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="381">
@@ -5824,7 +6389,7 @@
         <v>1.0</v>
       </c>
       <c r="C382" s="2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="383">
@@ -5868,7 +6433,7 @@
         <v>1.0</v>
       </c>
       <c r="C386" s="2" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="387">
@@ -5912,7 +6477,7 @@
         <v>1.0</v>
       </c>
       <c r="C390" s="2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="391">
@@ -6110,7 +6675,7 @@
         <v>1.0</v>
       </c>
       <c r="C408" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="409">
@@ -6121,7 +6686,7 @@
         <v>1.0</v>
       </c>
       <c r="C409" s="2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="410">
@@ -6187,7 +6752,7 @@
         <v>1.0</v>
       </c>
       <c r="C415" s="2" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="416">
@@ -6264,7 +6829,7 @@
         <v>1.0</v>
       </c>
       <c r="C422" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="423">
@@ -6407,7 +6972,7 @@
         <v>1.0</v>
       </c>
       <c r="C435" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="436">
@@ -6418,7 +6983,7 @@
         <v>1.0</v>
       </c>
       <c r="C436" s="2" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="437">
@@ -6459,10 +7024,10 @@
         <v>441</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C440" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="441">
@@ -6528,7 +7093,7 @@
         <v>1.0</v>
       </c>
       <c r="C446" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="447">
@@ -6924,7 +7489,7 @@
         <v>1.0</v>
       </c>
       <c r="C482" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="483">
@@ -7089,7 +7654,7 @@
         <v>1.0</v>
       </c>
       <c r="C497" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="498">
@@ -7166,7 +7731,7 @@
         <v>1.0</v>
       </c>
       <c r="C504" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="505">
@@ -7188,7 +7753,7 @@
         <v>1.0</v>
       </c>
       <c r="C506" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="507">
@@ -7210,6 +7775,2140 @@
         <v>1.0</v>
       </c>
       <c r="C508" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C509" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C510" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C511" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C512" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C513" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C514" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C515" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C516" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C517" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C518" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C519" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C520" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C521" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C522" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C523" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C524" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C525" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C526" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C527" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C528" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C529" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C530" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C531" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C532" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C533" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C534" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C535" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C536" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C537" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C538" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C539" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C540" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C541" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C542" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C543" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C544" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C545" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C546" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C547" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C548" s="2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C549" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C550" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C551" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C552" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C553" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C554" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C555" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B556" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C556" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B557" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C557" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B558" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C558" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B559" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C559" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B560" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C560" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B561" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C561" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B562" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C562" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B563" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C563" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B564" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C564" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B565" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C565" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B566" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C566" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B567" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C567" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B568" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C568" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B569" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C569" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B570" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C570" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B571" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C571" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B572" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C572" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B573" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C573" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B574" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C574" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B575" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C575" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B576" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C576" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B577" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C577" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B578" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C578" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B579" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C579" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C580" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C581" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C582" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C583" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C584" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B585" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C585" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B586" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C586" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C587" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B588" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C588" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C589" s="2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B590" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C590" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B591" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C591" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B592" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C592" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B593" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C593" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C594" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C595" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C596" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C597" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C598" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C599" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C600" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C601" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B602" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C602" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C603" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B604" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C604" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B605" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C605" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B606" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C606" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B607" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C607" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B608" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C608" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B609" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C609" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B610" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C610" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B611" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C611" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B612" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C612" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B613" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C613" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B614" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C614" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B615" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C615" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B616" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C616" s="2" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B617" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C617" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B618" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C618" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B619" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C619" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B620" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C620" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B621" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C621" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B622" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C622" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B623" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C623" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B624" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C624" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B625" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C625" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B626" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C626" s="2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B627" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C627" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B628" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C628" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B629" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C629" s="2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B630" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C630" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B631" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C631" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B632" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C632" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B633" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C633" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B634" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C634" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B635" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C635" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B636" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C636" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B637" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C637" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B638" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C638" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B639" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C639" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B640" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C640" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B641" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C641" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B642" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C642" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="B643" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C643" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B644" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C644" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B645" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C645" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B646" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C646" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B647" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C647" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B648" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C648" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B649" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C649" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B650" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C650" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B651" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C651" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B652" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C652" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B653" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C653" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B654" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C654" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B655" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C655" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B656" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C656" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B657" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C657" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B658" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C658" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B659" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C659" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B660" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C660" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B661" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C661" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B662" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C662" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B663" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C663" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="B664" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C664" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B665" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C665" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="B666" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C666" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B667" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C667" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B668" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C668" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B669" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C669" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B670" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C670" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B671" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C671" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B672" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C672" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B673" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C673" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B674" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C674" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B675" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C675" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B676" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C676" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B677" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C677" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B678" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C678" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B679" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C679" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B680" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C680" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B681" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C681" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B682" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C682" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B683" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C683" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B684" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C684" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B685" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C685" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B686" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C686" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B687" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C687" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B688" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C688" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B689" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C689" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B690" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C690" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B691" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C691" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B692" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C692" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B693" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C693" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B694" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C694" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B695" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C695" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B696" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C696" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B697" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C697" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B698" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C698" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B699" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C699" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B700" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C700" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B701" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C701" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B702" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C702" s="2" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="732">
   <si>
     <t>word</t>
   </si>
@@ -23,22 +23,19 @@
     <t>total</t>
   </si>
   <si>
-    <t xml:space="preserve"> (021) 79184155 fax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (021) 7941417</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (024) 6716780 fax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (024) 76581513</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (0274) 415585 fax </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0274-385603</t>
+    <t xml:space="preserve"> $2 jadi terkesan murahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $50 – $300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $50 – $3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $50 – $500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (lihat harga satuannya disini )</t>
   </si>
   <si>
     <t xml:space="preserve"> 1</t>
@@ -47,28 +44,19 @@
     <t xml:space="preserve"> 10</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 11+ ide bisnis digital terbaik baiklah</t>
   </si>
   <si>
     <t xml:space="preserve"> 12</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12 peluang usaha di digital tahun 2018   idwebhost 1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2 sukabumi, indonesia 43353 partnership https</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 33 yogyakarta 55161 telp</t>
+    <t xml:space="preserve"> 3p dalam pembuatan produk digital</t>
   </si>
   <si>
     <t xml:space="preserve"> 4</t>
@@ -86,76 +74,94 @@
     <t xml:space="preserve"> 8</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99 b semarang 50274 telp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ada banyak marketplace besar yang sudah ada di indonesia seperti lazada, tokopedia, bukalapak, shopee dan lain sebagainya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ahmad yani no</t>
+    <t xml:space="preserve"> ada banyak sekali bentuk produk digital, mulai dari yang mudah sampai yang susah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ada beberapa hal pokok yang harus disiapkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ada juga lisensi dimana sang pembeli diperbolehkan menjual produknya kembali tanpa perlu berbagi komisi dengan si vendor, bahkan mengklaim bahwa itu produknya sendiri! inilah yang dinamakan lisensi plr, dimana penjual memberikan hak cipta produknya kepada pembeli untuk dipakai lagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ada patokan rentang harga yang biasanya saya gunakan ketika menjual produk digital</t>
   </si>
   <si>
     <t xml:space="preserve"> akan tetapi, anda bisa membangun kursus online anda sendiri</t>
   </si>
   <si>
-    <t xml:space="preserve"> akomodasi menggeluti startup yang berhubungan dengan akomodasi ini menggiurkan</t>
-  </si>
-  <si>
     <t xml:space="preserve"> alasan dropshipping bisa menjadi bisnis digital yang menarik adalah anda bisa memulainya tanpa modal dan menentukan sendiri produk apa yang ingin anda jual</t>
   </si>
   <si>
     <t xml:space="preserve"> alasan pertama, hampir setiap orang mengandalkan mesin pencari sebelum membeli sebuah produk</t>
   </si>
   <si>
-    <t xml:space="preserve"> analisa strategi digital yang telah digunakan</t>
+    <t xml:space="preserve"> anda berhak memberikan produk plr tersebut, karena anda sudah memiliki hak cipta untuk membagikan produk digital tadi kepada pembeli affiliasi anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda bisa bekerja sama dengan perusahaan penerbitan atau dengan penulis-penulis independen untuk memasarkan ebook buku-bukunya</t>
   </si>
   <si>
     <t xml:space="preserve"> anda bisa dengan leluasa mengatur bagaimana produk akan ditampilkan</t>
   </si>
   <si>
-    <t xml:space="preserve"> anda bisa menggunakan media blog ini sebagai salah satu media untuk membangun bisnis digital, dan bisa membangun berbagai macam bisnis digital yang anda inginkan</t>
+    <t xml:space="preserve"> anda bisa memasarkan produk digital audio seperti lagu, jingle, soundtrack, musik instrument, akustik, ringtone, dan lain sebagainya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda bisa mendapatkan konten-konten premium atau dalam contoh disini yaitu produk digital yang akan di</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda bisa menjual ebook buku-buku pelajaran, novel, cerita anak, majalah, buku panduan, novel grafis, komik, buku-buku motivasi, dan lain sebagainya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda bisa menjual foto-foto karya anda ke website-website fotografi atau anda bisa memamerkan hasil karya anda di website pribadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda bisa menjual resep-resep masakan anda ini ke majalah-majalah kuliner, restoran-restoran, atau toko-toko makanan</t>
   </si>
   <si>
     <t xml:space="preserve"> anda bisa saja menjadi sosok sukses berikutnya</t>
   </si>
   <si>
+    <t xml:space="preserve"> anda cukup mendaftar disana seperti biasa, lalu lakukan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda cukup mengklik 'ok' pertanda tidak keberatan dengan kebijakan ini</t>
+  </si>
+  <si>
     <t xml:space="preserve"> anda hanya perlu cermat mengamati kebutuhan pasar dan menciptakan produk yang dibutuhkan masyarakat</t>
   </si>
   <si>
     <t xml:space="preserve"> anda hanya perlu memikirkan apa yang menjadi keahlian anda dan juga menarik untuk dijadikan konten</t>
   </si>
   <si>
-    <t xml:space="preserve"> anda juga bisa berbisnis dengan membuat website, yang mana domain dan hostingnya bisa beli di idcloudhost</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda juga bisa membuat kursus online, yakni dengan memberi member beberapa tutorial dalam bentuk video atau bisa juga file pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda mahir mengambar? pembuatan  e-comic atau web cartoon  saat ini sedang banyak diminati</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda punya keahlian di bidang ini? kumpulkan teman-teman anda yang memiliki bakat serupa, lalu bangun sebuah startup web developer atau anda bisa juga memulai dengan menjadi freelance developer</t>
+    <t xml:space="preserve"> anda juga bisa menciptakan ebook sendiri dengan mengumpulkan artikel-artikel yang pernah anda buat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda pun juga bisa</t>
   </si>
   <si>
     <t xml:space="preserve"> anda tentu menyadari bahwa anda akan ketinggalan jika tidak turut ambil bagian</t>
   </si>
   <si>
-    <t xml:space="preserve"> apa itu peluang bisnis di dunia digital ? 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apabila dijalankan dengan sungguh-sungguh dan niat untuk sukses yang tinggi maka hasil yang maksimal bisa anda dapatkan dengan mudah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aplikasi mobile   idwebhost   sebagian besar masyarakat kini sudah mengenal  smartphone , dan semua aktivitas internet kini bisa dilakukan melalui perangkat mobile</t>
+    <t xml:space="preserve"> anda tidak akan pernah bisa menjual produk dengan harga tinggi dengan desain yang berantakan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda tidak perlu mencari tempat untuk mengumpulkan barang, mengadakan stok, melakukan inventarisasi, ataupun mengirimkan barang yang memakan banyak waktu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anggi krisna dan ari maulana sebagai penyedia jasa konten, kontenesia dan arsip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apa maksud dari masing-masing p tadi? 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apalagi jika keahlian khusus yang anda ajarkan itu tidak banyak dikuasai orang</t>
   </si>
   <si>
     <t xml:space="preserve"> artinya, masih banyak inovasi yang bisa dihasilkan sebagai peluang usaha</t>
   </si>
   <si>
-    <t xml:space="preserve"> atau bisa juga berupa jasa atau layanan tertentu</t>
+    <t xml:space="preserve"> atau anda bisa bekerja sama dengan peneliti-peneliti lain untuk memasarkan hasil penelitian mereka</t>
   </si>
   <si>
     <t xml:space="preserve"> atau jika anda seorang penulis buku, anda bisa menjual buku elektronik anda di</t>
@@ -164,61 +170,61 @@
     <t xml:space="preserve"> baca juga</t>
   </si>
   <si>
-    <t xml:space="preserve"> baca juga </t>
-  </si>
-  <si>
     <t xml:space="preserve"> bagaimana caranya? semua berawal dari ide</t>
   </si>
   <si>
     <t xml:space="preserve"> bagaimana tanggapan masyarakat tentang bisnis ini? sangat baik! hingga saat ini, jumlah undangan yang telah terkirim mencapai 190 ribu</t>
   </si>
   <si>
-    <t xml:space="preserve"> bagi anda yang baru pertama kali masuk ke dalam bisnis digital harus bisa membedakan perbedaan antara ecommerce dengan marketplace</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bagi yang ingin menggeluti bisnis digital agency harus tahu tekniknya terlebih dahulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bahkan perlu anda ketahui bahwa bisnis digital yang satu ini merupakan bisnis bagi sejuta umat yang ada di indonesia</t>
-  </si>
-  <si>
     <t xml:space="preserve"> baik dari sisi branding maupun kepercayaan pelanggan</t>
   </si>
   <si>
-    <t xml:space="preserve"> baik sekedar membaca berita, berbelanja, maupun melakukan investasi semua sudah dapat dilakukan melalui</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banyak juga wirausahawan muda inovatif yang ikut berkontribusi dalam memberikan solusi untuk masalah sosial yang ada melalui bisnis digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banyak pebisnis digital yang sudah mencapai kesuksesan dari bisnis yang dijalaninya, anda pun dapat mengikuti jejak mereka untuk menggeluti bisnis digital tersebut</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banyak penjual offline yang kemudian beralih menjual produknya secara online</t>
+    <t xml:space="preserve"> balik ke masalah kerumitan tadi… orang-orang yang tidak ingin repot selalu memilih produk apple</t>
   </si>
   <si>
     <t xml:space="preserve"> bayangkan jika pelanggan anda berasal dari seluruh dunia</t>
   </si>
   <si>
+    <t xml:space="preserve"> bayangkan pembeli berkata</t>
+  </si>
+  <si>
     <t xml:space="preserve"> beberapa ide bisnis digital yang anda geluti bisa saja tidak menunjukkan hasil di minggu pertama</t>
   </si>
   <si>
+    <t xml:space="preserve"> beberapa ide-ide baru mulai muncul dan populer dikalangan ‘</t>
+  </si>
+  <si>
     <t xml:space="preserve"> beberapa niche memiliki potensi menghasilkan keuntungan yang lebih besar dari yang lain</t>
   </si>
   <si>
+    <t xml:space="preserve"> begini cara memulainya!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> belajarlah tentang fotografi makanan agar anda bisa memasukkan foto masakan anda ke dalam resep masakan digital yang anda buat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> beli hari itu, diterima hari itu juga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> berapa harganya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> berbagai ide produk digital saya akan coba tulis bermacam ide yang bisa kamu kembangkan untuk dibuat menjadi produk digital</t>
+  </si>
+  <si>
     <t xml:space="preserve"> berbeda dengan yang kita pahami sebelumnya, bisnis digital tidak semata terkait dengan penjualan produk tanpa wujud saja, seperti perangkat lunak komputer (</t>
   </si>
   <si>
+    <t xml:space="preserve"> berikut adalah beberapa ide bisnis digital yang bisa anda lakukan menggunakan produk lisensi plr</t>
+  </si>
+  <si>
     <t xml:space="preserve"> bertujuan jangka panjang</t>
   </si>
   <si>
     <t xml:space="preserve"> bertujuan jangka panjang pengguna internet di indonesia terus meningkat, mencapai 171 juta jiwa di tahun 2018 lalu</t>
   </si>
   <si>
-    <t xml:space="preserve"> bidang edukasi sendiri menjadi salah satu segmentasi yang tidak ada habisnya, hal ini juga berbanding lurus dengan semakin banyak lulusan yang mempunyai tujuan tertentu, nah dalam hal ini teknologi mempermudah orang untuk bisa belajar (kursus) secara online sebagai salah satu alternatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bingung bagaimana cara memulai sebuah blog ? pertama-tama, anda buat website! setelah itu anda tentukan nama domain yang menjadi alamat situs anda</t>
+    <t xml:space="preserve"> biasanya bentuknya yaitu;</t>
   </si>
   <si>
     <t xml:space="preserve"> bisnis digital juga tidak hanya tentang produk fisik yang dikemas dalam bentuk digital seperti</t>
@@ -227,37 +233,37 @@
     <t xml:space="preserve"> bisnis digital mampu memberikan solusi untuk permasalahan ini</t>
   </si>
   <si>
+    <t xml:space="preserve"> bisnis digital sendiri bisa dipahami sebagai proses bisnis yang hanya melibatkan teknologi tanpa menyentuh dimensi fisik</t>
+  </si>
+  <si>
     <t xml:space="preserve"> bisnis digital yang dipasarkan secara online memiliki potensi penghasilan tanpa batas</t>
   </si>
   <si>
-    <t xml:space="preserve"> bisnis e-commerce peluang yang pertama merupakan e-commerce</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bisnis ini kenapa diminati karena resikonya bisa dibilang sangat kecil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bisnis menjual produk pribadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bisnis online atau bisnis digital kini menjadi salah satu pekerjaan yang bisa sangat menjanjikan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bisnis yang satu ini merupakan ide bisnis yang menjanjikan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> blog sering kali digunakan di dalam memperlancar proses membangun bisnis online seseorang atau bisa disebut dengan bisnis digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> blogger anda hobi menulis, bisa jadi bisnis kok! banyak orang kini mencari informasi hanya dengan hanya  searching  di internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bojonggenteng no</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> buat halaman facebook, akun instagram, akun twitter, bahkan halaman linkedin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> buatlah konten kreatif yang sesuai dengan minat anda, seperti gadget reviewer, fashion blogger, food bloger, dan sebagainya</t>
+    <t xml:space="preserve"> bisnis online , contoh ide produk digital , internet marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bonus affiliate salah satu jenis bisnis di internet yang bernama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> buatlah kursus online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bukan benar-benar tidak butuh biaya produksi, produk digital seringkali hanya butuh satu kali biaya produksi (tidak berulang), dan biaya tersebut cenderung sangat murah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bukan langkah pertama seperti yang mungkin anda bayangkan sebelumnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cara ini emang terbukti ampuh mendongkrak penjualan dalam waktu singkat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cara melakukan positioning pertama, dalam menjual gunakan kalimat-kalimat yang berbeda dari saingan anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cara memasarkan produk digital yang paling umum digunakan oleh banyak</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cara membuat produk digital untuk bisa menciptakan produk digital emang ngga mudah ya</t>
   </si>
   <si>
     <t xml:space="preserve"> cara mendapatkan uang dari youtube</t>
@@ -266,40 +272,43 @@
     <t xml:space="preserve"> cara penyampaian yang menarik dan pilihan makanan yang super pedas membuat banyak orang tertarik</t>
   </si>
   <si>
+    <t xml:space="preserve"> caranya dengan mengubah sudut pandang orang lain terhadap produk anda</t>
+  </si>
+  <si>
     <t xml:space="preserve"> caranya? anda bisa menyewakan</t>
   </si>
   <si>
-    <t xml:space="preserve"> care@idcloudhost</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> coming soon)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> contoh produk digital antara lain ebook, video, audio, dll</t>
   </si>
   <si>
-    <t xml:space="preserve"> daftar isi </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dalam hal ini, digital agency bisa menjadi solusi tepat dalam pemasaran </t>
+    <t xml:space="preserve"> cookie policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cukup buat satu kali, lalu jual hingga ribuan kali! jika anda berminat untuk memiliki produk digital lisensi plr, anda bisa miliki</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dalam panduan ini anda akan mengenal bentuk-bentuk produk digital yang paling mudah yang bisa anda buat mulai saat ini juga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dan bagaimana meningkatkan harga produk anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dan produk digital yang akan kamu buat itu adalah jawaban dari</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dari atas ke bawah, makin tinggi</t>
   </si>
   <si>
     <t xml:space="preserve"> dari manakah penghasilan yang anda dapatkan? bisa dari iklan atau dari review berbayar yang anda lakukan</t>
   </si>
   <si>
-    <t xml:space="preserve"> dengan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dengan banyaknya pengguna internet saat ini tentu bidang bisnis di dunia digital akan semakin berkembang dengan pesat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dengan hadirnya kemajuan teknologi yang ada, pengajuan kartu kredit atau peminjaman dana tidak perlu repot-repot untuk datang dahulu ke bank konvensional</t>
-  </si>
-  <si>
     <t xml:space="preserve"> dengan memiliki toko online sendiri, anda memiliki kendali penuh untuk menyelesaikan setiap permasalahan mungkin muncul</t>
   </si>
   <si>
-    <t xml:space="preserve"> desain grafis jasa pembuatan desain merupakan peluang usaha yang selalu ramai dibutuhkan</t>
+    <t xml:space="preserve"> dengan mendapat posisi yang tepat, mereka jadi sangat eksklusif dan berani memasang harga tinggi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dengan menentukan ini, anda akan tahu produk jenis apa yang akan anda buat</t>
   </si>
   <si>
     <t xml:space="preserve"> di artikel ini, kami telah merangkumnya untuk anda</t>
@@ -314,85 +323,58 @@
     <t xml:space="preserve"> di halaman websitenya, pat flynn menyebutkan penghasilan dari bisnis digitalnya mencapai angka $2 juta </t>
   </si>
   <si>
-    <t xml:space="preserve"> di indonesia bisnis e-commerce ini berkembang secara signifikan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> di sinilah sosial media akan berperan dengan cara yang paling efektif</t>
-  </si>
-  <si>
     <t xml:space="preserve"> di sisi bisnis, ini adalah peluang bagus</t>
   </si>
   <si>
-    <t xml:space="preserve"> digital agency berfungsi sebagai pemberi solusi bagi para pebisnis yang mengalami kendala dalam berbisnis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> digital agency ini sangat diperlukan karena saat ini banyak pebisnis yang mulai go online</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> digital agency, membantu bisnis go online   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> digital media bagi anda yang suka menggeluti bisnis kreatif dapat menggeluti digital media</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> digital media startup, hiburan di era informatika</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dimana bidang ini merupakan bidang yang semakin hari semakin diminati oleh sebagian orang untuk dijadikan sebagai pekerjaan atau profesi mereka</t>
+    <t xml:space="preserve"> diantaranya adalah; ratakan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dijamin video tutorial anda akan banyak dicari orang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dijual seharga rp200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dikirim melalui email, aktivasi akses membership, atau link download</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dulu memang orang tidak tertarik dengan ebook karena layar gawai yang kecil jadi tidak nyaman dipakai membaca</t>
   </si>
   <si>
     <t xml:space="preserve"> during his free time, he enjoys playing clash royale a lot</t>
   </si>
   <si>
-    <t xml:space="preserve"> e-commerce merupakan toko online yang menjadi sarana bisnis retail untuk bisa berjualan barang mereka secara online</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> e-commerce penjualnya hanya satu orang  sedangkan marketplace banyak penjual dalam satu wadah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> e-commerce, belanja itu mudah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eits, tapi anda harus memperdalam ilmu dan tekniknya supaya tidak kalah saing dengan mereka yang sudah mahir di bidang desain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fanpage karma, hootsuite, dan yang lainnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> financial dalam urusan finansial pada era kemajuan teknologi ini, memiliki peran penting di dalamnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gunakan kekuatan dari media sosial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hadirkan konten-konten yang ringan tapi tetap memiliki nilai tersendiri lewat platform internet yang mudah untuk dilihat dan dibagikan, salah satunya menggunakan video atau tulisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hal ini dikarenakan peminat dari bisnis ini sangat banyak dan banyak orang pula yang menggunakan media yang satu ini sebagai sumber pendapatan mereka sebab sangat menjanjikan jika dijalankan</t>
+    <t xml:space="preserve"> ebook yang dijual tidak berbatas topiknya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> facebook dan instagram tinggal minta dan bayar facebook untuk menampilkan promosi kita di fb dan ig</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gabung sekarang </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gimana sebaiknya ya mas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> google ads kalau produknya seperti produk belajar quran, sangat mungkin untuk dijual menggunakan google ads (adwords)</t>
   </si>
   <si>
     <t xml:space="preserve"> hal ini karena anda tetap bisa menjalankan bisnis tersebut di mana pun anda berada, selama 24 jam</t>
   </si>
   <si>
+    <t xml:space="preserve"> hal ini semata-mata untuk memberikan kesan perbedaan dengan produk sebelumnya</t>
+  </si>
+  <si>
     <t xml:space="preserve"> hal ini tentu bergantung dengan bisnis yang anda geluti</t>
   </si>
   <si>
-    <t xml:space="preserve"> hal ini tentu menguntungkan bagi anda, karena sekarang ini banyak masyarakat yang membutuhkan barang dengan cepat dan tidak memiliki banyak waktu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hal ini tentunya memunculkan keuntungan tersendiri bagi setiap pemilik bisnis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hal itu dikarenakan potensi wisata pada setiap daerah di suatu kota sudah dimanfaatkan dan dikembangkan, sehingga semakin banyak masyarakat luar kota yang ingin berkunjung dan membutuhkan layanan akomodasi ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hal tersebut dibuktikan dengan banyaknya startup yang bermunculan yang kemudian kian menjadi besar karena banyak digunakan oleh masyarakat</t>
-  </si>
-  <si>
     <t xml:space="preserve"> hal utama yang perlu disiapkan nah, jika berbagai keunggulan di atas membuat anda tertarik menggeluti jenis bisnis ini, lalu apa saja yang perlu anda siapkan?   1</t>
   </si>
   <si>
-    <t xml:space="preserve"> harga terjangkau dan kualitas terbaik</t>
+    <t xml:space="preserve"> hanya saja seingat saya mas anggi pernah klaim sudah mencairkan sampai di angka ratusan juta untuk semua pasukan penulisnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> harganya beda)</t>
   </si>
   <si>
     <t xml:space="preserve"> hasilnya, jumlah follower yang mencapai 1,4 juta pengguna</t>
@@ -401,37 +383,70 @@
     <t xml:space="preserve"> he keeps on pursuing opportunities to engage with more people through articles about wordpress, internet marketing and other it-related issues</t>
   </si>
   <si>
+    <t xml:space="preserve"> https</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hubungi saya</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ia rajin membuat konten di instagram ketika tengah mencicipi makanan di salah satu restoran</t>
   </si>
   <si>
+    <t xml:space="preserve"> ide bisnis dengan produk digital, lisensi plr &amp; revolusi bisnis secara online courtesy of pixabay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ide otentik ini juga bisa berupa pengalaman hidup yang pernah kamu rasakan</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ide yang dimiliki sungguh kreatif , berawal dari keinginan untuk mengurangi penggunaan kertas undangan yang pada akhirnya terbuang sia-sia, ia membangun bisnisnya dari nol</t>
   </si>
   <si>
-    <t xml:space="preserve"> indonesia sudah memberikan peluang atau tempat bagi para pebisnis digital untuk berkreasi dalam mengembangkan bisnisnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inspirasi bisa datang dari mana saja, anda bisa mencari ide-ide dari aplikasi yang sudah diciptakan di market play store dan app store</t>
+    <t xml:space="preserve"> ini beberapa di antaranya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ini bisa jadi penawaran menarik untuk calon pembeli anda, lebih lagi jika harga satuannya diperlihatkan sehingga calon pembeli akan merasa untung! ide bisnis digital ini memberikan keuntugan kepada anda dan juga si pembeli, yaitu produk anda makin mudah dibeli dan pembeli diberikan keuntungan berupa lebih hemat daripada membeli satu-per-satu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ini karena harga dipengaruhi banyak faktor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ini karena produk digital tidak membutuhkan biaya produksi untuk dijual dalam jumlah banyak</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ini karena produk itu membutuhkan usaha dan waktu (dan kadang uang)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interesting, right? yudhis adi nugroho the graph diklaim telah digunakan lebih dari 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intinya, ada dua kelebihan yang sangat signifikan yang saya dapat dari forum diskusi tersebut mengenai produk digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> itulah</t>
   </si>
   <si>
     <t xml:space="preserve"> itulah alasan mengapa banyak perusahaan melakukan transformasi digital, untuk meraih potensi besar tersebut</t>
   </si>
   <si>
+    <t xml:space="preserve"> iya, produk digital ini memang hanya satu kali diproduksi yang kemudian bisa berkali-kali dijual tanpa produksi lagi</t>
+  </si>
+  <si>
     <t xml:space="preserve"> jadi, anda cukup mengandalkan kemampuan menjual anda saja</t>
   </si>
   <si>
-    <t xml:space="preserve"> jadi, pastikan untuk terlebih dahulu menentukan tujuan apa yang ingin dicapai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jangan lupa melengkapinya dengan aplikasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jangan lupa untuk membeli hosting yang berguna untuk menyimpan data-datamu di internet ya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jangan lupa untuk mengolahnya dengan kreatif agar tetap menarik dan tidak membuat bosan untuk disimak bersama dengan orang-orang bertalenta pilihan anda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jangan ragu untuk menyewa seorang</t>
+    <t xml:space="preserve"> jadi, cukup update produk digital kamu melalui akun personal atau database email yang kamu punya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jadikan bundling beberapa produk nah, jika anda sudah memiliki beberapa produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jadikan produk website membership pernah dengan website</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jadikan solusi yang anda tawarkan dalam minimal 4 sesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jangan gunakan halaman penjualan seperti ini</t>
   </si>
   <si>
     <t xml:space="preserve"> jangkauan pasar yang luas</t>
@@ -440,10 +455,7 @@
     <t xml:space="preserve"> jangkauan pasar yang luas jika anda menggeluti bisnis digital yang dijalankan secara online, pangsa pasarnya tentu akan lebih luas</t>
   </si>
   <si>
-    <t xml:space="preserve"> jasa pembuatan website tentu membutuhkan keahlian khusus di bidang it, seperti membeli domain, hosting, serta jaringan internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jend</t>
+    <t xml:space="preserve"> jasa seo detail landing page nya bisa kamu lihat di sini </t>
   </si>
   <si>
     <t xml:space="preserve"> jika anda bingung harus memulai dari mana, silakan ikuti panduan tentang podcast kami</t>
@@ -461,43 +473,94 @@
     <t xml:space="preserve"> jika anda menjadi orang yang pertama terjun di bidang tersebut tentu saja anda akan berpeluang memperoleh peluang usaha yang sangat besar</t>
   </si>
   <si>
+    <t xml:space="preserve"> jika anda merasa suara dan artikulasi bicara anda bagus, anda bisa merekam suara anda untuk dijadikan podcast atau pembaca cerita untuk audiobook </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika anda seorang developer atau hobi coding maka menjual software buatan anda sendiri adalah salah satu cara untuk melihat bagaimana tingkat kemampuan anda</t>
+  </si>
+  <si>
     <t xml:space="preserve"> jika anda sudah memiliki blog, pastikan anda memiliki konten menarik yang mampu mendatangkan pengunjung</t>
   </si>
   <si>
     <t xml:space="preserve"> jika anda tertarik dengan bisnis aplikasi mobile, anda bisa mencoba menekuni admob</t>
   </si>
   <si>
+    <t xml:space="preserve"> jika anda tertarik menjual produk digital, berikut ini contoh-contoh produk digital yang bisa menjadi inspirasi untuk anda</t>
+  </si>
+  <si>
     <t xml:space="preserve"> jika belum, anda bisa membuatnya terlebih dahulu dengan mengikuti panduan lengkap membuat blog ini</t>
   </si>
   <si>
-    <t xml:space="preserve"> jika di ibaratkan marketplace ini seperti sebuah mall yang dapat menampung banyak penjual dengan berbagai jenis dagangan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jika dibandingkan melalui</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jika diolah secara kreatif maka konten tersebut akan tetap menarik dan membekas di hati pelanggan anda</t>
-  </si>
-  <si>
     <t xml:space="preserve"> jika jumlah follower anda meningkat, bisa saja datang tawaran kerjasama dari pihak baik dengan melakukan posting iklan produk maupun melakukan review berbayar</t>
   </si>
   <si>
-    <t xml:space="preserve"> jika proses digitalisasi bisnis dilakukan secara konsisten dalam jangka panjang, a sudah pasti bahwa hal ini akan menghemat banyak uang dan waktu bagi sebuah bisnis kedepannya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jika telah mengetahui hasil evaluasi dari usaha mendigitalisasi bisnis</t>
+    <t xml:space="preserve"> jika misalnya bisnis fisik seperti baju, pakaian, tas, aksesoris, sepatu, dan lain sebagainya punya bentuk fisik produk yang bisa disentuh, lain halnya dengan bisnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jika traffic pengunjung website anda tinggi, dalam waktu singkat anda pasti akan mendapatkan tawaran dari perusahaan-perusahaan yang ingin membeli foto anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jual kembali di marketplace digital karena anda sudah memiliki hak cipta untuk menggunakan dan menjual produk tersebut, kenapa tidak mulai menjualnya di</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kadang juga disertai satu atau dua sesi tanya jawab langsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kalau $20 belum tentu ada yang mau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kalau anda membuat produk di awal sebelum mengetahui sisanya, anda punya kemungkinan 80% bisnis anda akan gagal total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kalau di luar negeri istilahnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kalau kamu adalah orang yang bisa meng-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kalau kamu tulis jasa seo di google, kebanyakan yang muncul di sana menggunakan harga yang sangat rendah, dan memang pada kenyataannya mereka menggunakan google ads sebagai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kalau merujuk di websitenya, paket belajar video ini dibanderol seharga rp495</t>
   </si>
   <si>
     <t xml:space="preserve"> kambingjantan</t>
   </si>
   <si>
-    <t xml:space="preserve"> karena tugas dan tanggung jawabnya banyak maka tidak mengherankan jika digital agency bisa menawarkan layanan yang beragam</t>
+    <t xml:space="preserve"> karena dengan men-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> karena itu tak jarang anda akan melihat “jasa yang di-produk-kan”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> karena itu, untuk mendapatkan penghasilan tertinggi dari informasi yang sama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> karena itulah kita sebelumnya harus sudah menjaring potensi pasarnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> karena komputer dan smartphone sekarang ini sudah menjadi gaya hidup sehari-hari, maka dapat dipastikan menjual software berpotensi besar memberikan keuntungan bagi anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> karena “</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> karya yang kamu wujudkan, tips-trik yang kamu bagikan, inspirasi yang kamu sampaikan, dst</t>
   </si>
   <si>
     <t xml:space="preserve"> keahlian ini bisa menjadi inti bisnis digital yang anda tekuni</t>
   </si>
   <si>
-    <t xml:space="preserve"> kedung mundu raya no</t>
+    <t xml:space="preserve"> kebanyakan klien saya adalah orang yang sudah malang melintang dan mengerti betul dunia seo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kecil kemungkinan orang yang baru kenal seo mau mengeluarkan uang sebesar yang saya patok</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kedua produk ini sangat mudah digunakan bahkan oleh mereka yang gaptek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kedua, desain</t>
   </si>
   <si>
     <t xml:space="preserve"> kejelian anda dalam melihat peluang pasar turut menentukan niche yang anda pilih</t>
@@ -506,78 +569,60 @@
     <t xml:space="preserve"> kelebihan bisnis digital jika anda masih ragu untuk terjun ke dunia bisnis digital, berikut ini beberapa keunggulan yang dapat anda jadikan pertimbangan</t>
   </si>
   <si>
+    <t xml:space="preserve"> kelebihan lainnya, untuk produk-produk tertentu harganya bisa sangat tinggi (abu-abu) tergantung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kelebihan produk digital suatu hari, saya duduk dalam sebuah forum diskusi yang saat itu saya merasa bahwa produk digital ini</t>
+  </si>
+  <si>
     <t xml:space="preserve"> kembangkan kemampuan anda agar mampu membuat aplikasi yang menjadi solusi bagi banyak orang seperti halnya gojek</t>
   </si>
   <si>
-    <t xml:space="preserve"> kemudian berinvestasilah dalam iklan secara</t>
-  </si>
-  <si>
     <t xml:space="preserve"> kesabaran anda adalah kuncinya</t>
   </si>
   <si>
     <t xml:space="preserve"> kesan ini kurang bisa muncul ketika bergabung ke marketplace</t>
   </si>
   <si>
-    <t xml:space="preserve"> kesimpulan bagi anda yang ingin menggeluti bisnis digital, idwebhost akan membahas pengertian serta peluangnya untuk 12 bisnis digital potensial tahun 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kesimpulan demikianlah beberapa peluang bisnis digital di indonesia dan potensinya yang begitu menarik, semoga informasi ini bermanfaat</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ketekunannya dalam menyajikan konten yang menarik di akun youtubenya membuatnya memiliki hingga</t>
   </si>
   <si>
-    <t xml:space="preserve"> kini anda dapat dengan mudah melakukan distribusi maupun promosi secara</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> koinworks merupakan salah satu perusahaan p2p lending yang terdaftar dan diawasi oleh otoritas jasa keuangan (ojk)</t>
+    <t xml:space="preserve"> komputer dan smartphone identik dengan “rumit”</t>
   </si>
   <si>
     <t xml:space="preserve"> konsultan seo seo (search engine optimization) adalah upaya mendapatkan posisi terbaik di mesin pencari</t>
   </si>
   <si>
+    <t xml:space="preserve"> kunci mendapatkan ide yang otentik yaitu dengan cara menemukan</t>
+  </si>
+  <si>
     <t xml:space="preserve"> kuncinya adalah menentukan bisnis yang sesuai dengan kemampuan anda dan memiliki prospek bisnis yang baik</t>
   </si>
   <si>
-    <t xml:space="preserve"> lalu bagaimana cara melakukannya? berikut adalah 5 langkah mudah untuk membuat bisnis online untuk menjadi lebih digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lalu pilih provider yang pas dan harga terjangkau dari idwebhost web hosting </t>
+    <t xml:space="preserve"> kursus online artinya suatu seri video panduan (biasanya 4 sampai 16 buah) yang dikirimkan kepada pembeli tidak secara sekaligus tapi dalam beberapa minggu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lagi-lagi saya berasumsi saja, untuk sekelas kang rendy, ada lah ya kalau 3</t>
   </si>
   <si>
     <t xml:space="preserve"> learn how your comment data is processed </t>
   </si>
   <si>
-    <t xml:space="preserve"> lebih banyak prospek calon konsumen tentunya akan mengikuti jika konten yang dimiliki adalah konten berkualitas tinggi yang memang ditujukan untuk target pasar yang spesifik</t>
+    <t xml:space="preserve"> list list ini meliputi email dan akun-akun personal kamu</t>
   </si>
   <si>
     <t xml:space="preserve"> luar biasa! ada banyak sekali program afiliasi yang bisa anda ikuti, seperti amazon affiliate yang menjual produk internasional untuk pelanggan global</t>
   </si>
   <si>
-    <t xml:space="preserve"> mampang prapatan 19c jakarta selatan 12790</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mampang prapatan xv no</t>
+    <t xml:space="preserve"> maka dari itu, untuk bisa terlibat disana kita perlu yang namanya produk digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> makanya orang dewasa yang sibuk tidak suka dengan komputer dan handphone yang canggih</t>
   </si>
   <si>
     <t xml:space="preserve"> mari kita masuk ke daftar 13 ide bisnis digital yang bisa anda coba di tahun 2019</t>
   </si>
   <si>
-    <t xml:space="preserve"> marketplace ini berbeda dengan e-commerce</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> marpoyan damai pekanbaru 28128, indonesia kantor sukabumi jl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> masukkan email dan terapkan panduan praktisnya!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> melihat peluang yang lebar tidak ada salahnya untuk mencoba membuka bisnis e-commerce tersebut</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> membangun digital agency peluang bisnis digital yang menjanjikan selanjutnya adalah dengan membangun atau mendirikan digital agency</t>
-  </si>
-  <si>
     <t xml:space="preserve"> membangun toko online</t>
   </si>
   <si>
@@ -608,28 +653,22 @@
     <t xml:space="preserve"> menawarkan jasa pembuatan website jika anda seorang developer, kemampuan anda membuat website yang menarik bisa menjadi bisnis digital yang potensial</t>
   </si>
   <si>
-    <t xml:space="preserve"> mendirikan marketplace peluang bisnis digital di indonesia yang menarik digeluti selanjutnya adalah dengan mendirikan marketplace</t>
-  </si>
-  <si>
     <t xml:space="preserve"> menekuni bisnis afiliasi</t>
   </si>
   <si>
     <t xml:space="preserve"> menekuni bisnis afiliasi afiliasi adalah kegiatan memasarkan barang milik orang lain dengan imbalan berupa komisi</t>
   </si>
   <si>
-    <t xml:space="preserve"> menentukan tujuan bisnis online anda nah itulah beberapa contoh bisnis digital yang bisa anda jalankan yang mempunyai peluang sukses besar</t>
-  </si>
-  <si>
     <t xml:space="preserve"> mengajar online kemajuan teknologi informasi telah menjangkau dunia pendidikan</t>
   </si>
   <si>
-    <t xml:space="preserve"> mengapa anda ingin membuat bisnis menjadi lebih digital? apa tujuanmu? apakah anda ingin mendapatkan lebih banyak penjualan?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mengapa demikian? seperti yang kita ketahui, saat ini sosial media adalah salah satu situs yang paling sering diakses oleh masyarakat indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> meningkatnya penggunaan internet dan berbagai kemudahan yang ditawarkan oleh</t>
+    <t xml:space="preserve"> mengapa produk apple begitu mahal? mengapa iphone lebih mahal dari android? mengapa mac lebih mahal dari windows? disinilah kejeniusan apple dalam melakukan positioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengizinkan orang lain untuk menjual produk tersebut dan mendapatkan komisi dari setiap penjualan yang terjadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengubah produk yang tadinya biasa-biasa saja menjadi sebuah produk yang harus dimiliki oleh seseorang</t>
   </si>
   <si>
     <t xml:space="preserve"> menjadi blogger terkenal</t>
@@ -668,51 +707,45 @@
     <t xml:space="preserve"> menulis konten digital anda memiliki keahlian menulis? dengan keahlian tersebut, anda bisa menghasilkan banyak uang di era digital saat ini</t>
   </si>
   <si>
-    <t xml:space="preserve"> menurut konsultan ternama, jiten kachhela, kesuksesan aplikasi atau</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> meskipun bisnis marketplace ini telah dikuasai oleh pemain besar, namun bagi pemula masih ada kesempatan untuk menggeluti bisnis ini jika kreatif dan inovatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> minat masyarakat terhadap transportasi saat ini sangat besar karena lebih praktis dibandingkan dengan menggunakan kendaraan pribadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> misalnya akan membuka digital agency yang memberikan layanan seo maka ajaklah teman yang menguasai teknik seo baik off page ataupun on page</t>
+    <t xml:space="preserve"> mereka yang sibuk dengan urusan pekerjaan dan yang gaptek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meski ini pun sebenarnya masih ada bentuk fisik berupa cd, yang berbeda dengan bisnis digital yang saya maksud</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> meskipun demikian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> misalnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> misalnya minggu pertama 2 video untuk bab pendahuluan… minggu kedua 4 video untuk bab 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> misalnya saya ingin membuat panduan seo ini jadi sebuah kursus, maka contoh jadwalnya seperti ini</t>
   </si>
   <si>
     <t xml:space="preserve"> misalnya, jika anda gemar mencicipi berbagai makanan lezat, review makanan mungkin bisa jadi niche anda</t>
   </si>
   <si>
-    <t xml:space="preserve"> misalnya, memberikan konten berupa informasi unik yang menghibur bagi banyak orang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mulai dari pakaian, barang bekas, hingga tiket pesawat, semuanya bisa didapatkan dengan mudah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mulailah dengan belajar menulis konten yang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mulailah dengan membuat website resmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nah beberapa contoh yang mungkin bisa anda jadikan sebagai produk pribadi adalah seperti kerajinan tangan, atau bisa juga produk fashion atau pakaian, dan yang paling baik adalah produk digital, dan masih banyak lagi yang lainnya yang mungkin bisa anda kembangkan sendiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nah maka dari itu, ini lah yang menyebabkan kenapa bisnis online penulis artikel ini merupakan salah satu bisnis digital yang sangat menjanjikan</t>
+    <t xml:space="preserve"> mulai bisnis digital anda sekarang &amp; raup potensi profit maksimal! courtesy of pixabay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mungkin yang paling mudah untuk contoh adalah bisnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nah, produk dengan lisensi plr ini bisa anda manfaatkan sebagai ide bisnis digital berupa bonus-bonus tambahan agar calon pembeli tertarik membeli suatu produk digital melalui</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nah, yang sekarang sedang trend bisa dijadikan contoh ide bisnis digital, yaitu</t>
   </si>
   <si>
     <t xml:space="preserve"> namun idealnya, anda bisa menggunakan blog anda sebagai sarana menawarkan jasa tersebut</t>
   </si>
   <si>
-    <t xml:space="preserve"> namun yang disayangkan dari pekerjaan bisnis digital yang satu ini adalah tidak semua orang bisa dan mampu dalam membuat artikel dengan baik dan benar</t>
-  </si>
-  <si>
     <t xml:space="preserve"> namun, ada satu hal yang perlu anda ingat</t>
   </si>
   <si>
-    <t xml:space="preserve"> namun, dibutuhkan waktu yang tidak singkat untuk melakukannya</t>
-  </si>
-  <si>
     <t xml:space="preserve"> namun, jika anda memiliki sebuah blog yang memiliki pengunjung cukup banyak, anda bisa menawarkan keahlian anda di blog tersebut</t>
   </si>
   <si>
@@ -722,34 +755,25 @@
     <t xml:space="preserve"> namun, sebelum membahasnya lebih lanjut, mari kita pelajari terlebih dahulu apa bisnis digital itu sebenarnya dan apa saja keunggulannya</t>
   </si>
   <si>
+    <t xml:space="preserve"> ngga peduli pembeli ada di daerah mana, ngga ada tambahan biaya</t>
+  </si>
+  <si>
     <t xml:space="preserve"> niagahoster sendiri memiliki program afiliasi yang bisa anda pelajari lebih lanjut di panduan ini</t>
   </si>
   <si>
-    <t xml:space="preserve"> nikmati 9 keuntungan untuk transaksi bisnis, termasuk transaksi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> olahraga untuk mental, fisik dan spiritual baca selengkapnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> oleh sebab itu jika anda ingin terjun ke bisnis digital secara online, penting untuk melakukan analisa bisnis digital apa yang banyak dibutuhkan oleh masyarakat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> orang akan menilai seberapa profesional sebuah bisnis didasarkan pada apa yang dilihat melalui</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pancoran jakarta selatan 12790, indonesia kantor pekanbaru jl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pastikan anda untuk terus mencari tahu data terkini agar tetap dapat terus meningkatkan kinerja dan performa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pebisnis digital bisa menawarkan jasa pembuatan toko online kepada orang yang membutuhkannya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> peluang dalam fintech atau financial pada teknologi ini masih sangat terbuka lebar, sehingga bagi anda yang ingin menggeluti bisnis digital di indonesia bisa mencoba dalam bidang ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> peluang usaha pembuatan aplikasi mobile &amp; game akan selalu jadi primadona</t>
+    <t xml:space="preserve"> nofi bayu darmawan insightzilla dan digzilla mengklaim total penggunanya lebih dari 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> orang-orang yang datang ke saya adalah mereka yang memang ingin mendapatkan organic traffic dan bukan orang baru dalam seo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> packaging – bentuk dari produk digital anda pertama-tama tentukan bentuk dari produk digital anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pada akhirnya, karena tidak ada dua hal tersebut, maka keuntungan atau profit dari produk digital bisa sampai angka 90% atau bahkan 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pastikan hasil penelitian yang anda pasarkan adalah penelitian yang sudah teruji realibitas dan validitas serta sudah diakui keabsahannya di peer-review journal</t>
   </si>
   <si>
     <t xml:space="preserve"> pemilihan niche yang potensial</t>
@@ -761,21 +785,18 @@
     <t xml:space="preserve"> pengertian dan penggunaannya</t>
   </si>
   <si>
-    <t xml:space="preserve"> percayakan giro 9 untuk membantu anda agar lebih mudah dan nyaman dalam menjalankan aktivitas perbankan sehari-hari</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> periksalah kembali apakah setiap konten yang telah di</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> perintis kemerdekaan no</t>
+    <t xml:space="preserve"> pengertian lisensi plr (private label right) setiap produk digital memiliki lisensinya masing-masing, ia boleh jadi hanya diperuntukkan bagi pembelinya saja tanpa boleh dibagikan (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pengertian produk digital sebenernya ngga terbatas pada produk berupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> penjualan produk digital lebih praktis dari penjualan produk nyata berfisik</t>
   </si>
   <si>
     <t xml:space="preserve"> perjalanan suksesnya diawali dengan menulis di laman blog pribadinya saat itu</t>
   </si>
   <si>
-    <t xml:space="preserve"> perkembangan bisnis dunia digital yang semakin pesat, telah dipelopori dengan jaringan internet yang semakin cepat berkembang dan pola belanja masyarakat yang berubah dari offline ke online</t>
-  </si>
-  <si>
     <t xml:space="preserve"> pesan yang bisa kita ambil adalah</t>
   </si>
   <si>
@@ -788,7 +809,7 @@
     <t xml:space="preserve"> podcaster adalah orang yang membuat konten audio tersebut</t>
   </si>
   <si>
-    <t xml:space="preserve"> potensi bisnis digital membahas potensi bisnis digital di indonesia ini begitu menarik, hal itu dikarenakan peluang bisnis digital masih sangat menggiurkan untuk digeluti</t>
+    <t xml:space="preserve"> positioning – dari produk biasa jadi barang berharga positioning adalah seni</t>
   </si>
   <si>
     <t xml:space="preserve"> potensi penghasilan tanpa batas</t>
@@ -800,52 +821,124 @@
     <t xml:space="preserve"> praktis, bukan? 5</t>
   </si>
   <si>
-    <t xml:space="preserve"> prioritaskan pada bagian desain</t>
+    <t xml:space="preserve"> pricing – memberikan harga untuk produk digital sejujurnya, saya tidak bisa menentukan dengan pasti berapa harga produk yang harus anda pasang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> produk anda bisa digandakan sampai tak terhingga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> produk digital hanya bisa dinikmati dengan bantuan mesin-mesin digital misalnya laptop, smartphone, music player, dan lain-lain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> produk digital sendiri adalah produk yang dijual bukan dalam bentuk fisik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> produk digital tidak memiliki bentuk fisik nyata yang bisa disentuh dan digenggam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rencananya akan saya buat dengan bahasa inggris</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rendy saputra ada banyak sekali yang berjualan video pelatihan atau video tutorial, salah satunya kang rendy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rentang harga terbaik adalah $50 – $80, </t>
   </si>
   <si>
     <t xml:space="preserve"> required fields are marked *</t>
   </si>
   <si>
-    <t xml:space="preserve"> saat ini tersedia beberapa data center utama yang dapat anda gunakan dengan berlangganan menggunakan layanan kami</t>
+    <t xml:space="preserve"> ringkasnya, dengan asumsi perhitungan di atas, profitnya berkisar 700-an juta</t>
   </si>
   <si>
     <t xml:space="preserve"> saat ini, sudah banyak platform manajemen konten dengan menggunakan</t>
   </si>
   <si>
+    <t xml:space="preserve"> sah-sah saja kalau akhirnya dikatakan “tidak butuh biaya produksi”</t>
+  </si>
+  <si>
     <t xml:space="preserve"> salah satu contohnya,</t>
   </si>
   <si>
-    <t xml:space="preserve"> salah satu media yang paling sering digunakan dalam membangun suatu bisnis digital adalah blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> salah satunya, dengan mempelajari data kostumer anda agar lebih memahami untuk bertindak nantinya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sama dengan pembuatan marketplace agar bisa bersaing harus kreatif dan juga inovatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sebab, promosi online ataupun cetak membutuhkan tampilan menarik melalui  tools  komputer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sebagai contoh bisnis startup transportasi yang ada di indonesia yaitu go-jek, grab, dan lain sebagainya</t>
+    <t xml:space="preserve"> sampai ketika apple muncul membawa iphone dan mac</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya akan beri 1 contoh… apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya akan memberitahukan 1 trik agar produk digital anda bisa dijual berkali-kali lipat daripada produk lain yang isinya mirip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya ambil asumsi seperti ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya gunakan asumsi yang sama seperti sebelumnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya juga sarankan kepada anda untuk menambahkan beberapa elemen produk tambahan seperti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya juga sekarang membuka kembali</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya mau bahas teknik yang cukup efektif untuk memperkaya diri secara finaisial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya ngga bisa banyak menampilkan data, karena saya ngga tau terlalu detail di dalamnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya ngga perlu buka data transaksinya ya, hihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya ngga perlu kasih contoh ya, kamu pasti udah sering menemukan iklan-iklan produk digital yang berseliweran di timeline akun kamu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya pernah tulis ini lebih lengkap di materi manajemen sumber daya manusia, cara membentuk super tim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya sarankan anda untuk mengedit produk plr tadi paling tidak desain dan covernya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saya sengaja mengincar klien di kategori ini dengan memasang tarif standar seo</t>
   </si>
   <si>
     <t xml:space="preserve"> sebagai contoh, jika anda memiliki kemampuan dalam memberikan motivasi pengembangan diri, anda bisa menjadi seorang motivator online yang sukses</t>
   </si>
   <si>
+    <t xml:space="preserve"> sebelum masuk ke pembuatan produk, berikut ini adalah hal yang harus sudah anda punya</t>
+  </si>
+  <si>
     <t xml:space="preserve"> sebelumnya, anda harus pergi ke tempat kursus untuk mendapatkan ilmu baru</t>
   </si>
   <si>
-    <t xml:space="preserve"> sebutkan siapa saja yang sih membutuhkan jasa web developer? mulai dari e-commerce, lembaga pendidikan, perusahaan, pemerintahan, ekspedisi, games, mobile apps, dan sebagainya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selain bank, pegadaian pun juga telah memanfaatkan teknologi ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selain bekal ilmu yang anda dapat di jurusan kuliah, desain grafis bisa dipelajari dengan cara kursus ataupun dengan otodidak</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selain itu teknik memasarkan produk dengan seo pun bisa dilakukan oleh digital agency</t>
+    <t xml:space="preserve"> sedangkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sedangkan virol diklaim telah memiliki 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sederhananya produk digital atau produk yang berbentuk file, dengan pengiriman produk melalui link</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> segmen pasar mereka memang bukan publisher biasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sehingga, ketika terjadi pembelian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sekali lagi, anda tidak perlu mengikuti saran saya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sekali membuat, anda bisa menjual produk kepada banyak orang sekaligus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sekarang beda lagi karena gawai mobile yang populer sekarang ini kebanyakan berlayar besar jadinya banyak orang yang kemudian tertarik membaca buku digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sekarang semestinya anda sudah bisa menjual produk digital anda sendiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selain itu juga jarang atau bahkan tidak pernah error, apalagi terserang virus</t>
   </si>
   <si>
     <t xml:space="preserve"> selain itu, anda juga bisa mengembangkan bisnis anda sesuai yang anda rencanakan</t>
@@ -860,37 +953,37 @@
     <t xml:space="preserve"> selain potensial, bisnis ini memungkinkan anda bekerja dari rumah atau dari tempat manapun yang anda sukai</t>
   </si>
   <si>
+    <t xml:space="preserve"> selain saingannya masih sedikit, potensi pasar pengguna internet di indonesia ini besar! belum lagi keuntungan anda yang tak perlu ongkos produksi untuk menjual produknya berkali-kali</t>
+  </si>
+  <si>
     <t xml:space="preserve"> selain tidak perlu ada bagi hasil, anda bebas menentukan model bisnis, tarif dan cara promosinya</t>
   </si>
   <si>
     <t xml:space="preserve"> selain tidak perlu repot ke toko buku, anda cukup membuka handphone untuk membaca novel tersebut</t>
   </si>
   <si>
-    <t xml:space="preserve"> selama jaringan internet lancar, serta jumlah penggunanya kian bertambah maka potensi untuk berbisnis digital ini masih terbuka lebar bagi anda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> semakin banyak penonton dan </t>
-  </si>
-  <si>
     <t xml:space="preserve"> semakin menarik blog anda, semakin besar kemungkinan tawaran pekerjaan untuk menulis konten</t>
   </si>
   <si>
-    <t xml:space="preserve"> senin-jumat, 08</t>
+    <t xml:space="preserve"> seperti yang sudah dijelaskan tadi, ebook juga lebih murah dari video dan kursus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sering terjadi error yang tidak diketahui sebabnya, susah digunakan, dan kadang terkena virus sampai rusak</t>
   </si>
   <si>
     <t xml:space="preserve"> setelah memiliki website anda akan mampu memasuki bisnis digital untuk jangka panjang dengan lebih percaya diri</t>
   </si>
   <si>
-    <t xml:space="preserve"> setelah sudah cukup paham, tentukan tujuan anda dan tetap fokus untuk mencapai kesuksesan dan jangan lupa untuk selalu membuka diri dengan mempelajari ilmu-ilmu baru</t>
+    <t xml:space="preserve"> si pembeli bisa mendapatkan akses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> silahkan sesuaikan dengan selera anda</t>
   </si>
   <si>
     <t xml:space="preserve"> silakan pelajari lebih lanjut tentang panduan admob secara lengkap </t>
   </si>
   <si>
-    <t xml:space="preserve"> solusi yang diberikan misalnya bagaimana cara memasarkan produk dengan benar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> startup yang sudah memiliki nama dalam bidang akomodasi yaitu traveloka</t>
+    <t xml:space="preserve"> studi kasus produk digital di indonesia</t>
   </si>
   <si>
     <t xml:space="preserve"> subscribe sekarang dan #buildsuccessonline bersama niagahoster!</t>
@@ -902,55 +995,55 @@
     <t xml:space="preserve"> sungguh sebuah pasar yang potensial!  jika anda memiliki keahlian membuat aplikasi mobile, baik untuk platform</t>
   </si>
   <si>
-    <t xml:space="preserve"> supaya sukses dalam menggeluti bisnis digital media, yang harus anda lakukan adalah dengan memberikan konten melalui tulisan ataupun video yang ringan tetapi menghibur serta menarik</t>
-  </si>
-  <si>
     <t xml:space="preserve"> tanpa keahlian pemrograman pun anda mampu membuat sebuah toko online yang profesional</t>
   </si>
   <si>
-    <t xml:space="preserve"> teknologi sekarang ini dapat dikatakan sudah sangat tidak terpisahkan dari bagian keseharian masyarakat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> telp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> temukan celah apa yang bisa dijadikan peluang bisnis inovatif dengan bekerjasama dengan transportasi</t>
+    <t xml:space="preserve"> tapi dengan melihat saja biasanya kita tahu apabila sebuah desain terlihat profesional, terpercaya, atau mencurigakan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tapi harganya bisa berbeda jauh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tapi karena ini adalah produk pertama anda, saya daftarkan yang paling mudah saja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tapi perhatikan, untuk membuat diferensiasi dengan produk sebelumnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tapi saya bingung masalah harga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tapi saya tidak menemukan data ada berapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tapi selain menggunakan cara itu, ada juga beberapa cara lain yang bisa dipakai</t>
   </si>
   <si>
     <t xml:space="preserve"> tentu anda bisa menemukan bisnis anda sendiri</t>
   </si>
   <si>
-    <t xml:space="preserve"> tentu dengan adanya fakta ini bisa membuat kedudukan internet sangat penting adanya bagi masyarakat indonesia di samping kebutuhan sehari-hari seperti sandang pangan dan papan</t>
-  </si>
-  <si>
     <t xml:space="preserve"> tentu omset penghasilan anda akan semakin berlipat ganda</t>
   </si>
   <si>
-    <t xml:space="preserve"> tentu saja bisnis ini bisa sangat menjanjikan untuk anda khususnya</t>
-  </si>
-  <si>
     <t xml:space="preserve"> tentunya dengan didukung oleh portofolio hasil pekerjaan anda sehingga membuat calon klien anda semakin tertarik</t>
   </si>
   <si>
-    <t xml:space="preserve"> terlebih harus menempuh kemacetan kota untuk sampai ke tempat berbelanja</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tetapi semuanya bisa dilakukan secara online</t>
+    <t xml:space="preserve"> tidak ada ongkos kirim (distribusi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tidak ada yang bisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tidak hanya itu</t>
   </si>
   <si>
     <t xml:space="preserve"> tidak hanya itu, bisnis digital juga merupakan upaya untuk membangun identitas online yang bertujuan jangka panjang</t>
   </si>
   <si>
-    <t xml:space="preserve"> tidak hanya itu, konsumen pun merasa lebih aman dalam perjalanan karena informasi rute dan data pengemudi dapat dibagikan kepada kerabat mereka</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> transportasi peluang bisnis digital di indonesia yang menarik digeluti selanjutnya adalah dengan membuka startup yang berhubungan dengan transportasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveloka ini sangat membantu pengguna untuk bisa mendapatkan akomodasi seperti yang diharapkan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tugas utama anda di dalam melaksanakan pekerjaan yang satu ini adalah dengan mengolah dan mengeksekusi dengan baik sponsor atau iklan</t>
+    <t xml:space="preserve"> untuk di dalam negeri, masih segelintir produk digital yang bisa dikatakan benar-benar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> untuk ebook panduan menurunkan berat badan</t>
   </si>
   <si>
     <t xml:space="preserve"> untuk indonesia, portal berita seperti</t>
@@ -962,10 +1055,10 @@
     <t xml:space="preserve"> untuk membangun sebuah website , anda perlu menyewa hosting dan</t>
   </si>
   <si>
-    <t xml:space="preserve"> untuk menggeluti bisnis ini, anda harus kreatif dan memberikan konten yang menarik supaya orang-orang menjadi terhibur</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> usaha ini sangat menjanjikan, mengingat internet sudah merambah hampir di semua bidang kehidupan</t>
+    <t xml:space="preserve"> untuk mendapatkan hasil akhir yang sesuai harapan, kamu perlu mengkondisikan tim agar mengerjakan tugas sesuai dengan tupoksi dan target yang ditetapkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> untuk menemukan kalimat tersebut, lanjutkan kalimat ini</t>
   </si>
   <si>
     <t xml:space="preserve"> waktu untuk mengembangkannya</t>
@@ -974,36 +1067,42 @@
     <t xml:space="preserve"> waktu untuk mengembangkannya anda mungkin pernah mendengar peribahasa “kota roma tidak dibangun dalam semalam” kan? dalam bisnis, hal ini juga berlaku</t>
   </si>
   <si>
-    <t xml:space="preserve"> walaupun jalannya terasa cukup panjang, bisnis yang satu ini memiliki peluang cukup baik</t>
-  </si>
-  <si>
     <t xml:space="preserve"> walaupun konsultan seo di indonesia sudah cukup banyak, peluang bisnisnya masih terbuka lebar</t>
   </si>
   <si>
-    <t xml:space="preserve"> web developer web developer sangat bisa untuk dijadikan sebagai peluang bisnis digital</t>
-  </si>
-  <si>
     <t xml:space="preserve"> website yang bisa membantu anda menjual karya musik online antara lain tunecore dan songcast </t>
   </si>
   <si>
     <t xml:space="preserve"> ya, bisnis digital menawarkan kenyamanan yang lebih kepada pelanggan</t>
   </si>
   <si>
-    <t xml:space="preserve"> yang mana ini akan digunakan untuk melakukan tindakan promosi terhadap suatu produk atau jasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yang pertama dengan membuat daftar layanan apa saja yang akan ditawarkan lalu kemudian ajaklah teman yang memiliki kemampuan atau skill di dalamnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> youtuber punya kamera? punya ide konten? punya keahlian editing video? bikin vlog yuk! upload konten-konten menarik dan informatif melalui </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   idwebhost 8</t>
+    <t xml:space="preserve"> yaitu menjual produk atau jasa digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yang bersih masuk ke kantong owner lebih kurang rp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yang mana kedua produk itu dijual dengan harga sama yaitu rp485</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yang mana yang jadi favorit anda?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> …dan seterusnya</t>
+  </si>
+  <si>
+    <t>! disana, kita diminta untuk membayar menjadi</t>
+  </si>
+  <si>
+    <t>(berulang dalam jangka waktu)</t>
   </si>
   <si>
     <t>(buku elektronik)</t>
   </si>
   <si>
+    <t>(link di atas adalah bab-bab sebelumnya dalam seri panduan bisnis online ini) pembuatan produk merupakan langkah kelima</t>
+  </si>
+  <si>
     <t>(ruang) di blog anda untuk iklan seperti yang dilakukan oleh blogger terkenal,</t>
   </si>
   <si>
@@ -1013,18 +1112,12 @@
     <t>)</t>
   </si>
   <si>
+    <t>) ke teman atau kerabatnya</t>
+  </si>
+  <si>
     <t xml:space="preserve">) seperti freelancer </t>
   </si>
   <si>
-    <t>* ) jam kerja</t>
-  </si>
-  <si>
-    <t>* pada account hosting</t>
-  </si>
-  <si>
-    <t>, anda bisa hasilkan uang melalui iklan di youtube! 6</t>
-  </si>
-  <si>
     <t>, anda bisa mencoba menekuni bisnis digital ini</t>
   </si>
   <si>
@@ -1034,7 +1127,13 @@
     <t>, anda mendaftar pada sebuah program afiliasi dan kemudian mendapatkan kode referal atau tautan khusus</t>
   </si>
   <si>
-    <t>, konsumen sudah dapat mencari berbagai macam keperluan yang dibutuhkan</t>
+    <t>, internet, dan semacamnya</t>
+  </si>
+  <si>
+    <t>, kamu pasti punya cukup banyak follower setia yang selalu menunggu apa-apa yang kamu</t>
+  </si>
+  <si>
+    <t>, konfirmasi transfer, dan lain sebagainya</t>
   </si>
   <si>
     <t>, pada saat ada pembeli yang menggunakan kode yang anda berikan atau mengikuti tautan yang anda sarankan, anda akan mendapatkan bagi hasil pendapatan</t>
@@ -1043,7 +1142,10 @@
     <t>, sebuah website yang menawarkan jasa pembuatan undangan online</t>
   </si>
   <si>
-    <t>, sehingga konsumen tidak perlu repot-repot mencarinya di pinggir jalan saat matahari terik ataupun hujan</t>
+    <t>, studi kasus pribadi, dan lain-lain untuk menambah ‘</t>
+  </si>
+  <si>
+    <t>, tapi juga bisa dalam bentuk jasa</t>
   </si>
   <si>
     <t>, yaitu ranah bisnis yang belum digarap oleh siapapun</t>
@@ -1052,18 +1154,66 @@
     <t>-nya</t>
   </si>
   <si>
-    <t>//idcloudhost</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>00-16</t>
+    <t>/ 3 langkah membuat dan menjual produk digital pertama anda secara online</t>
+  </si>
+  <si>
+    <t>//inflazz</t>
+  </si>
+  <si>
+    <t>00 saja biar gampang)</t>
   </si>
   <si>
     <t>000</t>
   </si>
   <si>
+    <t>000 (dua miliar)</t>
+  </si>
+  <si>
+    <t>000 (enam ratus juta)</t>
+  </si>
+  <si>
+    <t>000 (enam setengah miliar)</t>
+  </si>
+  <si>
+    <t>000 (satu koma tiga miliar)</t>
+  </si>
+  <si>
+    <t>000 (satu miliar)</t>
+  </si>
+  <si>
+    <t>000 (saya jadikan rp440</t>
+  </si>
+  <si>
+    <t>000 (tiga miliar)</t>
+  </si>
+  <si>
+    <t>000 = rp6</t>
+  </si>
+  <si>
+    <t>000 lebih pengguna, yang per tahun dikenakan biaya rp449</t>
+  </si>
+  <si>
+    <t>000 maksimal</t>
+  </si>
+  <si>
+    <t>000 misalnya, ya sebesar itu pula profit yang didapat</t>
+  </si>
+  <si>
+    <t>000 orang, yang harganya adalah rp500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000 untuk setiap konten yang kamu tulis? langsung daftar jadi penulis </t>
+  </si>
+  <si>
+    <t>000 x 13</t>
+  </si>
+  <si>
+    <t>000 x 3000 = rp1</t>
+  </si>
+  <si>
+    <t>000) tapi kalau di indonesia mungkin sekitar rp 200</t>
+  </si>
+  <si>
     <t>1 1</t>
   </si>
   <si>
@@ -1073,36 +1223,45 @@
     <t>10 10</t>
   </si>
   <si>
-    <t>10 orang terkaya di dunia dan cara menjadi seperti mereka</t>
+    <t>10 film inspirasi bisnis yang setiap bisnis pemula wajib lihat</t>
   </si>
   <si>
     <t>10+ plugin woocommerce terbaik untuk toko online anda</t>
   </si>
   <si>
+    <t>100+ inspirasi &amp; contoh logo perusahaan dan brand paling kreatif!</t>
+  </si>
+  <si>
     <t>11 11</t>
   </si>
   <si>
-    <t>11 kekuatan kata untuk digunakan email penjualan anda</t>
-  </si>
-  <si>
     <t>11+ ide bisnis digital yang paling menjanjikan - niagahoster</t>
   </si>
   <si>
     <t>11+ ide bisnis digital yang paling menjanjikan di tahun 2020 11+ ide bisnis digital yang paling menjanjikan di tahun 2020</t>
   </si>
   <si>
-    <t>12 2019! diskon 70% hosting 5gb</t>
-  </si>
-  <si>
-    <t>12 peluang bisnis dunia digital 2019 - blog idwebhost</t>
-  </si>
-  <si>
-    <t>12 peluang bisnis dunia digital 2019 apa itu peluang bisnis di dunia digital ? ada beberapa peluang bisnis digital di indonesia yang masih potensial untuk digeluti</t>
-  </si>
-  <si>
     <t>13 13</t>
   </si>
   <si>
+    <t>14 peluang usaha makanan paling menarik</t>
+  </si>
+  <si>
+    <t>15 usaha makanan paling laris yang mudah anda tiru</t>
+  </si>
+  <si>
+    <t>15+ cara promosi jitu agar produk kamu makin laku!</t>
+  </si>
+  <si>
+    <t>15+ cara promosi jitu agar produk kamu makin laku! - december 18, 2019</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>18 am</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -1112,10 +1271,10 @@
     <t>2 2</t>
   </si>
   <si>
-    <t>2015 - 2020 © pt cloud hosting indonesia</t>
-  </si>
-  <si>
-    <t>26 juni 2019 15 agustus 2019</t>
+    <t>24 pm</t>
+  </si>
+  <si>
+    <t>250</t>
   </si>
   <si>
     <t>3</t>
@@ -1124,94 +1283,94 @@
     <t>3 3</t>
   </si>
   <si>
-    <t>3 tanah datar, kec</t>
+    <t>3 langkah membuat dan menjual produk digital pertama anda secara online</t>
   </si>
   <si>
     <t>30 ide bisnis kreatif yang bisa anda lakukan di…</t>
   </si>
   <si>
+    <t>30 topik ngobrol biar ngga garing</t>
+  </si>
+  <si>
+    <t>31 logo perusahaan indonesia dengan perubahannya dari masa ke masa</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
     <t>4 4</t>
   </si>
   <si>
-    <t>4 cara meningkatkan penjualan online saat musim liburan</t>
-  </si>
-  <si>
     <t>4 hal utama yang perlu disiapkan</t>
   </si>
   <si>
-    <t>4 ide bisnis digital sukses untuk anda coba</t>
-  </si>
-  <si>
-    <t>4 ide bisnis digital sukses untuk anda coba | blog bank dbs indonesia</t>
-  </si>
-  <si>
-    <t>4 kuliner jepang yang wajib dicoba</t>
-  </si>
-  <si>
-    <t>4 teknik pemasaran bisnis online yang wajib diterapkan</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>425</t>
   </si>
   <si>
     <t>5 5</t>
   </si>
   <si>
-    <t>5 cara ini bisa tingkatkan keuntungan bisnis saat libur natal dan tahun baru!</t>
-  </si>
-  <si>
-    <t>5 langkah membuat bisnis online menjadi lebih digital di era teknologi</t>
-  </si>
-  <si>
-    <t>5 langkah membuat bisnis online menjadi lebih digital di era teknologi | koinworks blog</t>
-  </si>
-  <si>
     <t>5 manakah bisnis digital anda?</t>
   </si>
   <si>
-    <t>5 tips mempersiapkan dana darurat agar keuangan selamat</t>
-  </si>
-  <si>
-    <t>5a duren tiga, kec</t>
-  </si>
-  <si>
-    <t>5a jakarta selatan 12790, indonesia (021) 40000 995 care@idcloudhost</t>
+    <t>5 oktober 2015 at 10</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
   <si>
     <t>6 6</t>
   </si>
   <si>
-    <t>6 prinsip pengusaha startup yang bisa kamu terapkan</t>
-  </si>
-  <si>
-    <t>6 tempat wisata di tokyo yang wajib dikunjungi 31, january 2016</t>
+    <t>6 oktober 2015 at 5</t>
   </si>
   <si>
     <t>7 7</t>
   </si>
   <si>
-    <t>7 ide bisnis online sampingan terbaik</t>
-  </si>
-  <si>
-    <t>8 platform cms toko online terbaik 2018</t>
+    <t>7 alasan mengapa anda harus mempunyai bisnis online zaman now</t>
+  </si>
+  <si>
+    <t>7 contoh ide produk digital yang berpotensi besar di pasaran</t>
+  </si>
+  <si>
+    <t>7 contoh ide produk digital yang berpotensi besar di pasaran – abdul mutrib blog | belajar internet marketing</t>
+  </si>
+  <si>
+    <t>7 contoh produk digital yang berpotensi besar</t>
+  </si>
+  <si>
+    <t>7 inspirasi bisnis online yang omzetnya ratusan juta hingga milyaran!</t>
+  </si>
+  <si>
+    <t>7 strategi pemasaran jasa yang pas dilakukan di era digital sekarang ini</t>
   </si>
   <si>
     <t>9 9</t>
   </si>
   <si>
-    <t>? menetapkan tujuan akan membantu untuk menentukan strategi digital apa yang perlu digunakan</t>
-  </si>
-  <si>
-    <t>[solved] informasi gangguan akses website menggunakan https</t>
-  </si>
-  <si>
-    <t>ada macam-macam solusi  yang ditawarkan oleh digital</t>
-  </si>
-  <si>
-    <t>adalah alasan mengapa bisnis ini memiliki peluang baik</t>
+    <t>9 aplikasi jual beli online ini bisa anda gunakan untuk mencari produk murah namun berkualitas tinggi</t>
+  </si>
+  <si>
+    <t>[promotinal] honda jazz terbaru mulai dijual tahun depan di jepang</t>
+  </si>
+  <si>
+    <t>[promotinal] honda jazz terbaru mulai dijual tahun depan di jepang - january 3, 2020</t>
+  </si>
+  <si>
+    <t>[promotional] review honda accord 2019, dibekali fitur canggih</t>
+  </si>
+  <si>
+    <t>[promotional] review honda accord 2019, dibekali fitur canggih - january 3, 2020</t>
+  </si>
+  <si>
+    <t>abdul mutrib blog | belajar internet marketing copyright © 2020</t>
+  </si>
+  <si>
+    <t>ada komisi 50% untuk setiap penjualan</t>
   </si>
   <si>
     <t>adalah nama youtuber dengan penghasilan tersebut</t>
@@ -1220,13 +1379,22 @@
     <t>adalah salah satu contohnya</t>
   </si>
   <si>
-    <t>agar dapat menjangkau pasar yang lebih luas</t>
-  </si>
-  <si>
-    <t>akan tidak berarti tanpa adanya evaluasi</t>
-  </si>
-  <si>
-    <t>anda sedang melihat peluang yang menjanjikan dalam industri ini? empat ide bisnis digital berikut bisa menjadi sumber inspirasi anda dalam mengembangkannya!</t>
+    <t>agar dapat menonton koleksi film disana, meski tanpa cd, hanya lewat media</t>
+  </si>
+  <si>
+    <t>ajaibnya, kelima jenis produk ini bisa jadi isinya sama persis! yang berbeda hanya penyajiannya</t>
+  </si>
+  <si>
+    <t>anak-anak kamu sudah hapal 2 juz saat usia 3 tahun, kamu bisa buat mengajarkan anak hapal quran</t>
+  </si>
+  <si>
+    <t>anda</t>
+  </si>
+  <si>
+    <t>anda memiliki suara bagus atau mampu menciptakan musik dan lagu? kenapa tidak manfaatkan bakat anda tersebut ke dalam bisnis online? sekarang ini banyak alat, software, dan instrumen musik moderen yang bisa memudahkan anda dalam menciptakan musik dan lagu</t>
+  </si>
+  <si>
+    <t>anda sering kan melihat video-video tutorial di sosial media? nah, anda bisa menjual produk digital yang berisikan tutorial membuat sesuatu atau melakukan sesuatu</t>
   </si>
   <si>
     <t>anda tentu mengenal sosok raditya dika, seorang penulis buku dan pemain film</t>
@@ -1235,151 +1403,124 @@
     <t>anda tidak tergantung dengan pihak lain</t>
   </si>
   <si>
-    <t>anda, kemudian proses pengembangan dapat mulai dilakukan pada konten-konten berikutnya untuk menciptakan hasil yang lebih maksimal</t>
-  </si>
-  <si>
     <t>apa itu bisnis digital? bisnis digital adalah suatu jenis usaha yang memanfaatkan kecanggihan teknologi ketika menciptakan sebuah produk ataupun memasarkannya</t>
   </si>
   <si>
-    <t>apa itu google news dan bagaimana cara mendaftarkannya</t>
-  </si>
-  <si>
-    <t>apa itu worm, virus, trojan, adware, spyware, spam, bot, dan ransomware?</t>
-  </si>
-  <si>
-    <t>apakah ada pertumbuhan di setiap</t>
-  </si>
-  <si>
-    <t>artikel sebelumnya persiapan dan strategi meningkatkan penjualan bisnis online menjelang ramadhan dan lebaran</t>
-  </si>
-  <si>
-    <t>artikel selanjutnya kebiasaan buang duit yang sering tak disadari</t>
-  </si>
-  <si>
-    <t>artikel terkait dari penulis ini</t>
-  </si>
-  <si>
-    <t>ayo tingkatkan pertumbuhan bisnis bersama koinbisnis!</t>
+    <t>apa saja update fitur social-media terbesar dunia di tahun 2016?</t>
+  </si>
+  <si>
+    <t>apakah anda ingin memulai bisnis online tapi bingung mau menjual apa? bagaimana kalau anda mencoba menjual produk digital</t>
+  </si>
+  <si>
+    <t>atau pc lewat aplikasi terkait</t>
+  </si>
+  <si>
+    <t>atau url affiliasi anda sudah bisa mendapatkan komisi ketika terjadi penjualan disana</t>
   </si>
   <si>
     <t>baca juga</t>
   </si>
   <si>
-    <t>bagaimana tidak? hanya dengan meng-</t>
-  </si>
-  <si>
-    <t>beberapa syarat dan cara pengajuan pinjaman di koperasi</t>
-  </si>
-  <si>
-    <t>begini cara memilih nama domain yang yahut</t>
+    <t>bagaimana pengalaman bisnismu? bagikan dengan kami ;)</t>
+  </si>
+  <si>
+    <t>be the first to comment</t>
   </si>
   <si>
     <t>beli domain murah transfer domain</t>
   </si>
   <si>
-    <t>bergabung menjadi reseller server vps dengan brand anda</t>
-  </si>
-  <si>
-    <t>berlangganan berhasil! terima kasih ??????</t>
-  </si>
-  <si>
-    <t>bisnis dengan menjual produk pribadi ini merupakan salah satu contoh bisnis digital yang bisa menjadi bisnis online anda</t>
+    <t>berkembangnya potensi bisnis mengikuti perkembangan teknologi sekarang ini membuat bermunculannya ide-ide bisnis ‘</t>
+  </si>
+  <si>
+    <t>beserta lisensinya, maka anda sudah bisa mulai mempraktekkan metode bisnis tersebut</t>
+  </si>
+  <si>
+    <t>bidangnya (kesehatan, pengembangan diri, bisnis, dll</t>
+  </si>
+  <si>
+    <t>bingung mau usaha &amp; bisnis apa? simak nasihat dari 7 pelaku bisnis indonesia ini!</t>
+  </si>
+  <si>
+    <t>bisa berupa jasa pbn , penulis konten, video editing, dan lainnya</t>
+  </si>
+  <si>
+    <t>bisa menulis topik bisnis, marketing, dan teknologi? mau dapat rp500</t>
   </si>
   <si>
     <t>bisnis online makin untung dengan website</t>
   </si>
   <si>
-    <t>blog simak berbagai artikel lengkap seputar dunia web hosting indonesia</t>
-  </si>
-  <si>
-    <t>blog tips keren 12 peluang bisnis dunia digital 2019</t>
-  </si>
-  <si>
-    <t>blog  &gt;  live smart  &gt;  digital business  &gt;  4 ide bisnis digital sukses untuk anda coba</t>
-  </si>
-  <si>
-    <t>buat website jasa pembuatan website murah dan profesional untuk perusahan &amp; bisnis</t>
-  </si>
-  <si>
-    <t>buka bersama keluarga ceria jogjacamp ramadan 2019</t>
-  </si>
-  <si>
-    <t>bukan hanya itu, bisnis digital juga menjadi wadah bagi generasi muda untuk menyalurkan kreativitas menjadi sebuah peluang usaha</t>
-  </si>
-  <si>
-    <t>cara membuat email pribadi dengan mudah</t>
-  </si>
-  <si>
-    <t>cara membuat website dan toko online, gratis</t>
-  </si>
-  <si>
-    <t>cara membuat website dan toko online, gratis simak tutorial cara membuat business plan dan contohnya mengenal fitur call forwarding yang berpotensi membuat penipuan [kasus maia estianty]</t>
-  </si>
-  <si>
-    <t>cara mendapatkan uang dari internet</t>
-  </si>
-  <si>
-    <t>cara paling mudah optimasi vps di  panel webuzo</t>
-  </si>
-  <si>
-    <t>cara pasang video youtube di wordpress</t>
-  </si>
-  <si>
-    <t>cloud hosting cpanel diskon 25% (selamanya) + gratis ssl + gratis domain + spesifikasi tinggi</t>
-  </si>
-  <si>
-    <t>cloud hosting plesk cloud hosting dengan dukungan panel plesk yang lengkap &amp; terbaik</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>colocation server layanan penyimpanan server untuk kebutuhan server di indonesia</t>
+    <t>bisnis tiket online punya potensi besar di indonesia</t>
+  </si>
+  <si>
+    <t>bisnis’s profile on instagram</t>
+  </si>
+  <si>
+    <t>bonus-bonus yang anda tawarkan</t>
+  </si>
+  <si>
+    <t>buka usaha tidak perlu berfikir terlalu banyak, yang penting kuasai 5 mindset ini!</t>
+  </si>
+  <si>
+    <t>buktikan sendiri! 17 cara cepat sukses promosi jualan di instagram</t>
+  </si>
+  <si>
+    <t>cara membaca quran ” dan “ cara menghafal quran ” adalah keyword yang cukup banyak pencariannya</t>
+  </si>
+  <si>
+    <t>cara membuat dan menjual produk digital pertama anda secara online</t>
+  </si>
+  <si>
+    <t>cara membuat web sendiri bagi pemula</t>
+  </si>
+  <si>
+    <t>cara memilih lokasi usaha yang tepat agar bisnis laris</t>
+  </si>
+  <si>
+    <t>cara menjadi selebgram beserta studi kasus super komplit</t>
+  </si>
+  <si>
+    <t>cara sukses di usia muda</t>
+  </si>
+  <si>
+    <t>cari uang tambahan supaya makin kaya raya!</t>
+  </si>
+  <si>
+    <t>co ini tergolong mahal di kalangan publisher</t>
   </si>
   <si>
     <t>com</t>
   </si>
   <si>
-    <t>com spesial akhir tahun rp69</t>
-  </si>
-  <si>
-    <t>com spesial akhir tahun rp79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com/partnership/ email </t>
-  </si>
-  <si>
-    <t>contact our international line +6221 2985 2800</t>
-  </si>
-  <si>
-    <t>contoh bisnis digital ini bisa anda coba sendiri</t>
-  </si>
-  <si>
-    <t>contoh bisnis digital yang bisa dicoba dengan hasil bagus</t>
-  </si>
-  <si>
-    <t>contoh bisnis digital yang bisa dicoba dengan hasil bagus | idcloudhost</t>
-  </si>
-  <si>
-    <t>contoh bisnis digital yang ketiga adalah bisnis layanan sponsor</t>
-  </si>
-  <si>
-    <t>contoh bisnis digital yang satu ini berupa jasa untuk mengajar tentang pembuatan suatu hal</t>
-  </si>
-  <si>
-    <t>contoh bisnis digital yang selanjutnya adalah bisnis agen penjualan dimana bisnis ini mencakup dropshiper, affiliate, dan juga menjadi seorang reseller</t>
-  </si>
-  <si>
-    <t>contoh bisnis digital yang selanjutnya adalah bisnis layanan profesional dimana ide bisnis yang satu ini berfokus pada bidang freelancer</t>
-  </si>
-  <si>
-    <t>copyright © 2020 idwebhost allright reserved</t>
-  </si>
-  <si>
-    <t>daftar domain daftar nama domain terlengkap dan termurah di indonesia</t>
-  </si>
-  <si>
-    <t>daftar setting smtp dan pop3 isp se-indonesia</t>
+    <t xml:space="preserve">com </t>
+  </si>
+  <si>
+    <t>com &amp; idaff</t>
+  </si>
+  <si>
+    <t>com seorang blogger sejak 2010 iseng-iseng yang mulai …</t>
+  </si>
+  <si>
+    <t>com september 10, 2018</t>
+  </si>
+  <si>
+    <t>combelum banyak yang berkecimpung di bisnis digital ini, terutama di indonesia ini yang pasarnya luas</t>
+  </si>
+  <si>
+    <t>comsekarang, kita mulai mengenal apa itu bisnis</t>
+  </si>
+  <si>
+    <t>comsetelah mengetahui beberapa pemahaman tentang produk</t>
+  </si>
+  <si>
+    <t>contoh</t>
+  </si>
+  <si>
+    <t>copyright © 2020 | wordpress theme by mh themes</t>
+  </si>
+  <si>
+    <t>daftarkan email anda untuk mendapatkan panduan marketing</t>
   </si>
   <si>
     <t>dan peluang bisnisnya masih terbuka lebar</t>
@@ -1388,181 +1529,196 @@
     <t>dapatkan beragam artikel tutorial, insight dan tips menarik seputar dunia online langsung melalui email anda</t>
   </si>
   <si>
-    <t>dapatkan jasa pembuatan website desa gratis di idwebhost</t>
-  </si>
-  <si>
-    <t>dapatkan panduan bisnis via email</t>
+    <t>dapatkan strategi marketing untuk meningkatkan traffic dan penjualan</t>
   </si>
   <si>
     <t>dec 10, 2019 18 min read</t>
   </si>
   <si>
-    <t>dedicated server layanan server yang cocok untuk kebutuhan perusahaan anda</t>
-  </si>
-  <si>
-    <t>dibandingkan dengan sistem transportasi konvensional, transportasi</t>
-  </si>
-  <si>
-    <t>dimanjakan oleh kemudahan berbelanja yang cepat dari mana saja</t>
-  </si>
-  <si>
-    <t>diperlukan strategi khusus bagi suatu</t>
-  </si>
-  <si>
-    <t>diskon 50% akhir pekan hosting 5gb</t>
-  </si>
-  <si>
-    <t>email google g-suite layanan email menggunakan domain anda dengan engine gmail google</t>
-  </si>
-  <si>
-    <t>email hosting zimbra layanan email menggunakan domain anda dengan zimbra email</t>
-  </si>
-  <si>
-    <t>fakta ini tentunya akan membuat orang semakin mengetahui mengenai keberadaan bisnis kita jika kita selalu muncul baik di</t>
-  </si>
-  <si>
-    <t>file core</t>
-  </si>
-  <si>
-    <t>find a branch near you</t>
-  </si>
-  <si>
-    <t>gutenberg teks editor plugin penulisan terbaru untuk wordpress previous</t>
-  </si>
-  <si>
-    <t>hal yang harus anda ketahui tentang web hosting</t>
-  </si>
-  <si>
-    <t>harbolnas 12</t>
-  </si>
-  <si>
-    <t>horseback riding</t>
-  </si>
-  <si>
-    <t>hubungi kami untuk berkonsultasi mengenai kebutuhan anda</t>
+    <t>dengan bentuk ebook+video atau kursus online</t>
+  </si>
+  <si>
+    <t>dengan membayar sejumlah uang, sebagai gantinnya</t>
+  </si>
+  <si>
+    <t>dengan satu harga! lebih murah daripada anda harus membelinya satu per satu</t>
+  </si>
+  <si>
+    <t>dengan semakin majunya gawai digital di pasaran, popularitas ebook semakin meningkat juga</t>
+  </si>
+  <si>
+    <t>di kelas tersebut</t>
+  </si>
+  <si>
+    <t>disini kami berbagi tentang strategi bisnis, bagaimana memulainya dan tips mengoptimasi internet dalam meningkatkan pemasaran produk bisnis anda</t>
+  </si>
+  <si>
+    <t>download gratis special report 5 kiat sukses untuk memulai bisnis online</t>
+  </si>
+  <si>
+    <t>ebook + video</t>
+  </si>
+  <si>
+    <t>email check failed, please try again</t>
+  </si>
+  <si>
+    <t>fotografi adalah salah satu produk digital yang sangat menghasilkan dijual online</t>
+  </si>
+  <si>
+    <t>gawai digital seperti komputer dan smartphone memerlukan software agar bisa berfungsi secara optimal</t>
+  </si>
+  <si>
+    <t>harus saya garap secara serius</t>
+  </si>
+  <si>
+    <t>hati-hati jangan sampai anda meniru produk yang kesannya mencurigakan</t>
+  </si>
+  <si>
+    <t>hei karyawan! 5 contoh usaha ini bisa kalian lakukan sambil bekerja</t>
   </si>
   <si>
     <t>ialah sosok di balik sukses</t>
   </si>
   <si>
-    <t>id naik</t>
-  </si>
-  <si>
-    <t>id turun harga lagi</t>
-  </si>
-  <si>
-    <t>idcloudhost (pt cloud hosting indonesia) adalah penyedia layanan web hosting provider berbasis ssd cloud hosting yang mempunyai tujuan untuk selalu menjaga website tetap hidup dan cepat di akses dari berbagai negara</t>
-  </si>
-  <si>
-    <t>idwebhost penyedia layanan hosting murah no 1 indonesia</t>
-  </si>
-  <si>
-    <t>infograph informasi tutorial partner fitur infograph informasi tutorial partner fitur infograph informasi</t>
-  </si>
-  <si>
-    <t>ingin mengembangkan wirausaha sosial? ketahui 5 strategi ini baca selengkapnya</t>
-  </si>
-  <si>
-    <t>ini 2 cara menghitung bunga pinjaman</t>
-  </si>
-  <si>
-    <t>ini cara orang sukses mengatur keuangan pribadi baca selengkapnya</t>
-  </si>
-  <si>
-    <t>inilah 5 cara baru inspiratif untuk menghasilkan uang tambahan</t>
-  </si>
-  <si>
-    <t>inilah beberapa contoh bisnis digital yang bisa anda coba mulai dari sekarang</t>
-  </si>
-  <si>
-    <t>inilah macam-macam os server yang perlu diketahui</t>
-  </si>
-  <si>
-    <t>jadi, apakah ada salah satu dari inspirasi bisinis digital di atas yang cukup menantang untuk dicoba?</t>
-  </si>
-  <si>
-    <t>jakarta * graha jogjacamp jl</t>
-  </si>
-  <si>
-    <t>jangan pernah membangun bisnis apapun tanpa menentukan sebuah tujuan yang akan dicapai</t>
+    <t>ide otentik untuk apa membuat produk yang sudah dibuat oleh orang lain? kemungkinan penggunanya tidak bisa maksimal</t>
+  </si>
+  <si>
+    <t>ide-ide bisnis digital menggunakan produk lisensi plr courtesy of pixabay</t>
+  </si>
+  <si>
+    <t>ide-ide bisnis digital yang cemerlang dalam memanfaatkan produk plr</t>
+  </si>
+  <si>
+    <t>ide-ide bisnis digital yang cemerlang dalam memanfaatkan produk plr untuk tingkatkan profit</t>
+  </si>
+  <si>
+    <t>ini</t>
+  </si>
+  <si>
+    <t>ini bukan tentang dimas kanjeng</t>
+  </si>
+  <si>
+    <t>ini dengan penawaran bonus-bonus  lainnya, atau</t>
+  </si>
+  <si>
+    <t>ini memang sudah sangat populer dan umum di luar negeri</t>
+  </si>
+  <si>
+    <t>inilah 11 daftar lengkap cara mendapatkan modal usaha</t>
+  </si>
+  <si>
+    <t>inilah beberapa bisnis online yang bisa anda lakukan dengan gratis</t>
+  </si>
+  <si>
+    <t>insightzilla dan digzilla punya nofi bayu darmawan</t>
+  </si>
+  <si>
+    <t>introduce yourself and your program</t>
+  </si>
+  <si>
+    <t>investasi jangka pendek yang aman dan profit</t>
+  </si>
+  <si>
+    <t>itu contohnya; ebook, video, audio, graphic, dll</t>
+  </si>
+  <si>
+    <t>jangan pula gunakan desain produk seperti ini</t>
+  </si>
+  <si>
+    <t>jasa seo yang saya kelola, hehe</t>
+  </si>
+  <si>
+    <t>jasa website &amp; social-media management</t>
+  </si>
+  <si>
+    <t>jenis-jenis produk digital yang potensial untuk para internet marketer</t>
   </si>
   <si>
     <t>jika anda pengguna instagram dengan jumlah follower yang cukup banyak, menjadi seorang influencer bisa jadi sebuah peluang yang menjanjikan</t>
   </si>
   <si>
-    <t>jika anda tertarik untuk memulai bisnis yang lebih kreatif lagi, mungkin digital media bisa menjadi jawabannya</t>
-  </si>
-  <si>
-    <t>jika anda tidak dapat melakukannya sendiri</t>
-  </si>
-  <si>
-    <t>kantor jakarta jl</t>
-  </si>
-  <si>
-    <t>kapan waktu yang tepat untuk pindah dari shared hosting ke dedicated server next</t>
-  </si>
-  <si>
-    <t>kegunaan halaman landing page untuk jualan online</t>
-  </si>
-  <si>
-    <t>kegunaan ssl pada instalasi wordpress di layanan wordpress hosting</t>
-  </si>
-  <si>
-    <t>keuntungan beli paket awesome idwebhost di bukalapak</t>
-  </si>
-  <si>
-    <t>keuntungan dan kerugian menggunakan free domain</t>
-  </si>
-  <si>
-    <t>kirimkan tiket butuh bantuan ? submit ticket anda dengan proses cepat dan mudah</t>
-  </si>
-  <si>
-    <t>koinworks merupakan pionir fintech lending indonesia yang menghubungkan pendana dengan peminjam di sebuah platform berbasis internet dengan teknologi machine-learning yang inovatif, menggunakan sistem peer to peer lending</t>
-  </si>
-  <si>
-    <t>kunci kesuksesan dari bisnis digital transportasi</t>
-  </si>
-  <si>
-    <t>lalu kemudian anda juga dapat berinvestasi untuk membuat iklan di google menggunakan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">layanan email dan cloud storage dari microsoft (status </t>
+    <t>jika anda seorang akademisi yang rajin melakukan penelitian, anda bisa memasarkan hasil penelitian anda ke khalayak ramai</t>
+  </si>
+  <si>
+    <t>jual produk digital, cara cepat melipat-gandakan uang</t>
+  </si>
+  <si>
+    <t>kami menggunakan cookies untuk memastikan kami memberikan pengalaman terbaik</t>
+  </si>
+  <si>
+    <t>kamu mendapat gelar hafidz quran dengan status mutqin di usia 15 tahun, maka kamu bisa bikin video tentang cara mudah menghapal al quran</t>
+  </si>
+  <si>
+    <t>karena anda tadi sudah punya “permasalahan utama dari target pasar”, sekarang buatlah daftar kurikulum anda</t>
+  </si>
+  <si>
+    <t>kemampuan/skill yang akan diubah menjadi produk</t>
+  </si>
+  <si>
+    <t>keren! ini 7 ide resep kreatif makanan unik untuk dijual</t>
+  </si>
+  <si>
+    <t>ketiganya inilah yang akan anda tentukan sekarang</t>
+  </si>
+  <si>
+    <t>keuntungan memasang iklan di facebook</t>
+  </si>
+  <si>
+    <t>klik untuk berbagi pada twitter(membuka di jendela yang baru)</t>
+  </si>
+  <si>
+    <t>klik untuk membagikan di facebook(membuka di jendela yang baru)</t>
+  </si>
+  <si>
+    <t>komisi = 660</t>
+  </si>
+  <si>
+    <t>komisi = rp3</t>
+  </si>
+  <si>
+    <t>komplit! koleksi efek suara &amp; backsound untuk video promosi anda</t>
+  </si>
+  <si>
+    <t>kumpulan studi kasus dalam bidang tertentu</t>
+  </si>
+  <si>
+    <t>kupas tuntas cara saya menaklukkan banyak keyword besar</t>
+  </si>
+  <si>
+    <t>kursus online</t>
+  </si>
+  <si>
+    <t>kursus online yang lebih lengkap</t>
+  </si>
+  <si>
+    <t>laku di pasaran</t>
+  </si>
+  <si>
+    <t>lanjutkan dua kalimat positioning di atas terhadap produk anda</t>
+  </si>
+  <si>
+    <t>latest posts by plaza bisnis</t>
   </si>
   <si>
     <t>leave a reply cancel reply</t>
   </si>
   <si>
-    <t>leave this field empty if you're human</t>
-  </si>
-  <si>
-    <t>lebih disukai konsumen karena kemudahannya</t>
-  </si>
-  <si>
-    <t>lisensi dapatkan layanan lisensi termurah dan terjangkau untuk kebutuhan anda</t>
-  </si>
-  <si>
-    <t>lupakan soal kakunya editorial, ada banyak kreativitas yang bisa anda bagi melalui bisnis digital ini</t>
-  </si>
-  <si>
-    <t>maka dari itu, sangat penting untuk memahami dan mampu belajar lebih dalam mengenai seo</t>
-  </si>
-  <si>
-    <t>manage server service silakan mengirimkan penawaran terkait layanan manage server service</t>
-  </si>
-  <si>
-    <t>maupun aplikasi online yang digunakan saat 10, atau bahkan 5 tahun yang lalu pastinya sudah sangat jauh berbeda dengan apa yang digunakan saat ini</t>
-  </si>
-  <si>
-    <t>melalui digitalisasi bisnis pada masa sekarang cenderung akan menciptakan proses bisnis yang lebih efisien dengan cakupan yang lebih luas</t>
-  </si>
-  <si>
-    <t>melalui sosial media</t>
-  </si>
-  <si>
-    <t>melihat penggunaan resource di wordpress hosting</t>
-  </si>
-  <si>
-    <t>memang tak bisa dipungkiri, bisnis digital yang satu ini dinilai solutif dalam membantu masyarakat untuk mengarungi kemacetan kota-kota besar indonesia saat ini</t>
+    <t>lihat paket bundling produk digital lisensi plr disini sekarang juga!</t>
+  </si>
+  <si>
+    <t>lisensi plr, anda bisa lakukan bundling produk tersebut dan jual kepada orang lain yang berminat</t>
+  </si>
+  <si>
+    <t>manajemen waktu di bisnis online</t>
+  </si>
+  <si>
+    <t>mari kita bahas satu per satu</t>
+  </si>
+  <si>
+    <t>marketing (psd &amp; ppt) design, dll</t>
+  </si>
+  <si>
+    <t>masukin email kamu, biar tetep up to date</t>
   </si>
   <si>
     <t>membangun bisnis di era digital memiliki tantangan tersendiri</t>
@@ -1571,366 +1727,324 @@
     <t>membangun toko online anda sendiri adalah pilihan bijaksana</t>
   </si>
   <si>
+    <t>memberikan kemudahan bagi siapapun yang ingin memulai bisnis online</t>
+  </si>
+  <si>
+    <t>membuat kelas belajar (webinar) premium</t>
+  </si>
+  <si>
     <t>membuat toko online anda sendiri itu mudah</t>
   </si>
   <si>
     <t>menawarkan kesempatan yang serupa</t>
   </si>
   <si>
-    <t>mengaktifkan opsi smtp authentication di microsoft outlook</t>
-  </si>
-  <si>
-    <t>mengaktifkan waralaba (afiliasi) dari member area idwebhost</t>
-  </si>
-  <si>
-    <t>mengatasi memory limit melalui php selector</t>
-  </si>
-  <si>
-    <t>mengenal fitur call forwarding yang berpotensi membuat penipuan [kasus maia estianty]</t>
-  </si>
-  <si>
-    <t>mengenal google developer kejar dan cara mendaftar ikutan</t>
-  </si>
-  <si>
-    <t>mengenal lebih dalam fitur facebook marketplace</t>
-  </si>
-  <si>
-    <t>mengenal perbedaan kpi dan okr untuk tujuan bisnis</t>
-  </si>
-  <si>
-    <t>mengenal sekilas jenis-jenis flowchart pada pemrograman website dan aplikasi</t>
-  </si>
-  <si>
-    <t>nah contoh bisnis digital pertama yang bisa anda coba adalah dengan menyediakan layanan bisnis iklan banner atau yang bisa disebut dengan display ads</t>
-  </si>
-  <si>
-    <t>nah contoh bisnis digital yang kedua adalah dengan melakukan bisnis penulis artikel, dimana tugas anda hanyalah membuat artikel sebanyak banyaknya</t>
-  </si>
-  <si>
-    <t>namun yang perlu diingat, tentunya proses digitalisasi bisnis adalah sebuah proses yang perlu kesabaran dan konsistensi sehingga diperlukan proses membangun dan usaha yang lebih saat diawal</t>
+    <t>mengenal istilah internet marketing dari basic</t>
+  </si>
+  <si>
+    <t>mengenal strategi blue ocean dan red ocean</t>
+  </si>
+  <si>
+    <t>minggu i – pendahuluan dan konsep seo</t>
+  </si>
+  <si>
+    <t>minggu ii – on page seo, riset kata kunci, dan pembuatan konten</t>
+  </si>
+  <si>
+    <t>minggu iii – off page seo dan backlink</t>
+  </si>
+  <si>
+    <t>minggu iv – melakukan audit analisa data</t>
+  </si>
+  <si>
+    <t>misalnya saya menjual ebook cara menurunkan berat badan, kalau saya jual di luar negeri mungkin bisa seharga $47 (rp 470</t>
+  </si>
+  <si>
+    <t>negara (daya beli dari masyarakatnya)</t>
+  </si>
+  <si>
+    <t>next anda ibu rumahan yang ingin menghasilkan? simak 7 usaha sampingan ibu rumah tangga berikut ini!</t>
   </si>
   <si>
     <t>nov 6, 2019 59 sec read</t>
   </si>
   <si>
+    <t>omzetnya adalah rp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orang banyak ini bisa anda pakai </t>
+  </si>
+  <si>
     <t>panduan cara daftar google news dengan mudah »</t>
   </si>
   <si>
-    <t>panduan install wordpress di plesk panel</t>
-  </si>
-  <si>
-    <t>panduan menggunakan cpanel untuk pemula</t>
-  </si>
-  <si>
-    <t>panduan panduan lengkap seputar web hosting untuk kebutuhan anda</t>
-  </si>
-  <si>
-    <t>pastikan konten yang dibuat terkait dengan target pasar yang ingin dituju</t>
-  </si>
-  <si>
-    <t>pembayaran informasi mengenai pembayaran dan konfirmasi pembayaran layanan</t>
-  </si>
-  <si>
-    <t>pengertian dasar domain &amp; hosting</t>
-  </si>
-  <si>
-    <t>pengertian space hosting dan bandwith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">penting! mulai 1 januari 2020 harga domain </t>
-  </si>
-  <si>
-    <t>perlu anda ketahui sebelumnya bahwa negara kita indonesia ini merupakan negara dengan pengguna internet yang paling besar di dunia</t>
-  </si>
-  <si>
-    <t>persyaratan dokumen yang dikirim jika anda membeli domain indonesia</t>
-  </si>
-  <si>
-    <t>perusahaan adalah wajah dari sebuah perusahaan</t>
+    <t>panduan im © 2020</t>
+  </si>
+  <si>
+    <t>panduan kerja online dan 17 situs lowongan freelance</t>
+  </si>
+  <si>
+    <t>peluang bisnis baru yang lagi nge-hits itu bernama youtube reviewer!</t>
+  </si>
+  <si>
+    <t>peluang usaha dengan modal kecil</t>
+  </si>
+  <si>
+    <t>pentingnya ‘split-test’ untuk hasil kampanye marketing yang terbaik</t>
   </si>
   <si>
     <t>please enter an answer in digits</t>
   </si>
   <si>
-    <t>please enter your email address here</t>
-  </si>
-  <si>
-    <t>please enter your name here</t>
-  </si>
-  <si>
-    <t>private whm server layanan vps manage untuk kebutuhan server website dan aplikasi anda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promo </t>
-  </si>
-  <si>
-    <t>promo akhir pekan hosting 5gb diskon 50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promo! domain </t>
-  </si>
-  <si>
-    <t>pt cloud hosting indonesia jl</t>
-  </si>
-  <si>
-    <t>related article / tips keren</t>
-  </si>
-  <si>
-    <t>reseller domain bergabung bersama kami mewujudkan bisnis jualan domain anda</t>
-  </si>
-  <si>
-    <t>reseller hosting (cpanel) bangun bisnis web hosting anda dengan brand anda (white label)</t>
-  </si>
-  <si>
-    <t>reseller hosting dengan panel plesk pertama dan terlengkap di indonesia</t>
-  </si>
-  <si>
-    <t>rumus perhitungan berbagai jenis bunga pinjaman</t>
-  </si>
-  <si>
-    <t>saat ini dinilai dari cara bekerjanya yang hanya satu tindakan per layar dengan sedikit pilihan</t>
-  </si>
-  <si>
-    <t>sangat mudah bukan untuk membuat sebuah</t>
-  </si>
-  <si>
-    <t>search by tags show all</t>
+    <t>post was not sent - check your email addresses!</t>
+  </si>
+  <si>
+    <t>previous besarnya peluang usaha makanan ‘kekinian’ yang trend diantara anak muda</t>
+  </si>
+  <si>
+    <t>produk ? mengapa bukan jasa atau layanan? tergantung memang… tapi sejak maraknya jual-beli online, ada yang membuat produk lebih unggul daripada jasa</t>
+  </si>
+  <si>
+    <t>produk digital (ebook &amp; software)</t>
+  </si>
+  <si>
+    <t>produk plr tersebut</t>
+  </si>
+  <si>
+    <t>proses bisnis digital cukup melibatkan medium teknologi seperti</t>
+  </si>
+  <si>
+    <t>raafi author at plaza-bisnis</t>
+  </si>
+  <si>
+    <t>rekomendasi internet marketing tools untuk meningkatkan pemasaran anda</t>
+  </si>
+  <si>
+    <t>rp440</t>
+  </si>
+  <si>
+    <t>rp500</t>
+  </si>
+  <si>
+    <t>saya adalah seorang ibu karir yang baru melahirkan sehingga tidak punya banyak waktu untuk berolahraga</t>
+  </si>
+  <si>
+    <t>saya punya ide untuk buat produk digital, sebuah ebook sederhana tentang hidup sehat dengan merubah kebiasaan</t>
+  </si>
+  <si>
+    <t>saya tidak bisa memberikan penjelasan a b c d mengenai desain seperti apa yang profesional dan yang tidak profesional</t>
   </si>
   <si>
     <t>search engine optimization (seo) email bisnis online content marketing media sosial</t>
   </si>
   <si>
-    <t>sekarang setelah memiliki situs sendiri, maka langkah selanjutnya adalah menyebarkannya</t>
-  </si>
-  <si>
-    <t>selain mencari inspirasi untuk memulai bisnis digital, ada baiknya bagi anda memilih cara yang tepat untuk mengembangkan dana dalam berbisnis</t>
-  </si>
-  <si>
-    <t>selamat datang! masuk ke akun anda</t>
-  </si>
-  <si>
-    <t>selamat natal dan tahun baru 2020</t>
-  </si>
-  <si>
-    <t>semarang * jogjacamp semarang jl</t>
-  </si>
-  <si>
-    <t>semua tahu, bisnis digital beberapa tahun belakangan ini telah menjadi sebuah tren usaha yang cukup menggiurkan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semua yang anda butuhkan bisa ditemukan di sini </t>
-  </si>
-  <si>
-    <t>semua yang telah dilakukan untuk membuat bisnis menjadi lebih</t>
-  </si>
-  <si>
-    <t>seorang yang tak pandai dalam berkata cuma bisa menuangkannya lewat tulisan saja</t>
+    <t>sebagai jasa penulis konten yang dikelola anggi krisna dan ari maulana</t>
+  </si>
+  <si>
+    <t>secara fisik ngga bisa disentuh, tapi secara manfaat bisa dilihat dan dirasakan</t>
+  </si>
+  <si>
+    <t>sekarang gunakan kalimat tersebut untuk menawarkan produk anda</t>
+  </si>
+  <si>
+    <t>selamat! anda telah menyelesaikan seri panduan memulai bisnis online</t>
+  </si>
+  <si>
+    <t>semua penjualan adalah melalui affiliate marketer</t>
+  </si>
+  <si>
+    <t>seo</t>
   </si>
   <si>
     <t>sep 18, 2019 4 min read</t>
   </si>
   <si>
-    <t>serba serbi , startup &amp; bisnis</t>
-  </si>
-  <si>
-    <t>serba serbi , startup &amp; bisnis /</t>
-  </si>
-  <si>
-    <t>sertifikat ssl layanan keamanan untuk melindungi server anda dari serangan cyber</t>
-  </si>
-  <si>
-    <t>sesederhana mungkin, sebaiknya menggunakan nama merek sebagai alamat</t>
-  </si>
-  <si>
-    <t>sesuai dengan target market yang dituju</t>
+    <t>sepertinya biaya produksi tidak sampai rp50</t>
   </si>
   <si>
     <t>sesuai jenis bisnis anda</t>
   </si>
   <si>
-    <t>setting &amp;amp; upload database mysql di cpanel theme x3</t>
-  </si>
-  <si>
-    <t>setting name server dari member area idwebhost</t>
-  </si>
-  <si>
-    <t>setup/install joomla dengan upload manual</t>
-  </si>
-  <si>
-    <t>siap-siap, ini 8 tren produk populer di tahun 2019</t>
+    <t>setelah mengikuti langkah-langkah yang ada di dalamnya berat badan saya langsung berkurang 20kg dalam sebulan</t>
+  </si>
+  <si>
+    <t>si penjual</t>
   </si>
   <si>
     <t>siapa saja bisa terjun di bisnis digital</t>
   </si>
   <si>
-    <t>simak tutorial cara membuat business plan dan contohnya</t>
-  </si>
-  <si>
-    <t>simpan data nama dan email saya di browser ini bila nanti saya berkomentar lagi</t>
-  </si>
-  <si>
-    <t>situs website anda mengejar tren atau konversi? cari tahu jawabannya!</t>
-  </si>
-  <si>
-    <t>sosial media, yang dapat dengan mudah untuk dimunculkan melalui iklan berbayar di sosial media</t>
-  </si>
-  <si>
-    <t>subscribe here to get update</t>
-  </si>
-  <si>
-    <t>sudah bukan rahasia lagi, untuk menjangkau</t>
-  </si>
-  <si>
-    <t>sudah tidak zamannya lagi belanja yang menghabiskan banyak waktu</t>
+    <t>siapa sangka ternyata resep masakan yang diturunkan dari nenek anda bisa dijadikan sebagai penghasilan tambahan untuk anda</t>
+  </si>
+  <si>
+    <t>singkat-menarik yang ditulis di channel telegram , tapi ngga ada di blog ini karena emang khusus buat catatan-catatan yang singkat-padat-jelas</t>
+  </si>
+  <si>
+    <t>solusi yang anda tawarkan untuk menyelesaikan masalah tersebut</t>
+  </si>
+  <si>
+    <t>sorry, your blog cannot share posts by email</t>
+  </si>
+  <si>
+    <t>strategi pemasaran produk menggunakan personal branding</t>
+  </si>
+  <si>
+    <t>sukses memanfaatkan live streaming untuk digital marketing</t>
   </si>
   <si>
     <t>suryadi kurniawan follow suryadi is a digital content writer at niagahoster</t>
   </si>
   <si>
-    <t>syarat pengajuan pinjaman di koinworks</t>
-  </si>
-  <si>
-    <t>tanya jawab tanya jawab seputar layanan idcloudhost secara lengkap</t>
-  </si>
-  <si>
-    <t>telah tepat dan mendapat respond yang positif dari target pasar yang dituju? apakah iklan yang telah dibuat berjalan dengan efektif?</t>
-  </si>
-  <si>
-    <t>tentu dapat dipesan dengan satu sentuhan pada aplikasi</t>
-  </si>
-  <si>
-    <t>tentunya akan sangat menguntungkan jika sebuah bisnis selalu menjadi yang pertama muncul di daftar google saat seseorang mencari</t>
-  </si>
-  <si>
-    <t>terkait dengan hal ini, maka membuat sebuah bisnis untuk menjadi lebih digital adalah sebuah keharusan</t>
-  </si>
-  <si>
-    <t>terlebih dahulu</t>
-  </si>
-  <si>
-    <t>terletak pada kemudahan konsumen</t>
-  </si>
-  <si>
-    <t>tersebut akan diisi dengan konten-konten yang sesuai</t>
-  </si>
-  <si>
-    <t>tertentu yang berhubungan dengan apa yang anda jual</t>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>tanpa anda harus repot-repot aktivasi</t>
+  </si>
+  <si>
+    <t>target pasar, tempat mereka berkumpul, dan permasalahan terbesar mereka</t>
+  </si>
+  <si>
+    <t>temukan beberapa contoh halaman penjualan produk digital yang bagus</t>
+  </si>
+  <si>
+    <t>tentukan packaging produk digital anda, dan susun isinya</t>
+  </si>
+  <si>
+    <t>the graph dan virol punya yudhis adi nugroho</t>
   </si>
   <si>
     <t>this site uses akismet to reduce spam</t>
   </si>
   <si>
-    <t>tips kenalkan bisnismu dengan google my business</t>
-  </si>
-  <si>
-    <t>tips memilih penyedia web hosting yang tepat</t>
+    <t>tiap minggu atau bulannya</t>
+  </si>
+  <si>
+    <t>tim solid kerjasama yang bagus ini harus ada ketika masuk pada tahap awal produksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tips bisnis online hanya di sini </t>
+  </si>
+  <si>
+    <t>tiru caranya, buat halaman penjualan, dan mulailah berjualan!</t>
   </si>
   <si>
     <t>toko online anda akan tampil beda</t>
   </si>
   <si>
-    <t>transfer domain pemindahan gratis untuk anda yang ingin berlangganan di idcloudhost</t>
-  </si>
-  <si>
-    <t>transportasi online, bepergian jadi lebih mudah  </t>
-  </si>
-  <si>
-    <t>untuk memasarkan produk agar selalu teringat dalam benak konsumen, salah satunya dengan</t>
-  </si>
-  <si>
-    <t>untuk memilih barang agar tidak menyulitkan pengguna dengan mengomptimalkan fungsi aplikasi yang lebih fleksibel untuk digunakan</t>
-  </si>
-  <si>
-    <t>untuk memulai bisnis digital ini, anda bisa mentukan jenis</t>
-  </si>
-  <si>
-    <t>untuk memulainya, anda bisa mempelajari konsep</t>
-  </si>
-  <si>
-    <t>upload file menggunakan filezilla v 3</t>
-  </si>
-  <si>
-    <t>upload file pada file manager cpanel (theme x3)</t>
-  </si>
-  <si>
-    <t>vps server vps dengan datacenter di indonesia</t>
+    <t>topiknya (semakin mendalam semakin tinggi)</t>
+  </si>
+  <si>
+    <t>tren web design 2019 untuk menunjang pemasaran online</t>
+  </si>
+  <si>
+    <t>trend berubah? ini dia inspirasi bisnis 2017 yang berpotensi tinggi!</t>
+  </si>
+  <si>
+    <t>trik desain iklan facebook yang menarik agar menghasilkan konversi</t>
+  </si>
+  <si>
+    <t>trik whatsapp sehari-hari untuk meningkatkan penjualan produk anda</t>
+  </si>
+  <si>
+    <t>tugas anda sebelum mengakhiri seri panduan bisnis online ini, berikut adalah tugas terakhir anda</t>
+  </si>
+  <si>
+    <t>ubah solusi dari permasalahan yang anda pilih sebelumnya menjadi topik produk</t>
+  </si>
+  <si>
+    <t>unik! ini jenis-jenis usaha yang bisa anda lakukan di era digital</t>
+  </si>
+  <si>
+    <t>untuk pc</t>
+  </si>
+  <si>
+    <t>video belajar bahasa (inggris, arab, dll)</t>
+  </si>
+  <si>
+    <t>video dua kodi kartika punya rendy saputra</t>
+  </si>
+  <si>
+    <t>view +plazabisnis’s profile on google+</t>
+  </si>
+  <si>
+    <t>view plaza</t>
+  </si>
+  <si>
+    <t>view plaza_bisnis’s profile on twitter</t>
+  </si>
+  <si>
+    <t>view plazabisnis’s profile on facebook</t>
+  </si>
+  <si>
+    <t>view plazabisnis’s profile on youtube</t>
+  </si>
+  <si>
+    <t>walaupun ini produk pertama anda, jangan puas dengan produk seharga $5 – $20 (rp 50ribu – 200ribu)</t>
   </si>
   <si>
     <t>web hosting gratis domain mulai dari</t>
   </si>
   <si>
-    <t>web hosting memiliki dampak besar terhadap seo</t>
-  </si>
-  <si>
     <t>wordpress website &amp; blog hosting &amp; domain vps</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>yang dibuat, baik dinilai dari segi pengunjung, pengikut, maupun</t>
-  </si>
-  <si>
-    <t>yang dituju dan anda juga memiliki kemampuan untuk mengelola akun ini</t>
-  </si>
-  <si>
-    <t>yang juga dapat digunakan secara gratis maupun berbayar, seperti</t>
+    <t>yaitu memaksimalkan strategi affiliate marketing</t>
+  </si>
+  <si>
+    <t>yang ada</t>
+  </si>
+  <si>
+    <t>yang dilakukan oleh kelompok anak muda berskala ukm atau bahkan personal</t>
+  </si>
+  <si>
+    <t>yang mana dua hal itu merupakan tahapan yang sangat krusial dalam bisnis konvensional (non-digital)</t>
+  </si>
+  <si>
+    <t>yang melek teknologi</t>
   </si>
   <si>
     <t>yang memudahkan pembuatan website bahkan bagi pemula sekalipun</t>
   </si>
   <si>
-    <t>yang profesional, kemudian dibutuhkan konten yang jelas dan bermanfaat untuk ditampilkan pada</t>
-  </si>
-  <si>
-    <t>yang terdapat pada akun bisnis? untuk melakukan analisa, ada beberapa</t>
-  </si>
-  <si>
-    <t>yogyakarta jl</t>
-  </si>
-  <si>
-    <t>you have entered an incorrect email address!</t>
+    <t>yang mereka tawarkan, jadi bukan</t>
+  </si>
+  <si>
+    <t>yang sudah harus anda persiapkan</t>
+  </si>
+  <si>
+    <t>yang terjadi di dalam sebuah komunitas masyarakat</t>
+  </si>
+  <si>
+    <t>yang terkenal karena bisa perbanyak uang melalui rapalan aji-mumpung</t>
   </si>
   <si>
     <t>your email address will not be published</t>
   </si>
   <si>
+    <t>your information will *never* be shared or sold to a 3rd party</t>
+  </si>
+  <si>
     <t> </t>
   </si>
   <si>
-    <t>  (021) 40000995     layanan 24 jam call center kami selalu siap sedia membantu anda</t>
-  </si>
-  <si>
     <t>  1</t>
   </si>
   <si>
     <t>  3</t>
   </si>
   <si>
-    <t>  3 tahapan sebelum melakukan ekspansi bisnis</t>
-  </si>
-  <si>
     <t>  4</t>
   </si>
   <si>
-    <t>  5 alasan kenapa bisnis anda membutuhkan pinjaman modal usaha</t>
-  </si>
-  <si>
-    <t>  5 kesalahan bisnis yang harus dihindari para pebisnis ukm</t>
+    <t>  5 bisnis online terpercaya bagi anda pemula, serta strategi agar untung besar!</t>
   </si>
   <si>
     <t>  6</t>
   </si>
   <si>
-    <t>  6 ide bisnis di tahun 2017 yang bisa diaplikasikan di pasar online</t>
-  </si>
-  <si>
     <t>  9</t>
   </si>
   <si>
-    <t>  agar arus kas bisnis tidak terganggu, berikut 5 tips mengelola arus kas bisnis anda</t>
-  </si>
-  <si>
     <t>  anda bisa memanfaatkan berbagai platform untuk para pekerja lepas (</t>
   </si>
   <si>
@@ -1940,9 +2054,6 @@
     <t>  bagi anda yang memiliki keahlian mengajar, bisnis digital ini layak anda coba</t>
   </si>
   <si>
-    <t>  bagi pemilik bisnis online, 5 tips ini bisa meningkatkan penjualan</t>
-  </si>
-  <si>
     <t>  bagi sebuah website, terutama yang bertujuan bisnis, peran seo sangatlah penting</t>
   </si>
   <si>
@@ -1958,9 +2069,6 @@
     <t xml:space="preserve">  berbagai platform menawarkan peluang untuk mendapatkan penghasilan dengan mengajar online seperti udemy atau ruangguru </t>
   </si>
   <si>
-    <t>  butuh modal usaha untuk bisnis online? coba ajukan melalui platform p2p lending</t>
-  </si>
-  <si>
     <t>  caranya, anda bisa membangun sebuah website yang didukung dengan sistem pembelajaran terintegrasi atau yang lebih dikenal dengan lms (learning management system)</t>
   </si>
   <si>
@@ -1991,9 +2099,6 @@
     <t>  keuntungan bisnis dropship berasal dari selisih uang yang anda terima dari pembeli dengan jumlah uang yang anda bayarkan kepada produsen barang</t>
   </si>
   <si>
-    <t>  keuntungan menjadikan bisnis online</t>
-  </si>
-  <si>
     <t>  lalu, apa saja bisnis era digital yang menjanjikan di tahun 2019 ini? pilihannya banyak sekali, namun anda tidak perlu melakukan riset sendiri</t>
   </si>
   <si>
@@ -2021,15 +2126,9 @@
     <t>  pada prakteknya, banyak sekali contoh bisnis digital yang terbukti mampu menghasilkan omset yang menggiurkan</t>
   </si>
   <si>
-    <t>  persiapan dan strategi meningkatkan penjualan bisnis online menjelang ramadhan dan lebaran</t>
-  </si>
-  <si>
     <t>  produk bisnis digital bisa berupa barang ataupun jasa</t>
   </si>
   <si>
-    <t>  proses pengajuan pinjaman dan tips agar pinjaman bisnis anda di koinworks disetujui</t>
-  </si>
-  <si>
     <t>  saat ini kebutuhan akan website semakin meningkat, baik untuk instansi pemerintah, perusahaan, maupun individu</t>
   </si>
   <si>
@@ -2066,40 +2165,10 @@
     <t>  walaupun banyak cara untuk dapat membuat website dengan mudah, untuk kustomisasi yang lebih rumit, diperlukan keahlian pemrograman tingkat lanjut yang hanya dimiliki oleh seorang web developer</t>
   </si>
   <si>
-    <t xml:space="preserve"> berikut 12 peluang usaha di digital tahun 2018 </t>
-  </si>
-  <si>
-    <t> hal ini mempunyai tujuan agar sponsor atau iklan yang digunakan menjadi lebih efektif dan bisa menjangkau pembeli atau konsumen dengan lebih luas</t>
-  </si>
-  <si>
-    <t> iklan banner ini biasanya akan berguna untuk melakukan promosi suatu perusahaan, produk, atau jasa tertentu di dalam suatu website</t>
-  </si>
-  <si>
-    <t> kata profesional yang dimaksudkan di sini adalah bisa saja mencakup fotografi, pembuatan suatu film, atau bisa juga website, bahkan pembuatan suatu software</t>
-  </si>
-  <si>
-    <t> nah di bawah ini akan di bahas mengenai beberapa contoh bisnis digital yang sekiranya bisa anda jalankan dengan menggunakan media blog dan yang pasti bisnis ini akan menjanjikan</t>
-  </si>
-  <si>
-    <t> nah di sini, jika ingin terjun ke dalam bisnis menjual produk pribadi ini tentu harus mempunyai produk sendiri, yang mana nantinya bisa anda jual di platform internet dan bisa menghasilkan income untuk sendiri</t>
-  </si>
-  <si>
-    <t> namun kebutuhan atas artikel ini semakin hari akan semakin meningkat jumlahnya</t>
-  </si>
-  <si>
-    <t> pada saat berkecimpung di dalam dunia bisnis agen penjualan ini maka harus bisa dalam memasarkan suatu produk dari brand atau merek yang dimiliki oleh orang lain</t>
-  </si>
-  <si>
-    <t> perlu anda ketahui bahwa di dalam dunia bisnis online ini kedudukan artikel sangatlah penting, yang mana akan digunakan sebagai sarana untuk melakukan promosi atau melakukan review dari suatu produk tertentu</t>
-  </si>
-  <si>
-    <t> potensi bisnis digital 3</t>
-  </si>
-  <si>
-    <t> sesuai dengan namanya jika berminat untuk terjun langsung untuk menjalankan bisnis ini maka tugas utamanya adalah dengan membuat suatu display ads atau sebuah iklan banner</t>
-  </si>
-  <si>
-    <t> youtube anda</t>
+    <t> sejak 2010 iseng-iseng yang mulai memfokuskan dirinya ke bidang </t>
+  </si>
+  <si>
+    <t> tapi jangan pula membuat produk yang terlalu mahal untuk pertama kali</t>
   </si>
   <si>
     <t>   11</t>
@@ -2114,16 +2183,31 @@
     <t>    2</t>
   </si>
   <si>
-    <t>© copyright 2019 • koinworks blog</t>
-  </si>
-  <si>
-    <t>©2015 dbs bank ltd |</t>
+    <t>© sejak 2010 | kolom khusus belajar bisnis online</t>
   </si>
   <si>
     <t>« curl command</t>
   </si>
   <si>
-    <t>– pada zaman sekarang ini teknologi semakin berkembang pesat dari waktu ke waktu</t>
+    <t>‘ produk tersebut</t>
+  </si>
+  <si>
+    <t>‘ terutama untuk anak-anak muda</t>
+  </si>
+  <si>
+    <t>‘, salah satu yang mencolok adalah beberapa ide bisnis</t>
+  </si>
+  <si>
+    <t>“ini produk yang tepat untuk saya karena</t>
+  </si>
+  <si>
+    <t>“ini produk yang tepat untuk saya karena _____”</t>
+  </si>
+  <si>
+    <t>“tidak rugi saya membeli produk ini karena</t>
+  </si>
+  <si>
+    <t>“tidak rugi saya membeli produk ini karena _____”</t>
   </si>
 </sst>
 </file>
@@ -2261,10 +2345,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -2272,10 +2356,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -2283,10 +2367,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -2305,10 +2389,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -2316,10 +2400,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -2360,10 +2444,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -2382,10 +2466,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -2404,10 +2488,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -2415,10 +2499,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -2726,7 +2810,7 @@
         <v>1.0</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -3518,7 +3602,7 @@
         <v>1.0</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="122">
@@ -3584,7 +3668,7 @@
         <v>1.0</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="128">
@@ -4167,7 +4251,7 @@
         <v>1.0</v>
       </c>
       <c r="C180" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="181">
@@ -4442,7 +4526,7 @@
         <v>1.0</v>
       </c>
       <c r="C205" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="206">
@@ -4453,7 +4537,7 @@
         <v>1.0</v>
       </c>
       <c r="C206" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="207">
@@ -4585,7 +4669,7 @@
         <v>1.0</v>
       </c>
       <c r="C218" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="219">
@@ -4596,7 +4680,7 @@
         <v>1.0</v>
       </c>
       <c r="C219" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="220">
@@ -5220,10 +5304,10 @@
         <v>277</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C276" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="277">
@@ -6015,7 +6099,7 @@
         <v>1.0</v>
       </c>
       <c r="C348" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="349">
@@ -6026,7 +6110,7 @@
         <v>1.0</v>
       </c>
       <c r="C349" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="350">
@@ -6166,10 +6250,10 @@
         <v>363</v>
       </c>
       <c r="B362" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C362" s="2" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="363">
@@ -6191,7 +6275,7 @@
         <v>1.0</v>
       </c>
       <c r="C364" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="365">
@@ -6202,7 +6286,7 @@
         <v>1.0</v>
       </c>
       <c r="C365" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="366">
@@ -6221,10 +6305,10 @@
         <v>368</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C367" s="2" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="368">
@@ -6235,7 +6319,7 @@
         <v>1.0</v>
       </c>
       <c r="C368" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="369">
@@ -6265,10 +6349,10 @@
         <v>372</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C371" s="2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="372">
@@ -6279,7 +6363,7 @@
         <v>1.0</v>
       </c>
       <c r="C372" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="373">
@@ -6353,10 +6437,10 @@
         <v>380</v>
       </c>
       <c r="B379" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C379" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="380">
@@ -6367,7 +6451,7 @@
         <v>1.0</v>
       </c>
       <c r="C380" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="381">
@@ -6389,7 +6473,7 @@
         <v>1.0</v>
       </c>
       <c r="C382" s="2" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="383">
@@ -6477,7 +6561,7 @@
         <v>1.0</v>
       </c>
       <c r="C390" s="2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="391">
@@ -6576,7 +6660,7 @@
         <v>1.0</v>
       </c>
       <c r="C399" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="400">
@@ -6675,7 +6759,7 @@
         <v>1.0</v>
       </c>
       <c r="C408" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="409">
@@ -6686,7 +6770,7 @@
         <v>1.0</v>
       </c>
       <c r="C409" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="410">
@@ -6708,7 +6792,7 @@
         <v>1.0</v>
       </c>
       <c r="C411" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="412">
@@ -6749,10 +6833,10 @@
         <v>416</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C415" s="2" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="416">
@@ -6774,7 +6858,7 @@
         <v>1.0</v>
       </c>
       <c r="C417" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="418">
@@ -6807,7 +6891,7 @@
         <v>1.0</v>
       </c>
       <c r="C420" s="2" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="421">
@@ -6818,7 +6902,7 @@
         <v>1.0</v>
       </c>
       <c r="C421" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="422">
@@ -6884,7 +6968,7 @@
         <v>1.0</v>
       </c>
       <c r="C427" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="428">
@@ -6895,7 +6979,7 @@
         <v>1.0</v>
       </c>
       <c r="C428" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="429">
@@ -6928,7 +7012,7 @@
         <v>1.0</v>
       </c>
       <c r="C431" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="432">
@@ -6961,7 +7045,7 @@
         <v>1.0</v>
       </c>
       <c r="C434" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="435">
@@ -6972,7 +7056,7 @@
         <v>1.0</v>
       </c>
       <c r="C435" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="436">
@@ -7016,7 +7100,7 @@
         <v>1.0</v>
       </c>
       <c r="C439" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="440">
@@ -7024,10 +7108,10 @@
         <v>441</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C440" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="441">
@@ -7060,7 +7144,7 @@
         <v>1.0</v>
       </c>
       <c r="C443" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="444">
@@ -7115,7 +7199,7 @@
         <v>1.0</v>
       </c>
       <c r="C448" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="449">
@@ -7148,7 +7232,7 @@
         <v>1.0</v>
       </c>
       <c r="C451" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="452">
@@ -7478,7 +7562,7 @@
         <v>1.0</v>
       </c>
       <c r="C481" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="482">
@@ -7522,7 +7606,7 @@
         <v>1.0</v>
       </c>
       <c r="C485" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="486">
@@ -7621,7 +7705,7 @@
         <v>1.0</v>
       </c>
       <c r="C494" s="2" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="495">
@@ -7654,7 +7738,7 @@
         <v>1.0</v>
       </c>
       <c r="C497" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="498">
@@ -7808,7 +7892,7 @@
         <v>1.0</v>
       </c>
       <c r="C511" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="512">
@@ -7951,7 +8035,7 @@
         <v>1.0</v>
       </c>
       <c r="C524" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="525">
@@ -8138,7 +8222,7 @@
         <v>1.0</v>
       </c>
       <c r="C541" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="542">
@@ -8215,7 +8299,7 @@
         <v>1.0</v>
       </c>
       <c r="C548" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="549">
@@ -8666,7 +8750,7 @@
         <v>1.0</v>
       </c>
       <c r="C589" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="590">
@@ -8688,7 +8772,7 @@
         <v>1.0</v>
       </c>
       <c r="C591" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="592">
@@ -8776,7 +8860,7 @@
         <v>1.0</v>
       </c>
       <c r="C599" s="2" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="600">
@@ -8908,7 +8992,7 @@
         <v>1.0</v>
       </c>
       <c r="C611" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="612">
@@ -8941,7 +9025,7 @@
         <v>1.0</v>
       </c>
       <c r="C614" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="615">
@@ -8963,7 +9047,7 @@
         <v>1.0</v>
       </c>
       <c r="C616" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="617">
@@ -9062,7 +9146,7 @@
         <v>1.0</v>
       </c>
       <c r="C625" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="626">
@@ -9070,10 +9154,10 @@
         <v>627</v>
       </c>
       <c r="B626" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C626" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="627">
@@ -9106,7 +9190,7 @@
         <v>1.0</v>
       </c>
       <c r="C629" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="630">
@@ -9521,10 +9605,10 @@
         <v>668</v>
       </c>
       <c r="B667" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C667" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="668">
@@ -9568,7 +9652,7 @@
         <v>1.0</v>
       </c>
       <c r="C671" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="672">
@@ -9909,6 +9993,314 @@
         <v>1.0</v>
       </c>
       <c r="C702" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B703" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C703" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B704" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C704" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="B705" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C705" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B706" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C706" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B707" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C707" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B708" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C708" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B709" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C709" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B710" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C710" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B711" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C711" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B712" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C712" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B713" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C713" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B714" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C714" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="B715" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C715" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="B716" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C716" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B717" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C717" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B718" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C718" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="B719" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C719" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B720" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C720" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B721" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C721" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B722" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C722" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B723" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C723" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B724" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C724" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B725" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C725" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B726" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C726" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B727" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C727" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B728" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C728" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B729" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C729" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B730" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C730" s="2" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="470">
   <si>
     <t>word</t>
   </si>
@@ -23,1120 +23,1405 @@
     <t>total</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #email #gmail #trik internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (021) 4260719 / 0812 7535 7961 (contact person)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 200email aktif aku beli 100rb,, kalo ada hubungi no</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38, harapan mulya kemayoran jakarta pusat t </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ada juga yang melakukan pencarian alamat email ini dengan menggunakan sebuah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> adapun produk jaminan yg kami tawarkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda akan dibawa pada halaman utama google tersebut</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anda bisa menggunakan mesin pencari</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apa sih sebetulnya startup itu? apa keuntungannya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apakah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> atas perhatian &amp; kerjasamanya kami ucapkan terimakasih</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bagaimana cara mendapatkan banyak alamat email? teknik ini sangat sederhana sekali, siapapun bisa menggunakannya dengan mudah, dan hasilnya adalah anda bisa mendapatkan banyak email aktif dalam waktu hanya beberapa menit saja</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banyak jalan menuju grabbing email ada beberapa teknik yang bisa digunakan dalam proses grabbing, dikalangan web programmer kerapkali membuat "bot crawler" sendiri yang bisa melakukan grabbing, tidak hanya email tapi sesuai keperluan saja, menggunakan library curl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> beberapa fbmarketer yang saya kenal mampu mera</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bedanya u</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> best regard ria arini septiani pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bicara tentang aplikasi chatting pasti sudah tak asing lagi ditelinga kita, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cara ini bisa dilakukan oleh siapa saja termasuk oleh anda yang sangat awam sekalipun tentang dunia internet ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> caranya bagaimana? banyak jalan menuju roma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> caranya mudah, yaitu kita gunakan saja fasilitas yang sudah tersedia diinternet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dan diterima instansi pemerintah (bumn, bumd, kps, pertamina, vico, cnooc, mabes tni dan polri, total e &amp; p indonesia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dan seterusnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dan tentunya dengan anda menggunakan cara ini pastinya tidak akan terlalu menguras isi kantong anda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dengan demikian anda tidak akan kesulitan lagi untuk mempromosikan produk-produk dan jasa anda ke konsumen karena anda sudah memiliki</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dengan ini kami bermaksud untuk menawarkan kerjasama mengenai penerbitan jaminan baik dikeluarkan oleh bank maupun asuransi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dengan memiliki sebuah alamat rumah didunia maya, tentunya orang-orang yang ingin menghubungi anda sudah tahu kemana mereka harus mencari anda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dengan tujuan anda </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> di sini kita akan banyak bermain logika, bagaimana anda bisa mendapatkan banyak alamat email memanfaatkan database dari google? mudah sekali</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dimana orang-orang diinternet bisa mengenal tentang siapa anda dan kemana mereka harus menghubungi anda jika mereka akan mencari anda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> disini kami memberikan prosedur yg relative mudah yaitu non collateral, biaya yg competitive serta polis jaminan kami antar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> email  ini adalah merupakan sebuah sarana yang sangat penting sekali untuk dimiliki para</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> grabbing email merupakan sebuah teknik yang biasa digunakan untuk mengambil suatu konten (sesuai dengan yang diperlukan) dari suatu halaman website atau banyak halaman sekaligus dalam satu waktu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> harapan mulya iv no</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosted by namecheap </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ini yg saya cari</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> intitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaminan pelaksanaan (performance bond) 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaminan pemeliharaan (maintenance bond) untuk lebih jelasnya kami melampirkan surat penawaran</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaminan penawaran (bid bond) 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaminan uang muka (advance payment bond) 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jangan lupa juga untuk kunjungi www</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jasa mulya abadi a </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jasa mulya abadi yg bergerak dibidang pelayanan jasa penerbitan bank garansi &amp; asuransi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jika anda belum memiliki aplikasi email extractor, anda bisa mendownloadnya di google play store https</t>
+    <t xml:space="preserve"> +62 813-2532-4102 [email protected]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38 kalirejo, bangil pasuruan 67153, indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ "bahasa inggris ditulis at" artinya adalah "kepada"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [email protected]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ada beberapa jenis email yang saat ini digunakan diantaranya pop mail, web mail dan forward mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ada dua cara untuk mengakses surat elektronik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ada surat elektronik yang isinya formal ada yang informal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adakalanya sesuatu yang kita tulis akan terkesan berbeda dengan apa yang sebetulnya kita maksudkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alamat email ditulis dengan nama pengguna khusus di awal, diikuti nama domain penyedia layanan email dengan tanda @ yang memisahkan keduanya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alamat surel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda dapat dengan mudah mengirimkan berbagai jenis file dan dokumen digital dengan ukuran tertentu, baik itu foto, video, teks, dan lampiran lainnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anda dapat menggunakan email untuk mengirim pesan dengan menentukan alamat email penerima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arti, ciri-ciri, tujuan, dan fungsi seminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arti, fungsi, dan jenis-jenis modem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arti, fungsi, jenis, dan cara kerja bandwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arti, jenis-jenis, serta hak dan kewajiban konsumen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> artikel terkait</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> baca juga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> baik menggunakan e-mail itu sendiri atau melalui jejaring sosial seperti facebook, twitter, instagram dan sosial media lainnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bayangkan jika dahulu anda mengirim surat hingga berhari-hari untuk sampai ke alamat tujuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> beberapa fungsi email yang diketahui adalah sebgai berikut 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> beberapa poin penting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> beberapa situs penyedia email yang saat ini banyak digunakan diantaranya adalah gmail, yahoo dan hotmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bedanya, dengan email kita bisa mengirim pesan lebih cepat dan dapat disertai dengan file tertentu yang ingin kita kirim juga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> berikut ini adalah proses cara kerja email secara singkat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> berikut penjelasan ketiganya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> biasanya bila seseorang memakai koneksi isp untuk sambungan ke internet, ia akan diberikan satu surat elektronik gratis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> biasanya file (baca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> biasanya fitur aplikasi tersebut akan meminta verifikasi dari akun email yang didaftarkan dan juga mengirimkan notifikasi melalui alamat email yang didaftarkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> biasanya forward mail hanya digunakan oleh mereka yang sering berganti alamat email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> biasanya ukuran file yang dikirim memiliki ukuran tertentu dan tidak boleh melebihi ukuran file maksimal yang telah ditetapkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caranya mudah saja, kita hanya perlu menulis pesan pada dashboard menu email yang disediakan oleh penyedia layanan email dan kemudian mengirimkannya pada alamat yang dituju</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> contoh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ctrl + space for auto-complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dan hingga saat ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dan hingga saat ini email marketing masih termasuk jenis pemasaran online yang sangat efektif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dan kode yg di kirim via email saya tidak bisa saya terima?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dan sebagian besar pebisnis online melakukan pemasaran melalui email untuk meningkatkan penjualan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> definisi, sejarah, dan manfaat digitalisasi bagi manusia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dengan demikian biaya koneksi ke internet dapat dihemat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dengan demikian bisa disimpulkan bahwa email adalah salah satu layanan yang dapat membantu kita untuk mengirim dan menerima pesan kapan saja dan dimana saja dengan lebih cepat, murah dan efisien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dengan email, anda tidak perlu membuat percakapan yang panjang, anda hanya perlu melampirkan konten yang menurut anda penting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dengan kata lain, pengguna email hanya bisa membuka email miliknya maka ia harus membuka halaman situs penyedia layanan email tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dengan memakai pgp maka isi akan dienkrip, dan hanya orang yang tertuju dapat mendekripsi dan membaca surat elektronik tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dengan menggunakan program seperti ini, seseorang harus mengetahui konfigurasi yang bisa didapat dari isp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> di zaman dulu saat orang ingin mengirim surat kepada orang lain maka ia harus menulisnya pada selembar kertas dan mengirimkannya melalui pos dan layanan sejenisnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diakses tanggal 2010-02=october 2008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dibawah ini adalah beberapa layanan email gratis yang dapat anda manfaatkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e-mail ) adalah sarana kirim mengirim surat melalui jalur jaringan komputer (misalnya internet )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eksperimen ray kemudian dilanjutkan dengan menghubungkan sndmsg melalui file protocol yang bernama cypnet sehingga program sndmsg dapat mengirimkan pesan ke komputer lain, namun masih berada dalam satu jaringan arpanet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eksperimen tersebut berhasil dan itulah awal terciptanya surel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email , mail server , seputar internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email banyak dapat diakses dengan mudah dengan berbagai gadget seperti komputer maupun ponsel smartphone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email beroperasi di jaringan komputer, yang hari ini terutama adalah internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email dalam beberapa hal lebih cepat daripada membuat panggilan telepon, di mana anda mungkin ditahan untuk waktu yang lama atau dipaksa untuk terlibat dalam percakapan yang panjang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email juga merupakan komponen penting saat anda akan membuat suatu blog atau website yang ada di internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email pertama kali masuk penggunaannya terbatas pada tahun 1960an dan pada pertengahan 1970-an telah mengambil bentuk yang sekarang dikenal sebagai email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email seringkali menjadi syarat mutlak untuk proses aktivasi berbagai layanan digital, misalnya untuk aktivasi smartphone, untuk aktivasi layanan berlangganan surat, dan lain-lain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email untuk media pemasaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email untuk media pemasaran ilustrasi email untuk pemasaran pemasaran online saat ini banyak dilakukan dengan memanfaatkan email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email untuk mendaftar di berbagai situs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> emangnya pakek layanan email apa? gmail?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eudora mail , outlook express , windows mail , mozilla thunderbird , mutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> file anda akan tersimpan dalam email, siapapun tidak akan dapat mengambilnya, kecuali seseorang mengetahui informasi login anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> forward mail pengertian forward mail adalah jenis layanan email yang memforward atau meneruskan email yang diterima pengguna ke alamat email yang lain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> foto, dokumen, dan file lainnya dapat dilampirkan ke email, sehingga lebih banyak informasi dapat dibagikan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fungsinya mirip dengan surat, tetapi dikirim melalui internet ke penerima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hal ini disebabkan oleh karena surat elektronik itu akan melewati banyak server sebelum sampai di tujuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ilustrasi cara kerja email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ini juga dipengeruhi besar file dan kecepatan akses jaringan internet anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intinya forward mail berfungsi sebagai perantara antara satu email dengan email lainnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> isi dari konten anda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> isi pesan berupa "kata kata tes" sepenuhnya dilupakan, kemungkinan pesan pertama yang dikirimkannya adalah qwertyuiop atau huruf serupa," kata ray dalam akun flickr miliknya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> itulah pengertian email beserta fungsi dan cara kerja email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> j</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jenis mail ini dapat dibaca secara offline tetapi tidak bisa diakses disembarang tempat dan hanya bisa diakses dari rumah atau kantor dengan koneksi internet tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jenis-jenis, dan contoh marketplace</t>
   </si>
   <si>
     <t xml:space="preserve"> jl</t>
   </si>
   <si>
-    <t xml:space="preserve"> kali ini saya akan bicara mengenai internet marketing, atau lebih tepatnya sosial media marketing, walaupun ada sebagian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> karena cara ini merupakan cara paling</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> karena dengan menggunakan email ini, maka seseorang tersebut seperti memiliki sebuah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> katakanlah dengan memiliki sebuah alamat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kita mulai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kunjungi blog ane juga http</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kunjungi juga aplikasi online terima kasih</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lalu pertanyaan berikutnya yang mungkin terbersit dalam benak anda adalah, memang apa saja</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> langsung ta bookmark web ente om</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> live chat freemium untuk sapa pelanggan sekaligus meningkatkan konversi penjualan bisnis anda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> loka dwiartara admin ilmuwebsite</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lumayan data email buat nge blast produk ane bertambah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mari kita pelajari satu demi satu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mau tau caranya? ini dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mendapatkan alamat email dari satu halaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> menggunakan easy email extractor easy email extractor, adalah sebuah aplikasi yang bisa anda setting untuk melakukan suatu "tugas suci"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> misalkan kita akan mencari alamat email dari orang-orang yang pernah tinggal di bogor, berkunjung ke bogor, atau apapun yang berkaitan dengan bogor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mksh min</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mudah sekali, hanya klik next dan next</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nah, itu pun merupakan trik marketing mereka dalam membangun</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> namun bagi anda yang bukan kalangan programmer bisa menggunakan beberapa tools yang mudah dan memudahkan pekerjaan anda dalam mencari ribuan email aktif</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> namun pada kesempatan kali ini saya akan membagikan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> namun permasalahannya bagaimana bisa menggrab, atau mendapatkan alamat-alamat email tersebut tanpa harus mengkopikan satu demi satu?  kita gunakanlah easy email extractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> namun tentunya penggunaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> namun untuk contoh disini saya gunakan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> namun untuk penulisannya pada kotak pencarian anda bisa menggunakan format sebagai berikut</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> oh ya, namun sebelumnya bagi anda yang belum memiliki aplikasi easy email extractor, silahkan download terlebih dahulu  tools ini di alamat website http</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> oke langsung saja pertama-tama buka browser anda lalu masuk ke google terus silahkan ketikkan </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> oke, saya akan ulas caranya pada artikel ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> parsing email, bagaimana mensortir email dari satu halaman website, karena pastinya dalam halaman website itu tidak hanya terdapat email tapi konten yang lain, maka dari itu diperlukan aplikasi untuk mensortir alamat email menggunakan easy email extractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> perkenalkan terlebih dahulu kami dari pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pertama-tama silahkan buka browser anda, lalu silahkan masuk ke google</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> salam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> salam sukses dari tukang genset </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> saya juga tertarik pada bidang parenting, kesehatan dan informasi bermanfaat lainnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sebagai contoh kali ini kita akan mendapatkan email banyak orang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sedangkan angka merah yang diberi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> semoga bisnis online anda semakin lancar dan semoga artikel ini bermanfaat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> semoga dengan sedekah ilmu ini rejeki om makin banyak</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> semoga ini menjadi awal kerjasama untuk masa yg akan datang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> semua orang yang bisa mengakses internet bisa berinteraksi dengan anda salah satunya karena anda memiliki email ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> setelah download kemudian lakukan installasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> setelah itu buka salah satu link lalu kopi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> setelah selesai diinstallasi silahkan langsung buka aplikasi easy email extractor, akan ada tampilan seperti ini nantinya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> silahkan anda masukkan jenis email yang anda cari pada kotak pencarian bernomor 2 pada gambar diatas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> silahkan ketikkan di google search engine </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tampilannya kurang lebih seperti gambar dibawah ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tanda </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> terserah anda mau mencari email yang memakai layanan yang mana</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> thank gan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> theme by material kit </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tools yang diperlukan hanya ada dua saja, pertama adalah browser internet kesayangan anda, di sini saya akan menggunakan browser chrome, kemudian tools yang satu lagi adalah kita akan menggunakan aplikasi parsing email namanya adalah easy email extractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> untuk jelasnya lihat gambar dibawah ini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> untuk menambah pengetahuan anda tentang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> walaupun dengan software tersebut anda nantinya akan mendapatkan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> www</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yakni proses grabbing email</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yg mana perusahaan kami dibackup oleh bank dan asuransi swasta maupun pemerintah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yg minat jadi reseller/affiliate http</t>
-  </si>
-  <si>
-    <t>"bogor" @gmail</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>) semoga bermanfaat</t>
-  </si>
-  <si>
-    <t>, berarti anda telah memiliki sebuah tanda pengenal seperti</t>
-  </si>
-  <si>
-    <t>, namun anda juga tentunya harus mengodok kocek anda dalam-dalam untuk menggunakannya</t>
-  </si>
-  <si>
-    <t>, tapi tentu saja cara ini tidak gratis</t>
-  </si>
-  <si>
-    <t>- terbatas hanya sampai 17 desember 2019!</t>
-  </si>
-  <si>
-    <t>- terbatas hanya sampai 17 desember 2019! dibuat oleh praktisi yang memiliki pengalaman lebih dari 10 tahun di bidang web development (pemesanan bisa sms/wa ke 0838 1157 5876 , atau bisa pesan secara online di sini )</t>
-  </si>
-  <si>
-    <t>//bit</t>
-  </si>
-  <si>
-    <t>//ciscbogor</t>
-  </si>
-  <si>
-    <t>//goo</t>
-  </si>
-  <si>
-    <t>//play</t>
-  </si>
-  <si>
-    <t>//www</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>00 wib</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t xml:space="preserve"> kali ini kita akan membahas mengenai pengertian email beserta fungsi dan cara kerja email yang jarang diketahui banyak orang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kalobkita sudah punya akun google</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> karena aksesnya hanya membutuhkan laman web maka web mail bisa diakses dimana saja asal terhubung dengan koneksi internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> karena berfungsi sebagai perantara maka tentu saja email yang diterima akan lebih lambat diterima oleh pengguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kelas maya (virtual class)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kelebihan yang lainnya adalah perangkat lunak ini menyediakan fungsi-fungsi penyuntingan dan pembacaan surel secara luring </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kerugiannya adalah membuat repot pihak pengirim dan penerima (karena keduanya harus memiliki program pgp, dan pengirim juga harus memiliki kunci umum penerima, dan melakukan enkripsi pesan dengan kunci tersebut)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> keuntungannya adalah dapat membaca surat elektronik tanpa perlu terhubung secara terus-menerus dengan internet dan puluhan surat elektronik dapat diterima dan dikirimkan secara bersama-sama sekaligus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> koneksi hanya diperlukan untuk melakukan pengiriman (send) atau menerima (recieve) email dari mailbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kutip sesedikit mungkin dan rujuk ke tulisan aslinya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> layanan e-mail dapat dikelompokkan dalam 2 basis, yaitu email berbasis client dan email berbasis web</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> layanan email tersebut bisa diakses melalui web atau browser yang biasa digunakan dengan mendaftarkan diri terlebih dahulu dan kemudian pengguna akan menerima alamat email yang sesuai dengan data yang diberikan oleh user atau pengguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> layanan ini cocok digunakan bagi mereka yang suka bergonta ganti email atau tidak ingin memberitahukan email yang baru</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> layanan surat elektronik berbasis web biasanya disediakan oleh penyelenggara layanan surel gratis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lebih lanjut, berikut ini adalah beberapa fungsi email selengkapnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lihat ketentuan penggunaan untuk lebih jelasnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lihat pula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maka dari itu bila surat elektronik yang kita kirim mengandung isi yang sensitif sebaiknya kita melakukan tindakan pencegahan, dengan mengacak ( enkripsi ) data dalam surat elektronik tersebut (contohnya menggunakan pgp , sertifikat digital , dan lain-lain) cara membaca surat elektronik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> manfaatnya apa ya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mendaftar akun sosial media dan lainnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengaktifkan smartphone ponsel atau smartphone khususnya android hanya dapat diaktifkan dengan memasukkan alamat email terlebih dahulu dan alamat email tersebut biasanya akan tersinkronisasi dalam aplikasi yang terdapat dalam smartphone tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengikuti saluran pada email tidak hanya dapat mengakses satu saluran saja, namun juga dapat digunakan untuk mengakses beberapa saluran, sehingga banyak informasi yang didapatkan melalui email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengirim dan menerima file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengirim dan menerima file ilustrasi attachment email juga dapat mengirimkan berbagai jenis file dan dokumen digital dengan ukuran tertentu, baik itu foto, video, teks, dan lain-lain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengirim dan menerima file selain berfungsi untuk mengirim pesan, email juga bisa mengirimkan file dalam bentuk gambar, dokumen, video atau bentuk file lainnya pada alamat yang dituju dengan menambahkannya pada lampiran atau attachment yang tersedia pada email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengirim dan menerima pesan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengirim dan menerima pesan ilustrasi mengirim dan menerima pesan kegunaan email yang paling umum adalah untuk mengirim dan menerima email dari orang lain di manapun mereka berada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mengirim dan menerima pesan pada dasarnya email adalah layanan untuk mengirim dan menerima pesan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> menunda email untuk dikirim nanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mesin pencari web (search engine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> metode ini disebut sebagai web-based , artinya kita menggunakan media web sebagai perantara ke kotak surat elektronik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mulai dari panduan, aplikasi, musik, film &amp; hal keren lainnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mulai dari situs media sosia, situs e-commerce, game online, situs forum, dan berbagai layanan lainnya, mengharuskan pengguna mendaftarkan email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mulai dari surat elektronik dikirim → internet → pop3 server penyedia surel penerima → mail client (di komputer si penerima) → surat elektronik dibaca si penerima terlihat surat elektronik yang terkirim hanya melalui 5 poin (selain komputer pengirim dan penerima)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mulai tahun 1980-an , surat elektronik sudah bisa dinikmati oleh khalayak umum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nama domain , biasanya menunjukkan nama perusahaan/organisasi/perorangan (vibriel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nama kotak surat ( mailbox ) atau nama pengguna ( username ) yang ingin dituju dalam mailserver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nama mailserver tempat pengguna yang dituju, rinciannya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> namun dengan email, surat anda akan sampai dengan cepat, murah dan efisien</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> namun, tentu saja kecepatan tersebut dipengaruhi oleh kecepatan internet, baik si pengirim atau si penerima email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> network working group</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> orang-orang dapat berkomunikasi dalam hitungan menit atau detik dari mana saja menggunakan email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pada awal perkembangan internet , email digunakan sebagai sarana komunikasi antar developer internet dan kini seiring dengan perkembangan teknologi, email digunakan untuk berbagai macam tujuan dan dapat diakses oleh siapa saja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pada awalnya ray bereksperimen dengan program komputer yang bernama sndmsg yang pada saat itu digunakan untuk meninggalkan pesan pada komputer, sehingga orang yang memakai komputer dapat membaca pesan yang ditinggalkan oleh pemakai komputer "saat itu normal ketika banyak orang menggunakan komputer yang sama secara bergantian"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pada saat itu internet belum terbentuk, yang ada hanyalah kumpulan ' mainframe ' yang terbentuk sebagai jaringan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pada tahun 1972, ray mengenalkan lambang @ "indonesia dibaca et" sebagai identitas email untuk memisahkan antara identitas pengguna dengan domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pemasaran melalui email merupakan salah satu pemasaran online yang paling tua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> penerima akan menerima email anda segera setelah mereka online dan mengumpulkan email mereka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pengertian, cara kerja, serta kelebihan dan kekurangannya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pengertian, tujuan, dampak, dan contoh spam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pengertian, tujuan, dan contoh implementasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pengguna bisa mengirimkan pesan atau surat secara digital pada alamat email yang dituju dan email tersebut akan sampai dalam hitungan detik tergantung pada kecepatan koneksi internet </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pengirim dan penerima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pengirim menyimpan, mengirim atau meneruskan pesan email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> perangkat lunak ini menyediakan fungsi-fungsi penyuntingan dan pembacaan email secara offline (tidak tersambung ke internet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pesan di email biasanya berisi teks, file, gambar, atau lampiran lain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pesan email terdiri dari empat komponen, sebagai berikut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pesan penting termasuk berbintang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pesan surel pertama kali yang dikirim oleh ray pada 1971 merupakan surel pertama di dunia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pesan tersebut biasanya akan terkirim dalam waktu beberapa detik setelah anda mengirimnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pesan yang belum dikirim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pesan yang berhasil dikirim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pesan yang gagal terkirim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pesan yang telah dihapus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pesan yang terdeteksi sebagai spam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> peta konsep atau peta minda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pop mail atau post office protocol mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pop mail pengertian pop mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pos-el ) atau imel ( bahasa inggris </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ratel , ratron , surel , atau surat-e ) atau pos elektronik (akronim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ray tomlinson pada saat itu bekerja untuk bolt beranek and newman "bbn" milik lembaga pertahanan amerika</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saat ini, metode mengirim surat seperti itu sudah tidak banyak digunakan karena kita sudah mengenal suatu bentuk komunikasi yang baru yakni dengan menggunakan email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saat pengguna mendaftarkan emailnya pada suatu online store maka secara otomatis alamat email tersebut akan menerima email promosi dari online store tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> salah satu program enkripsi yang populer adalah pgp ( pretty good privacy )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sama seperti ketika kita menulis surat kepada orang lain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sangat mudah untuk mencetak email untuk hard copy atau anda dapat menggunakan ruang penyimpanan besar penyedia email untuk menjaga semuanya tetap aman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sarana promosi saat ini email tidak hanya menjadi sarana pengiriman pesan dan dokumen melainkan juga menjadi lahan promosi bagi para pebisnis misalnya online store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> satu email dapat dikirim ke lebih dari satu penerima sekaligus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sebagai identitas diri email juga </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sebagian besar pebisnis online melakukan pemasaran melalui email untuk meningkatkan penjualan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sebagian besar sistem email menyertakan editor untuk menulis pesan, mengedit, menyediakan pemformatan dasar, termasuk huruf tebal, miring, warna font, dan html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sebenarnya lebih dari itu sebab setelah surat elektronik meninggalkan pop3 server maka itu akan melalui banyak server-server lainnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> second level domain , menunjukkan bahwa domain ini termasuk kategori networking (net)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sedangkan penerima membaca atau mengunduh email dengan mengakses server email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sekarang ini banyak perusahaan pos di berbagai negara yang menurun penghasilannya disebabkan masyarakat sudah tidak memakai jasa pos lagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selain itu, perhatikan juga bahwa beberapa penyedia surat elektronik juga menerapkan batasan tentang jumlah, jenis, dan ukuran surat elektronik yang dapat diterima (dan dikirim) penggunanya,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> semoga bermanfaat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> semua pesan yang masuk ke email, termasuk utama, sosial &amp; promosi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smk negeri 1 panyingkiran @2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> subdomain (milik pemegang nama domain ), biasanya merujuk ke suatu komputer dalam lingkungan pemilik domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> surat elektronik dapat diamankan dengan melakukan teknik pengacakan ( enkripsi )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> surat elektronik yang diterima akan disimpan di server surat elektronik isp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> surat elektronik yang kita kirim akan melalui beberapa poin sebelum sampai di tujuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> surel pertama di dunia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tapi ada pengecualian misalnya surat elektronik ke telepon genggam , kadang pembayarannya ditagih per pengiriman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tawes no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> terima kasih atas kunjungannya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> terkadang sebuah email dikirim melalui beberapa email server, tergantung rute yang dilaluinya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> termasuk lampiran teks, gambar, dan file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tidak semua orang mempunyai akses internet yang cepat, dan ada kemungkinan lampiran tersebut melebihi kapasitas surat elektronik penerima, sehingga akan ditolak mailserver penerima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tidak tertutup kemungkinan ada orang yang menyadap surat elektronik yang dikirimkan tersebut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tidak tertutup kemungkinan surat elektronik yang kita kirim disadap orang lain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> top level domain , menunjukkan bahwa domain ini terdaftar di otoritas domain indonesia (id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> untuk menggunakannya, pengguna haruslah dalam keadaan daring </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> untuk para pengguna email berbasis client, aktifitas email dilakukan dengan menggunakan perangkat lunak email client, contohnya eudora atau outlook express</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> web mail, atau web based mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> webmail pengertian webmail adalah email yang berbasis website</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> whatsapp </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yahoo! mail dan gmail </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | powered by blogger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rfc 5321 – simple mail transfer protocol" </t>
+  </si>
+  <si>
+    <t>) &gt;&gt; mesin pencari web dan contohnya &gt;&gt; penjelajah web dan contoh aplikasinya</t>
+  </si>
+  <si>
+    <t>) saat ini membutuhkan email penggunanya agar bisa melakukan aktivitas di website tersebut</t>
+  </si>
+  <si>
+    <t>) tersebut ditambahkan di dalam lampiran (attachment) pada email</t>
+  </si>
+  <si>
+    <t>) yang menjadi langganan atau alamat email pekerja yang diberikan perusahaan kepada pegawainya</t>
+  </si>
+  <si>
+    <t>* literasi edukasi media pilihan @smkn1pnyk * lembar kerja siswa * evaluasi pembelajaran</t>
+  </si>
+  <si>
+    <t>, s</t>
+  </si>
+  <si>
+    <t>//id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1 surel pertama di dunia</t>
+  </si>
+  <si>
+    <t>10 channel youtube yang paling banyak dibicarakan di 2018 karena …</t>
+  </si>
+  <si>
+    <t>11 situs streaming download drama korea terbaru, gratis full episode</t>
+  </si>
+  <si>
+    <t>18 situs download subtitle film, teks indonesia kualitas terbaik</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2 cara menonaktifkan twitter dengan sangat mudah, baik melalui pc maupun hp android!</t>
+  </si>
+  <si>
+    <t>2018 - 10rpl3 video tutorial cara merakit pc</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>3 tutorial (5dvd) hanya rp 137</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>5 cara efektif menemukan ide, inovasi dan inspirasi tanpa batas</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>? jawabannya adalah karena biasanya para pengunjung sebuah blog ataupun website ketika berkomentar pada website dan blog yang dikunjunginya biasanya mereka seringkali meninggalkan alamat email mereka di situs-situs yang mereka kunjungi tersebut</t>
-  </si>
-  <si>
-    <t>ada tools untuk sortir email aktif, paling tidak setiap smartphone sudah terhubung dengan email, dan setiap email masuk pun sudah ada notifnya, ini yang kita manfaatkan</t>
-  </si>
-  <si>
-    <t>adarateam</t>
-  </si>
-  <si>
-    <t>affiliate amazon artis belajar css belajar html belajar wordpress bisnis online blogger blogging dangdut email facebook gmail html indosiar internet marketer kebugaran tubuh kesehatan anak kesehatan kulit kesehatan paru kode html membangun website mengobati gatal multimedia obat gatal obat kulit panduan orang tua pendidikan anak pengetahuan umum perawatan kulit perawatan paru perawatan tubuh psikologi anak selebritis sosial media teknologi informasi tips adsense tips sehat trik internet trik wordpress tutorial seo tutorial website tv twitter web design web hosting</t>
-  </si>
-  <si>
-    <t>akan dengan mudah bisa mempromosikan bisnisnya melalui email-email tersebut</t>
-  </si>
-  <si>
-    <t>aktifkan javascript untuk memberikan nilai</t>
-  </si>
-  <si>
-    <t>anda dengan mengklik link ini</t>
-  </si>
-  <si>
-    <t>anda ingin tahu bagaimana triknya mencari alamat email melalui</t>
-  </si>
-  <si>
-    <t>angka merah yang diberi tanda</t>
-  </si>
-  <si>
-    <t>apa itu startup bisnis digital? apa keuntungannya? dan bagaimana membuatnya?</t>
-  </si>
-  <si>
-    <t>apa yang anda dapat? banyak sekali halaman yang di indexing google berisi alamat-alamat email,</t>
-  </si>
-  <si>
-    <t>apa yang di idam-idamkan oleh kebanyakan orang pada umumnya? menurut anda apa ? gaji tinggi tiap bulan? nggak perlu pulang pergi nganto</t>
-  </si>
-  <si>
-    <t>apit saepulloh pada cara mengatasi kejang karena demam tinggi pada anak balita (bawah lima tahun)</t>
-  </si>
-  <si>
-    <t>apit saepulloh pada memperbesar gambar pada postingan artikel blog dengan plugin</t>
-  </si>
-  <si>
-    <t>ataupun email yang memakai layanan yang lainnya</t>
-  </si>
-  <si>
-    <t>ataupun mesin pencari lainnya</t>
-  </si>
-  <si>
-    <t>bachors</t>
-  </si>
-  <si>
-    <t>bagaimana cara mengetahui siapa pemilik website dan blog</t>
-  </si>
-  <si>
-    <t>bagi anda yang belum memiliki alamat email</t>
-  </si>
-  <si>
-    <t>banyak sekali alamat email di halaman ini</t>
-  </si>
-  <si>
-    <t>belajar bisnis online | internet marketing | seo | sosial media booster | startup bisnis</t>
-  </si>
-  <si>
-    <t>berdasarkan contoh gambar diatas, jika anda sedang beruntung maka permintaan yang anda ketikkan tadi di</t>
-  </si>
-  <si>
-    <t>beri komentar "cara mudah mencari alamat email"</t>
-  </si>
-  <si>
-    <t>bisa dibilang kekuatan facebook sebagai media marketing sangat tidak bisa diragukan lagi</t>
-  </si>
-  <si>
-    <t>biz</t>
-  </si>
-  <si>
-    <t>blogging kini oleh sebagian besar penulis maupun yang suka menulis dijadikan mata pencaharian, layaknya jenis pekerjaan lainnya</t>
-  </si>
-  <si>
-    <t>broo aku mau beli email</t>
-  </si>
-  <si>
-    <t>by spiderman pada agustus 28, 2016 dalam email</t>
-  </si>
-  <si>
-    <t>cara asik optimasi facebook marketing dengan fb uid scrapper</t>
-  </si>
-  <si>
-    <t>cara backup file &amp; database di codeigniter</t>
-  </si>
-  <si>
-    <t>cara gampang mencari reseller/dropshiper untuk pasukan marketing via facebook</t>
-  </si>
-  <si>
-    <t>cara membuat email gratis dengan gmail</t>
-  </si>
-  <si>
-    <t>cara membuat website menjadi ringan &amp; cepat</t>
-  </si>
-  <si>
-    <t>cara menambahkan jenis huruf atau font ke dalam komputer</t>
-  </si>
-  <si>
-    <t>cara mendapatkan ratusan alamat email dalam waktu 50 detik</t>
-  </si>
-  <si>
-    <t>cara mendapatkan ratusan alamat email dalam waktu 50 detik | bachors</t>
-  </si>
-  <si>
-    <t>cara mengatasi iklan adsense yang tidak muncul dan alasannya</t>
-  </si>
-  <si>
-    <t>cara mudah mencari alamat email</t>
-  </si>
-  <si>
-    <t>cara mudah mencari alamat email , 5 / 5 ( 1 nilai )</t>
-  </si>
-  <si>
-    <t>cara optimasi konten artikel website dan blog agar seo friendly</t>
-  </si>
-  <si>
-    <t>cara posting artikel di blogspot</t>
-  </si>
-  <si>
-    <t>cocok sangat bermanfaat buat bisnis online</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3 cara membuka situs yang diblokir internet positif di google chrome, dijamin lolos!</t>
+  </si>
+  <si>
+    <t>3 cara mengatasi windows automatic repair di windows 10 (berhasil)</t>
+  </si>
+  <si>
+    <t>3 cara mengatasi windows automatic repair di …</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4 cara membaca surat elektronik</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5 etika penggunaan surat elektronik</t>
+  </si>
+  <si>
+    <t>5+ cara membuat hotspot di laptop tanpa menggunakan software apapun</t>
+  </si>
+  <si>
+    <t>6 fakta mencengangkan tentang facebook yang perlu diketahui</t>
+  </si>
+  <si>
+    <t>7 cara menjadi selebgram mendadak dan menghasilkan banyak followers</t>
+  </si>
+  <si>
+    <t>99+ contoh alamat email unik yang masih bisa digunakan 2019</t>
+  </si>
+  <si>
+    <t>&gt;&gt; algoritma dan contohnya &gt;&gt; flowchart dan simbolnya &gt;&gt; pseudocode dan contohnya</t>
+  </si>
+  <si>
+    <t>&gt;&gt; kolaboratif daring &gt;&gt; definisi kelas maya &gt;&gt; manfaat kelas maya &gt;&gt; tutorial bergabung ke kelas maya edmodo &gt;&gt; video kelas maya edmodo &gt;&gt; video presentasi kelas digital edmodo</t>
+  </si>
+  <si>
+    <t>&gt;&gt; pengertian buku digital dan fungsinya &gt;&gt; macam-macam fomat buku digital &gt;&gt; langkah-langkah membuat buku digital &gt;&gt; pemrograman html</t>
+  </si>
+  <si>
+    <t>&gt;&gt; pengertian komunikasi daring &gt;&gt; pengertian komunikasi sinkron &gt;&gt; pengertian komunikasi asinkron &gt;&gt; pengertian email, manfaat dan contohnya &gt;&gt; materi intro to email &gt;&gt; materi basic search (search engine) &gt;&gt; pengertian video conference dan contohnya &gt;&gt; pembuatan blog sebagai media pembelajaran</t>
+  </si>
+  <si>
+    <t>&gt;&gt; pengertian mengetik 10 jari &gt;&gt; jenis-jenis keyboard pada komputer &gt;&gt; cara mengukur kecepatan mengetik &gt;&gt; aplikasi latihan mengetik &gt;&gt; perangkat keras komputer &gt;&gt; mouse &gt;&gt; keyboard &gt;&gt; monitor &gt;&gt; klasifikasi perangkat lunak &gt;&gt; media penyimpanan &gt;&gt; pengolah database &gt;&gt; pengolah video &gt;&gt; pengertian jaringan komputer &gt;&gt; pengertian internet &gt;&gt; pemrograman css</t>
+  </si>
+  <si>
+    <t>&gt;&gt; pengertian pengolah kata &gt;&gt; latihan aplikasi pengolah kata &gt;&gt; pengertian aplikasi pengolah kata &gt;&gt; fungsi pengolah kata dan latihannya &gt;&gt; fungsi shortcut keyboard microsoft word &gt;&gt; contoh aplikasi pengolah kata &gt;&gt; manfaat / fungsi pengolah kata &gt;&gt; tutorial praktik pengolah kata</t>
+  </si>
+  <si>
+    <t>&gt;&gt; pengertian peta konsep atau peta minda &gt;&gt; peta minda &gt;&gt; peta konsep &gt;&gt; aplikasi peta minda (mindmup)</t>
+  </si>
+  <si>
+    <t>&gt;&gt; pengertian presentasi &gt;&gt; presentasi video &gt;&gt; video tutorial pembelajaran &gt;&gt; aplikasi presentasi video &gt;&gt; aplikasi dan manfaat presentasi video &gt;&gt; tutorial blog sebagai media pembelajaran &gt;&gt; screencast-o-matic &gt;&gt; active presenter &gt;&gt; corel video studio &gt;&gt; perangkat lunak presentasi video</t>
+  </si>
+  <si>
+    <t>&gt;&gt; pengertian warga digital &gt;&gt; komponen warga digital &gt;&gt; pengertian internet safety (internet sehat) &gt;&gt; etika berkomunikasi di media sosial &gt;&gt; tips internet sehat, aman dan nyaman &gt;&gt; virus komputer, dan cara pencegahannya &gt;&gt; pengertian dan simbol creative commons &gt;&gt; pengertian cyberbully / intimidasi dunia maya</t>
+  </si>
+  <si>
+    <t>&gt;&gt; pengolah angka (spreadsheet) &gt;&gt; latihan aplikasi pengolah angka &gt;&gt; manfaat pengolah angka &gt;&gt; formula / rumus dalam excel &gt;&gt; formula / rumus sum dalam excel &gt;&gt; countifs dan tutorialnya &gt;&gt; data validation dan tutorialnya &gt;&gt; conditional formating dan tutorialnya &gt;&gt; filter - sort dan tutorial &gt;&gt; tutorial praktik pengolah angka</t>
+  </si>
+  <si>
+    <t>&gt;&gt; pengolah presentasi dan contoh aplikasinya &gt;&gt; membuat slide presentasi &gt;&gt; teknik presentasi yang baik</t>
+  </si>
+  <si>
+    <t>&gt;&gt; simulasi visual, manfaat, contoh aplikasinya &gt;&gt; presentasi pembuatan bahan ajar digital &gt;&gt; animasi, contoh dan aplikasinya</t>
+  </si>
+  <si>
+    <t>&gt;&gt; web sekolah &gt;&gt; karya video tutorial &gt;&gt; karya presentasi video &gt;&gt; aplikasi bel sekolah &gt;&gt; galeri video kreatif &gt;&gt; e-voting</t>
+  </si>
+  <si>
+    <t>?? mhon jelasin</t>
+  </si>
+  <si>
+    <t>[ sunting | sunting sumber ]</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>adalah email yang hanya bisa diakses dengan membuka laman web penyedia layanan email tertentu</t>
+  </si>
+  <si>
+    <t>adalah email yang hanya dapat diterima dari internet service provider yang digunakan</t>
+  </si>
+  <si>
+    <t>adalah kependekan dari ‘surat elektronik’</t>
+  </si>
+  <si>
+    <t>adalah suatu layanan email dimana email yang masuk pada suatu alamat diteruskan pada alamat yang lain</t>
+  </si>
+  <si>
+    <t>adalah jenis email yang didapatkan oleh pengguna dari isp (baca</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>alamat baru grandxxi + link nonton film gratis alternatif terbaik</t>
+  </si>
+  <si>
+    <t>alamat email juga sangat khas dan dapat dikenali dengan penggunaan simbol “@’ atau at, secara analogi simbol “@” menyatakan alamat kita pada layanan tersebut misalnya [email protected] maka zakaria adalah nama pengguna dan gmail</t>
+  </si>
+  <si>
+    <t>alhamdulillah</t>
+  </si>
+  <si>
+    <t>aman</t>
+  </si>
+  <si>
+    <t>apa itu email? pengertian email dalam bahasa indonesia</t>
+  </si>
+  <si>
+    <t>apa saja perbedaan proxy dan vpn? yuk ketahui penjelasannya disini!</t>
+  </si>
+  <si>
+    <t>arti dropship</t>
+  </si>
+  <si>
+    <t>arti implementasi</t>
+  </si>
+  <si>
+    <t>arti spam adalah</t>
+  </si>
+  <si>
+    <t>artikel terkait artikel dari penulis</t>
+  </si>
+  <si>
+    <t>artikel wikipedia dengan penanda gnd</t>
+  </si>
+  <si>
+    <t>artikel wikipedia dengan penanda lccn</t>
+  </si>
+  <si>
+    <t>artikel wikipedia dengan penanda nara</t>
+  </si>
+  <si>
+    <t>artikel wikipedia dengan penanda ndl</t>
+  </si>
+  <si>
+    <t>atau surat elektronik adalah suatu sarana untuk mengirim dan menerima surat atau pesan dengan format digital melalui jalur jaringan komputer dan internet</t>
+  </si>
+  <si>
+    <t>bagaimana cara masuk akun facebook ketika saya lupa kata sandi dan kode yg di kirim via sms tidak bisa saya terima karena no ponsel yg saya cantumkan sudah tidak aktif</t>
+  </si>
+  <si>
+    <t>begini cara download jurnal internasional untuk pemula, gratis loh!</t>
+  </si>
+  <si>
+    <t>begini cara setting lan di windows 10 untuk sharing data / printer</t>
+  </si>
+  <si>
+    <t>begini cara setting lan di windows 10 …</t>
+  </si>
+  <si>
+    <t>berbagai layanan website tersebut membutuhkan verifikasi dari penggunanya, dan ini hanya bisa dilakukan bila penggunanya memiliki alamat email yang valid</t>
+  </si>
+  <si>
+    <t>berfungsi sebagai identitas diri di internet dimana orang lain dapat menghubungi pengguna email melalui alamat email miliknya</t>
+  </si>
+  <si>
+    <t>berikut ini adalah modul untuk pengenalan tentang email dan cara menggunakannya (email gmail)</t>
+  </si>
+  <si>
+    <t>biaya rendah</t>
+  </si>
+  <si>
+    <t>bila jaman dulu mengirim surat menggunakan kertas dan tinta dimana proses pengirimannya bisa berhari-hari, saat ini mengirim pesan via email hanya butuh waktu beberapa detik saja</t>
+  </si>
+  <si>
+    <t>cara daftar akun facebook dengan langkah mudah, terbaru 2020</t>
+  </si>
+  <si>
+    <t>cara kerja email sebenarnya cara kerja email ini cukup sederhana</t>
+  </si>
+  <si>
+    <t>cara membuat email baru dan daftar gmail paling mudah 2020</t>
+  </si>
+  <si>
+    <t>cara mengatasi api-ms-win-crt-runtime-l1-1-0</t>
+  </si>
+  <si>
+    <t>cara upload video di youtube melalui pc dan laptop dengan mudah</t>
+  </si>
+  <si>
+    <t>cepat</t>
   </si>
   <si>
     <t>com</t>
   </si>
   <si>
-    <t xml:space="preserve">com ? ikuti sosial media kami </t>
-  </si>
-  <si>
-    <t>com @yahoo</t>
-  </si>
-  <si>
-    <t>com dan yahoo</t>
-  </si>
-  <si>
-    <t>com design by apit saepulloh</t>
-  </si>
-  <si>
-    <t>com founder kaffah</t>
-  </si>
-  <si>
-    <t>com skalian ninggalin jejak hahaa</t>
-  </si>
-  <si>
-    <t>com terima kasih</t>
-  </si>
-  <si>
-    <t>com/store/apps/details?id=com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com/update-daftar-membership-terbaru-20142015-3/ </t>
-  </si>
-  <si>
-    <t>copyright © 2018 belajar bisnis online</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>dan mudah dilakukan oleh siapa saja dalam mencari banyak alamat email diinternet</t>
-  </si>
-  <si>
-    <t>dan nama layanan emailnya</t>
-  </si>
-  <si>
-    <t>dari orang-orang yang ada diinternet adalah suatu keharusan bagi kesuksesan bisnisnya</t>
-  </si>
-  <si>
-    <t>dear pimpinan / finance / hrd perusahaan swasta / bumn mohon maaf sebelumnya jika email kami mengganggu aktivitas bpk/ibu</t>
-  </si>
-  <si>
-    <t>didepannya lalu diikuti oleh tanda </t>
-  </si>
-  <si>
-    <t>dunia maya ataupun internet saat ini</t>
-  </si>
-  <si>
-    <t>e atau hal lainnya dengan gratis dalam websitenya, namun untuk mendapatkannya anda diminta untuk</t>
-  </si>
-  <si>
-    <t>eka pada cara membuat blog gratis dengan blogspot untuk blogger pemula</t>
-  </si>
-  <si>
-    <t>emailextractor</t>
-  </si>
-  <si>
-    <t>entar di bahas ya pak om lee juan, sabar ajo yo</t>
-  </si>
-  <si>
-    <t>formula pas mantab untuk menemukan ide startup bisnis anda</t>
-  </si>
-  <si>
-    <t>gl/zjokho lgn angap penipuan sebelum memahami isi web,</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>gratis download!! video tutorial cara membuat website dengan adobe dreamweaver (durasi 6 jam) gratis download!! video tutorial belajar desain grafis + animasi (durasi &gt; 5 jam) gratis download!! koleksi ebook ilmuwebsite (seputar belajar web development + dan belajar seo / internet marketing) free download!!</t>
-  </si>
-  <si>
-    <t>halo halo, salam</t>
-  </si>
-  <si>
-    <t>halo, salam, setelah sebelumnya saya menjelaskan " masih layakkah marketing dengan email blast ? " , kali ini akan kembali menje</t>
-  </si>
-  <si>
-    <t>halo, salam, setelah sebelumnya saya menjelaskan " masih layakkah marketing dengan email blast ? " , kali ini akan kembali menjelaskan trik yang masih berhubungan dengan email blast</t>
-  </si>
-  <si>
-    <t>hebat ilmunya bang loka d</t>
-  </si>
-  <si>
-    <t>ide startup bisnis keren berawal dari masalah di sekitaran</t>
-  </si>
-  <si>
-    <t>ilmuwebsite dari kemarin-kemarin yang dibahas cuma melulu masalah startup</t>
-  </si>
-  <si>
-    <t>info yang bermanfaat</t>
-  </si>
-  <si>
-    <t>ingin memulai kerja remote di rumah, nggak pake ngantor ? yuk mampir ke projects</t>
-  </si>
-  <si>
-    <t>ingin mendapatkan info terupdate dari ilmuwebsite</t>
-  </si>
-  <si>
-    <t>ini</t>
-  </si>
-  <si>
-    <t>ini fungsinya yaitu untuk memberitahu mesin</t>
-  </si>
-  <si>
-    <t>ini silahkan anda baca juga artikel saya yang lainnya yang berjudul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ini, sudah tidak asing lagi ketika mendengar istilah email ini </t>
-  </si>
-  <si>
-    <t>ini? caranya adalah sebagai berikut</t>
-  </si>
-  <si>
-    <t>ini? untuk pencarian alamat email yang menggunakan layanan email lainnya silahkan anda praktekkan sendiri dengan menggunakan</t>
-  </si>
-  <si>
-    <t>itu menyortir email yg aktifnya dilakukan secara otomatis oleh aplikasi ekstraktornya? eh btw, kriteria email aktif itu sendiri apa? apakah karena email ybs dipakai sebagai kunci medsos oleh orang2 tsb, padahal mereka sama sekali tidak peduli akun emailnya?</t>
-  </si>
-  <si>
-    <t>jumat, 06 november 2015 10</t>
-  </si>
-  <si>
-    <t>jumat, 12 juni 2015 10</t>
-  </si>
-  <si>
-    <t>jumat, 17 april 2015 16</t>
-  </si>
-  <si>
-    <t>kali ini saya akan share cara mendapatkan ratusan hingga ribuan alamat email aktif dalam waktu beberapa detik saja</t>
-  </si>
-  <si>
-    <t>kamis, 05 mei 2016 23</t>
-  </si>
-  <si>
-    <t>kamis, 10 desember 2015 21</t>
-  </si>
-  <si>
-    <t>kamis, 22 desember 2016 11</t>
-  </si>
-  <si>
-    <t>kamis, 23 maret 2017 17</t>
-  </si>
-  <si>
-    <t>kanal bisnis</t>
-  </si>
-  <si>
-    <t>kemarin saya sudah membuat artikel mengenai cara</t>
-  </si>
-  <si>
-    <t>kemudian akan ada tampilan seperti di bawah ini</t>
-  </si>
-  <si>
-    <t>kemudian pilih tab url, seperti pada gambar, dan masukkan url yang akan digrab alamat emailnya, dalam hal ini saya akan menggunakan dari hasil pencarian tadi yakni link http</t>
-  </si>
-  <si>
-    <t>keren deh gan kunjungi juga ya http</t>
-  </si>
-  <si>
-    <t>keren om sharingnya</t>
-  </si>
-  <si>
-    <t>ketika anda sedang berkelana kesana kemari berselancar</t>
-  </si>
-  <si>
-    <t>kiriman terkait "cara mudah mencari alamat email"</t>
-  </si>
-  <si>
-    <t>kog gak jalan om, dari file dan dari web nya</t>
-  </si>
-  <si>
-    <t>ku 081235970420 wa line ada, thanks</t>
-  </si>
-  <si>
-    <t>lainnya seperti yang sudah saya contohkan formatnya diatas</t>
-  </si>
-  <si>
-    <t>langsung ane praktekin</t>
-  </si>
-  <si>
-    <t>lihat selengkapnya!! dvd kursus web development komplit bangun 5 project website - codeigniter 3 jquery ajax bootstrap</t>
-  </si>
-  <si>
-    <t>link download unuk easy email extractor gan, apa kirimin file ke jamsmartin00@gmail,com</t>
-  </si>
-  <si>
-    <t>ly/2icioul</t>
-  </si>
-  <si>
-    <t>makasih gan buat sharingnya sangat bermanfaat, sudah dicoba dan sangat berhasil!, makasih banyak</t>
-  </si>
-  <si>
-    <t>mantap om ilmu sharingnya lanjutin om</t>
-  </si>
-  <si>
-    <t>membuat aplikasi chatting secara real time menggunakan firebase &amp; jquery</t>
-  </si>
-  <si>
-    <t>membuat form daftar, login, logout-php mysql</t>
-  </si>
-  <si>
-    <t>memformat teks pada halaman website dengan html</t>
-  </si>
-  <si>
-    <t>menggunakan aplikasi email extractor email exractor adalah aplikasi android yang berguna yang memungkinkan anda untuk dengan mudah mengekstrak alamat email dari file, teks dan url</t>
-  </si>
-  <si>
-    <t>menyediakan materi pembelajaran gratis seputar belajar html , belajar jquery , belajar php , belajar seo , tutorial wordpress , tutorial membuat website , web development, internet marketing, sosial media marketing</t>
-  </si>
-  <si>
-    <t>mereka demi kelangsungan terus dari bisnis online nya tersebut</t>
-  </si>
-  <si>
-    <t>minggu, 01 mei 2016 22</t>
-  </si>
-  <si>
-    <t>minggu, 02 agustus 2015 07</t>
-  </si>
-  <si>
-    <t>minggu, 06 desember 2015 17</t>
-  </si>
-  <si>
-    <t>minggu, 14 september 2014 06</t>
-  </si>
-  <si>
-    <t>minggu, 20 desember 2015 18</t>
-  </si>
-  <si>
-    <t>misalkan kita kunjungi satu halaman saja</t>
-  </si>
-  <si>
-    <t>mungkin bisa buat bisnis online</t>
-  </si>
-  <si>
-    <t>mungkin untuk sebagian orang istilah twitter ini</t>
-  </si>
-  <si>
-    <t>nantinya akan menampilkan hasil pencarian yang berisi tentang link-link yang memiliki informasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ngeblastnya di bahas dong pak </t>
-  </si>
-  <si>
-    <t>novirusthanks</t>
-  </si>
-  <si>
-    <t>orang it kerja nggak perlu ngantor + pendapatan besar tiap bulan</t>
-  </si>
-  <si>
-    <t>org/products/easy-email-extractor/</t>
-  </si>
-  <si>
-    <t>pada artikel kali ini saya akan share</t>
-  </si>
-  <si>
-    <t>pada gambar diatas adalah tempat anda nantinya memasukkan domain dari alamat email yang akan anda cari</t>
-  </si>
-  <si>
-    <t>pada kesempatan kali ini, saya akan berbagi</t>
-  </si>
-  <si>
-    <t>pake google dork toh, saya kira cuma bisa buat cari link download via parent directory doang</t>
-  </si>
-  <si>
-    <t>penggunaan email saat ini menjadi salah satu</t>
-  </si>
-  <si>
-    <t>percaya atau tidak namun ide-ide keren yang digunakan dalam membangun startup itu berawal dari masalah-masalah yang ada di lingkungan seki</t>
-  </si>
-  <si>
-    <t>pertama-tama silahkan anda buka layanan</t>
-  </si>
-  <si>
-    <t>peterwebs</t>
-  </si>
-  <si>
-    <t>pilih kamera dslr atau mirrorless? ini perbedaannya</t>
-  </si>
-  <si>
-    <t>primasarana</t>
-  </si>
-  <si>
-    <t>rabu, 04 januari 2017 21</t>
-  </si>
-  <si>
-    <t>rabu, 06 mei 2015 10</t>
-  </si>
-  <si>
-    <t>rabu, 18 februari 2015 12</t>
-  </si>
-  <si>
-    <t>rabu, 24 agustus 2016 21</t>
-  </si>
-  <si>
-    <t>rabu, 28 desember 2016 10</t>
-  </si>
-  <si>
-    <t>rabu, 28 september 2016 15</t>
-  </si>
-  <si>
-    <t>sabtu, 02 januari 2016 16</t>
-  </si>
-  <si>
-    <t>sabtu, 20 september 2014 16</t>
-  </si>
-  <si>
-    <t>sabtu, 26 september 2015 23</t>
-  </si>
-  <si>
-    <t>sabtu, 28 februari 2015 15</t>
-  </si>
-  <si>
-    <t>salam sejahtera untuk semua pengunjung setia ilmuwebsite</t>
-  </si>
-  <si>
-    <t>salam, kali ini saya tidak akan bermaksud membahas bahwa kerja di rumah lebih mengasyikan, atau kerja ngantor karena ketemu macet, dan hab</t>
-  </si>
-  <si>
-    <t>saya adalah seorang blogger yang aktif dan konsen di bidang programming, web design, graphic design dan bisnis online</t>
-  </si>
-  <si>
-    <t>saya tergelitik untuk menulis artikel yang berjudul</t>
-  </si>
-  <si>
-    <t>sebetulnya ada banyak cara untuk mendapatkan lebih banyak lagi</t>
-  </si>
-  <si>
-    <t>seiring dengan berkembangnya teknologi saat ini memungkinkan</t>
-  </si>
-  <si>
-    <t>sejarah socrates, kebiasaan unik &amp; ajarannya hingga di hukum mati</t>
-  </si>
-  <si>
-    <t>selasa, 07 april 2015 11</t>
-  </si>
-  <si>
-    <t>selasa, 08 maret 2016 12</t>
-  </si>
-  <si>
-    <t>selasa, 10 januari 2017 17</t>
-  </si>
-  <si>
-    <t>selasa, 11 oktober 2016 17</t>
-  </si>
-  <si>
-    <t>selasa, 12 mei 2015 09</t>
-  </si>
-  <si>
-    <t>selasa, 14 februari 2017 16</t>
-  </si>
-  <si>
-    <t>selasa, 19 april 2016 10</t>
-  </si>
-  <si>
-    <t>selasa, 21 april 2015 08</t>
-  </si>
-  <si>
-    <t>selasa, 25 agustus 2015 09</t>
-  </si>
-  <si>
-    <t>selesai, anda bisa mengkopasnya ke notepad++, dalam waktu kurang dari 1 menit anda sudah mendapatkan 118 email aktif</t>
-  </si>
-  <si>
-    <t>senin, 16 mei 2016 13</t>
-  </si>
-  <si>
-    <t>senin, 21 maret 2016 12</t>
-  </si>
-  <si>
-    <t>senin, 21 september 2015 08</t>
-  </si>
-  <si>
-    <t>setelah itu klik tombol extract emailnya,</t>
-  </si>
-  <si>
-    <t>setelah tersinstall silahkan buka aplikasnya terus paste url yang tadi anda kopi, lalu tekan tombol extract emails dan tara anda sudah mendapatkan ratusan alamat email yang siap dikirim pesan oleh anda</t>
-  </si>
-  <si>
-    <t>silabanreno pada cara membuat blog gratis dengan blogspot untuk blogger pemula</t>
-  </si>
-  <si>
-    <t>silahkan anda gunakan salah satu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silahkan ketik dengan format </t>
-  </si>
-  <si>
-    <t>sippp,,,, bisa di praktekkan buat bisnis online saya ini</t>
-  </si>
-  <si>
-    <t>smartkiosku</t>
-  </si>
-  <si>
-    <t>solusi jitu mengatasi iklan adsense yang tidak muncul</t>
-  </si>
-  <si>
-    <t>step by step cara membuat akun twitter</t>
-  </si>
-  <si>
-    <t>sudah tidak jalan lagi, ada trik yg lain bosss</t>
-  </si>
-  <si>
-    <t>supernews pada memperbesar gambar pada postingan artikel blog dengan plugin</t>
-  </si>
-  <si>
-    <t>susah-susah gampang bagi anda yang sedang mencari ide untuk membangun sebuah industri kreatif, startup bisnis digital</t>
+    <t>com - all right reserved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com adalah tempat tinggalnya dalam dunia internet </t>
+  </si>
+  <si>
+    <t>com diblokir, ini 6 situs konten mobile alternatif waptrick</t>
+  </si>
+  <si>
+    <t>com merupakan situs yang menyajikan berbagai macam informasi menarik dan bermanfaat</t>
+  </si>
+  <si>
+    <t>com newbloggerthemes</t>
+  </si>
+  <si>
+    <t>com | situs informasi &amp; hiburan</t>
+  </si>
+  <si>
+    <t>contact us</t>
+  </si>
+  <si>
+    <t>copyright © mapel simulasi dan komunikasi digital, muchamad eki s</t>
+  </si>
+  <si>
+    <t>dalam berbagai aspek, penggunaan email bagi seseorang sudah menjadi kewajiban</t>
+  </si>
+  <si>
+    <t>dalam mengutip tulisan orang ketiga, ingat hak cipta</t>
+  </si>
+  <si>
+    <t>dalam mengutip tulisan orang lain, selalu usahakan mengutip seperlunya, jangan mau gampangnya mengutip seluruh tulisan orang itu</t>
+  </si>
+  <si>
+    <t>dalam menjawab surat elektronik orang lain, kutip bagian yang kita tanggapi saja, selain lebih jelas juga tidak memakan waktu / jatah akses penerima,</t>
+  </si>
+  <si>
+    <t>dapatkan konten terbaik dari kami secara gratis!</t>
+  </si>
+  <si>
+    <t>dari pengertian diatas kita bisa mengetahui bahwa email berfungsi layaknya layanan pengiriman surat dalam bentuk digital</t>
+  </si>
+  <si>
+    <t>dari wikipedia bahasa indonesia, ensiklopedia bebas</t>
+  </si>
+  <si>
+    <t>definisi email adalah sarana untuk mengirim dan menerima pesan yang dipertukarkan antara dua pengguna melalui jaringan komunikasi atau internet</t>
+  </si>
+  <si>
+    <t>demikianlah penjelasan ringkas mengenai pengertian email, fungsi dan manfaat email, cara kerja email, dan jenis-jenis email pada umumnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dengan cara menggunakan peramban web , seperti mozilla firefox </t>
+  </si>
+  <si>
+    <t>dengan e-mail, anda dapat menjalin hubungan dengan teman atau orang lain</t>
+  </si>
+  <si>
+    <t>dengan mengikuti beberapa saluran di berbagai situs, secara otomatis saluran tersebut akan memberikan informasi terbaru yang dimiliki oleh saluran tersebut</t>
+  </si>
+  <si>
+    <t>dengan surat biasa umumnya pengirim perlu membayar per pengiriman (dengan membeli prangko ), tetapi surat elektronik umumnya biaya yang dikeluarkan adalah biaya untuk membayar sambungan internet</t>
+  </si>
+  <si>
+    <t>dengan vba - menyusun angka dari 1 - 15</t>
+  </si>
+  <si>
+    <t>design by fthemes | blogger theme by lasantha - premiumbloggertemplates</t>
+  </si>
+  <si>
+    <t>diperoleh dari " https</t>
+  </si>
+  <si>
+    <t>ditunda</t>
+  </si>
+  <si>
+    <t>dll is missing di windows</t>
+  </si>
+  <si>
+    <t>draf</t>
+  </si>
+  <si>
+    <t>electronic mail (email atau e-mail) adalah metode pertukaran pesan antar orang yang menggunakan perangkat elektronik</t>
+  </si>
+  <si>
+    <t>email adalah singkatan dari electronic mail yang merupakan surat atau pesan dengan format digital</t>
+  </si>
+  <si>
+    <t>email atau electronic mail memungkinkan seseorang untuk mengirimkan pesan atau file dengan lebih efisien, murah serta lebih cepat</t>
+  </si>
+  <si>
+    <t>email dikirimkan antara dua folder server khusus</t>
+  </si>
+  <si>
+    <t>email memberikan catatan percakapan yang tidak anda miliki jika berkomunikasi secara lisan</t>
+  </si>
+  <si>
+    <t>email memiliki fungsi yang sangat penting dalam hal komunikasi</t>
+  </si>
+  <si>
+    <t>email sama gmail, maksudnya gimana ya mbak?</t>
+  </si>
+  <si>
+    <t>email server akan mengidentifikasi alamat email tujuan, lalu mengirimkan pesan tersebut ke email server lain yang lokasinya dekat dengan alamat tujuan</t>
+  </si>
+  <si>
+    <t>email this blogthis! share to twitter share to facebook</t>
+  </si>
+  <si>
+    <t>etika dalam surat elektronik sama dengan etika dalam menulis surat biasa</t>
+  </si>
+  <si>
+    <t>follow us</t>
+  </si>
+  <si>
+    <t>fungsi dan manfaat email mengacu pada pengertian email di atas, maka fungsi dan manfaat email secara umum adalah untuk mengirimkan pesan atau surat kepada orang lain</t>
+  </si>
+  <si>
+    <t>gunakan kata-kata dengan santun</t>
+  </si>
+  <si>
+    <t>haii kak</t>
+  </si>
+  <si>
+    <t>halaman ini terakhir diubah pada 22 oktober 2019, pukul 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasil karya video tutorial hasil karya video tutorial yang dibuat siswa smkn 1 panyingkiran dapat dilihat di channel youtube </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilmu dan teknologi berkembang dengan sangat pesat dan mempengaruhi berbagai bidang kehidupan manusia termasuk dalam hal komunikasi </t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>jangan menggunakan huruf kapital karena dapat menimbulkan kesan anda berteriak</t>
+  </si>
+  <si>
+    <t>jangan mengirim lanjut ( forward ) surat elektronik tanpa berpikir kegunaan bagi orang yang dituju</t>
+  </si>
+  <si>
+    <t>jangan mengirim surat elektronik dengan lampiran ( attachment ) yang terlalu besar (lebih dari 512 kb)</t>
+  </si>
+  <si>
+    <t>january 11, 2018   electronic mail , email , gmail , internet , jaringan , yahoo  </t>
+  </si>
+  <si>
+    <t>jenis-jenis email mengacu pada pengertian email di atas, email dapat diklasifikasikan menjadi tiga jenis, yaitu pop mail, webmail, dan forward mail</t>
+  </si>
+  <si>
+    <t>judul</t>
+  </si>
+  <si>
+    <t>kak mau tanya…email sama gmail apakah sama untuk pengaturan kata sandi nya</t>
+  </si>
+  <si>
+    <t>kami hanya akan mengirim konten terbaik dan berkualitas, no spam!</t>
+  </si>
+  <si>
+    <t>karya siswa - penerapan aplikasi bel sekolah</t>
+  </si>
+  <si>
+    <t>karya siswa - presentasi video 10rpl1 - tahun 2018</t>
+  </si>
+  <si>
+    <t>karya siswa - video tutorial 10rpl1 - tahun 2018</t>
+  </si>
+  <si>
+    <t>karya siswa - video tutorial 10rpl2 - tahun 2019</t>
+  </si>
+  <si>
+    <t>karya siswa - video tutorial 10rpl3 - tahun 2019</t>
+  </si>
+  <si>
+    <t>keamanan data di surat elektronik tidaklah terjamin dan selalu ada risiko terbuka untuk umum, dalam artian semua isinya dapat dibaca oleh orang lain</t>
+  </si>
+  <si>
+    <t>keamanan internet atau keamanan online berusaha untuk aman di internet dan merupakan pengetahuan untuk memaksimalkan risiko keamanan dan k</t>
+  </si>
+  <si>
+    <t>kenapa kadang-kadang email yg baru saya buat itu tidak bisa di buka kembali ???</t>
+  </si>
+  <si>
+    <t>keren banget! begini cara mengaktifkan dark theme …</t>
+  </si>
+  <si>
+    <t>kesimpulan kecepatan pengiriman dan penerimaan email merupakan manfaat besar bagi kebanyakan orang</t>
+  </si>
+  <si>
+    <t>ketika pesan email terkirim ke alamat email penerima, maka isi pesan tersebut tersimpan di email server hingga si penerima membukanya</t>
+  </si>
+  <si>
+    <t>kewargaan digital  adalah konsep yang dapat digunakan untuk memberikan pengetahuan mengenai penggunaan teknologi dunia maya dengan baik da</t>
+  </si>
+  <si>
+    <t>klik &gt;&gt;&gt; channel youtube galeri video hasil karya presentasi video dan video tutorial</t>
+  </si>
+  <si>
+    <t>klik &gt;&gt;&gt; channel youtube galeri video pembelajaran, tutorial, profil smkn 1 panyingkiran</t>
+  </si>
+  <si>
+    <t>kom</t>
+  </si>
+  <si>
+    <t>komunikasi tidak hanya dapat dilakukan menggunakan telepon saja, anda juga dapat menggunakan email sebagai media komunikasi dari jarak yang tak terbatas di tambah dengan alat-alat lainnya yang tersedia pada sebagian besar fitur email</t>
+  </si>
+  <si>
+    <t>konsep surel pertama kali dikemukakan oleh ray tomlinson pada akhir tahun 1971</t>
+  </si>
+  <si>
+    <t>kotak keluar</t>
+  </si>
+  <si>
+    <t>leave this field empty if you're human</t>
+  </si>
+  <si>
+    <t>lima langkah dalam proses pengiriman surel</t>
+  </si>
+  <si>
+    <t>loncat ke navigasi loncat ke pencarian</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>manfaat email yang paling umum adalah untuk mengirim dan menerima email dari orang lain</t>
+  </si>
+  <si>
+    <t>mapel simulasi dan komunikasi digital, muchamad eki s</t>
+  </si>
+  <si>
+    <t>masih termasuk jenis pemasaran online yang sangat efektif</t>
+  </si>
+  <si>
+    <t>materi pembelajaran produktif informatika bidang keahlian tik untuk siswa kelas 10 smk negeri 1 panyingkiran</t>
+  </si>
+  <si>
+    <t>mau nanya</t>
+  </si>
+  <si>
+    <t>menggunakan program pengakses surat elektronik ( e-mail client ), seperti</t>
+  </si>
+  <si>
+    <t>merupakan media online yang menyajikan konten dan tutorial seputar komputer, internet, jaringan dan android</t>
+  </si>
+  <si>
+    <t>muchamad eki s</t>
+  </si>
+  <si>
+    <t>next article cara daftar dan membuat akun instagram (ig) di android</t>
+  </si>
+  <si>
+    <t>nonton 18 film horor indonesia terbaru 2019, full movie!</t>
+  </si>
+  <si>
+    <t>nonton urutan film transformers full movie subtitle indonesia</t>
+  </si>
+  <si>
+    <t>org/w/index</t>
+  </si>
+  <si>
+    <t>pemasaran melalui email merupakan salah satu pemasaran online yang paling tua</t>
+  </si>
+  <si>
+    <t>pemilik email membuka emailnya dan kemudian menuliskan isi pesan yang akan dikirim</t>
+  </si>
+  <si>
+    <t>pengertian akuntansi secara umum, tujuan, fungsi, dan manfaatnya</t>
+  </si>
+  <si>
+    <t>pengertian aplikasi pengolah kata ( word processor) aplikasi pengolah kata ( word processor ) merupakan software / perangkat lunak yan</t>
+  </si>
+  <si>
+    <t>pengertian bandwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pengertian buku digital buku  elektronik (disingkat  buku -e atau ebook) atau  buku digital  adalah versi elektronik dari  buku </t>
+  </si>
+  <si>
+    <t>pengertian buku digital dan fungsinya</t>
+  </si>
+  <si>
+    <t>pengertian dan simbol creative commons</t>
+  </si>
+  <si>
+    <t>pengertian dan simbol creative commons creative commons  (cc) adalah suatu organisasi nirlaba yang memfokuskan diri untuk memperluas caku</t>
+  </si>
+  <si>
+    <t>pengertian digital</t>
+  </si>
+  <si>
+    <t>pengertian e-commerce beserta manfaat, kelebihan dan kekurangan e-commerce</t>
+  </si>
+  <si>
+    <t>pengertian e-commerce beserta manfaat, kelebihan dan kekurangannya</t>
+  </si>
+  <si>
+    <t>pengertian email adalah, contoh, manfaat &amp; jenis layanan email terbaik</t>
+  </si>
+  <si>
+    <t>pengertian email adalah, contoh, manfaat &amp; jenis layanan email terbaik » pingkoweb</t>
+  </si>
+  <si>
+    <t>pengertian email adalah, fungsi, cara kerja, jenis-jenis email</t>
+  </si>
+  <si>
+    <t>pengertian email beserta fungsi &amp; cara kerja email [lengkap]</t>
+  </si>
+  <si>
+    <t>pengertian email beserta fungsi dan cara kerja email yang jarang diketahui pengguna internet</t>
+  </si>
+  <si>
+    <t>pengertian email dan contohnya ~ mapel simulasi dan komunikasi digital, muchamad eki s</t>
+  </si>
+  <si>
+    <t>pengertian email dan manfaatnya, fungsi, cara kerja, dan jenis-jenis email</t>
+  </si>
+  <si>
+    <t>pengertian homepage beserta fungsi dan contohnya, sudah tahu?</t>
+  </si>
+  <si>
+    <t>pengertian internet safety (internet sehat)</t>
+  </si>
+  <si>
+    <t>pengertian kartu jaringan beserta fungsi, dan jenis-jenis kartu jaringan</t>
+  </si>
+  <si>
+    <t>pengertian komunikasi asinkron dan contohnya</t>
+  </si>
+  <si>
+    <t>pengertian komunikasi asinkron komunikasi asinkron merupakan komunikasi daring yang terhubung secara tidak langsung / berbeda waktunya</t>
+  </si>
+  <si>
+    <t>pengertian konsumen</t>
+  </si>
+  <si>
+    <t>pengertian kurs mata uang, jenis dan faktor yang mempengaruhi nilai tukar</t>
+  </si>
+  <si>
+    <t>pengertian line, fungsi, fitur, serta kelebihan dan kekurangannya</t>
+  </si>
+  <si>
+    <t>pengertian marketplace</t>
+  </si>
+  <si>
+    <t>pengertian modem</t>
+  </si>
+  <si>
+    <t>pengertian nfc, fungsi nfc, dan perbedaannya dengan bluetooth</t>
+  </si>
+  <si>
+    <t>pengertian pengolah angka (spreadsheet) perangkat aplikasi pengolah angka adalah program yang difungsikan untuk mengolah data berupa a</t>
+  </si>
+  <si>
+    <t>pengertian pengolah angka (spreadsheet), manfaat, dan contoh aplikasi software</t>
+  </si>
+  <si>
+    <t>pengertian pengolah kata (word processor), fungsi, contoh dan aplikasinya</t>
+  </si>
+  <si>
+    <t>pengertian presentasi video presentasi video  merupakan suatu  video  untuk mengkomunikasikan gagasan, ide atau rencana, yang bertujua</t>
+  </si>
+  <si>
+    <t>pengertian presentasi video, fungsi, aplikasi dan contohnya</t>
+  </si>
+  <si>
+    <t>pengertian printer inkjet / infus beserta fungsi, kelebihan, dan kekurangannya</t>
+  </si>
+  <si>
+    <t>pengertian seminar</t>
+  </si>
+  <si>
+    <t>pengertian video tutorial pembelajaran video tutorial  pembelajaran  merupakan salah satu presentasi berbentuk video yang mendeskripsika</t>
+  </si>
+  <si>
+    <t>penggunaan email tidak dikenakan biaya dan hanya bermodalkan koneksi internet</t>
+  </si>
+  <si>
+    <t>penggunaan fitur ok google dengan smartphone</t>
+  </si>
+  <si>
+    <t>penguatan virtual coordinator untuk batch 6</t>
+  </si>
+  <si>
+    <t>penting</t>
+  </si>
+  <si>
+    <t>pesan digital atau surat elektronik tersebut dapat dibuat dan dikirim ke alamat email lainnya dengan menggunakan komputer/ laptop dan gadget lainnya, seperti smartphone dan tablet yang terhubung dengan internet</t>
+  </si>
+  <si>
+    <t>pesan tersebut akan terkirim ke tujuan dalam waktu yang sangat cepat, tetapi juga dipengaruhi besarnya file dan kecepatan akses internet, baik si pengirim atau si penerima email</t>
+  </si>
+  <si>
+    <t>pesan tersebut dapat terkirim ke tujuan dalam waktu yang sangat cepat, bahkan dalam hitungan detik saja</t>
+  </si>
+  <si>
+    <t>php?title=surat_elektronik&amp;oldid=16074003 "</t>
+  </si>
+  <si>
+    <t>pingkoweb</t>
+  </si>
+  <si>
+    <t>please enter your email address here</t>
+  </si>
+  <si>
+    <t>please enter your name here</t>
+  </si>
+  <si>
+    <t>presentasi bahan ajar digital dengan videoscribe</t>
+  </si>
+  <si>
+    <t>presentasi blog sebagai media pembelajaran</t>
+  </si>
+  <si>
+    <t>presentasi implementasi kelas digital edmodo</t>
+  </si>
+  <si>
+    <t>previous article 100 contoh alamat email terbaik, gratis +cara membuatnya</t>
+  </si>
+  <si>
+    <t>saat ini hampir semua fitur layanan yang tersedia di internet baik jejaring sosial media, online shopping, game dan lainnya membutuhkan email saat mendaftar dan login pada layanan tersebut</t>
+  </si>
+  <si>
+    <t>saat ini, mengirim pesan via email merupakan salah satu cara yang paling efisien, cepat, dan murah</t>
+  </si>
+  <si>
+    <t>saat penerima membuka pesan di kotak pos/ inbox, maka aplikasi email penerima akan meminta email baru yang ada pada email server lalu mengunduhnya ke dalam komputer si penerima email</t>
+  </si>
+  <si>
+    <t>sampah</t>
+  </si>
+  <si>
+    <t>save my name, email, and website in this browser for the next time i comment</t>
+  </si>
+  <si>
+    <t>sebagian besar layanan website (baca</t>
+  </si>
+  <si>
+    <t>seharusnya kalau dulu daftar facebooknya menggunakan email, kode pemulihan akun dapat dikirim melalui email</t>
+  </si>
+  <si>
+    <t>selalu isi kolom subjek, jangan dibiarkan kosong</t>
+  </si>
+  <si>
+    <t>selamat datang di blog smk negeri 1 panyingkiran jalan kirapandak desa karyamukti kecamatan panyingkiran kabupaten majalengka provinsi jawa barat 45459 untuk mapel simulasi dan komunikasi digital</t>
+  </si>
+  <si>
+    <t>selamat datang di blog smk negeri 1 panyingkiran untuk materi pembelajaran simulasi dan komunikasi digital</t>
+  </si>
+  <si>
+    <t>selanjutnya, penerima email dapat melihat dan membaca isi pesan yang telah diunduh tadi</t>
+  </si>
+  <si>
+    <t>selanjutnya, pengguna email tersebut memberikan instruksi pada aplikasi email untuk mengirimkan pesan pada alamat email lainnya</t>
+  </si>
+  <si>
+    <t>semua email</t>
+  </si>
+  <si>
+    <t>semua orang dapat memanfaatkan email sebagai media pemasaran</t>
+  </si>
+  <si>
+    <t>send this to a friend</t>
+  </si>
+  <si>
+    <t>seseorang yang pernah merasakan kepahitan dalam hidup, dan yang paling pahit adalah berharap kepada manusia</t>
+  </si>
+  <si>
+    <t>spam</t>
+  </si>
+  <si>
+    <t>struktur alamat surel, sebagai contoh</t>
+  </si>
+  <si>
+    <t>surat elektonik sebagai sarana menerima dan mengirim surat melalui jalur internet atau bisa juga diartikan surat dengan format digital (ditulis dengan menggunakan komputer atau gedget yang telah mendukung aplikasi email) dan dikirimkan melalui jaringan internet</t>
+  </si>
+  <si>
+    <t>surat elektronik</t>
+  </si>
+  <si>
+    <t>surat elektronik (akronim</t>
+  </si>
+  <si>
+    <t>surat elektronik - wikipedia bahasa indonesia, ensiklopedia bebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surat elektronik pada mulanya disimpan di dalam sebuah mailserver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">surat elektronik sudah mulai dipakai pada tahun 1960-an </t>
   </si>
   <si>
     <t>tags</t>
   </si>
   <si>
-    <t>tags android animation apache apps codeigniter css firebase htaccess html java javascript jquery library pdo php plugin seo tools</t>
-  </si>
-  <si>
-    <t>tawk</t>
-  </si>
-  <si>
-    <t>tempat barbagi ilmu website dan ilmu pengetahuan tentang kode html, css, php, database mysql, blogging wordpress, artikel kesehatan, parenting, psikologi dan berita lainnya</t>
-  </si>
-  <si>
-    <t>tempat wisata di indonesia yang paling ramai dikunjungi wisatawan</t>
-  </si>
-  <si>
-    <t>tentunya anda pernah menemui sebuah website atau blog yang membagikan</t>
-  </si>
-  <si>
-    <t>tentunya bagi anda yang sering berkelana melalui</t>
-  </si>
-  <si>
-    <t>tips &amp; trik email - cara mudah mencari alamat email</t>
-  </si>
-  <si>
-    <t>tips cara mengatasi gambar yang tidak muncul ketika share promosi di facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to </t>
-  </si>
-  <si>
-    <t>tp beberapa ada juga yg udah meng counter dgn nospam reply yah</t>
-  </si>
-  <si>
-    <t>trik mendapatkan ribuan email aktif dalam waktu 5 menit</t>
-  </si>
-  <si>
-    <t>trik mendapatkan ribuan email aktif dalam waktu 5 menit | belajar bisnis online</t>
-  </si>
-  <si>
-    <t>trmksh ata sinfonya,mnarik dan bmanfaat</t>
-  </si>
-  <si>
-    <t>tutorial praktek cara mengelompokkan email berdasarkan kategori</t>
-  </si>
-  <si>
-    <t>untuk keperluan mencari alamat email yang berserakan diinternet ini memerlukan sedikit trik</t>
-  </si>
-  <si>
-    <t>untuk keyword google, silahkan mainkan logika anda</t>
-  </si>
-  <si>
-    <t>untuk memulai pencarian silahkan anda masukkan jenis email yang akan anda cari</t>
-  </si>
-  <si>
-    <t>untuk mendapatkan alamat-alamat email yang berserakan diinternet tersebut</t>
-  </si>
-  <si>
-    <t>untuk mengembangkan promosi anda</t>
-  </si>
-  <si>
-    <t>untuk negara lain apakah bisa memakai itu</t>
-  </si>
-  <si>
-    <t>untuk pencarian email yang memakai layanan</t>
-  </si>
-  <si>
-    <t>untuk sityus dgn akun akun yg trafficnya bagus</t>
-  </si>
-  <si>
-    <t>video tutorial mahir web development (bangun 5 project website) + video tutorial membuat aplikasi mobile (bangun 4 aplikasi android + upload playstore) + bonus tutorial membuat theme wordpress premium - 3 tutorial (5dvd)</t>
-  </si>
-  <si>
-    <t>video tutorial web development (bangun 5 project website) + video tutorial membuat aplikasi mobile (bangun 4 aplikasi android) + bonus tutorial membuat theme wordpress premium -</t>
-  </si>
-  <si>
-    <t>waaah, mantaf banget bosss, kereeennn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wah makasih gan informasinya </t>
-  </si>
-  <si>
-    <t>wah sip buat marketing ya bos</t>
-  </si>
-  <si>
-    <t>website tempat download gambar gratis</t>
-  </si>
-  <si>
-    <t>yakin gan tidak jalan lagi ? sudah benar stepnya belum gan?</t>
-  </si>
-  <si>
-    <t>yang ada diinternet</t>
-  </si>
-  <si>
-    <t>yang ada pada websitenya</t>
-  </si>
-  <si>
-    <t>yang anda miliki nantinya bisa bertambah banyak</t>
-  </si>
-  <si>
-    <t>yang artinya saya sedang mencari alamat website bandung yang di halamannya terdapat alamat email gmail</t>
-  </si>
-  <si>
-    <t>yang biasa anda gunakan sehari-hari dalam mencari banyak hal</t>
-  </si>
-  <si>
-    <t>yang memakai layanan email yang tertulis pada kotak pencarian tersebut</t>
-  </si>
-  <si>
-    <t>yang sedang anda buka</t>
-  </si>
-  <si>
-    <t>yang sudah banyak digunakan orang yaitu mesin pencari google</t>
-  </si>
-  <si>
-    <t>yang sudah tersedia diinternet tersebut yang bisa kita gunakan untuk mencari banyak alamat email tersebut? anda tidak usah mikir terlalu jauh karena fasilitas itu pastinya sudah sering anda gunakan dalam mencari banyak hal</t>
-  </si>
-  <si>
-    <t>  karena dengan memiliki dan mengkoleksi banyak alamat email ini, para</t>
-  </si>
-  <si>
-    <t> jadi berdasarkan dari penggunaan pencarian alamat email dengan format contoh diatas menerangkan bahwa anda harus menggunakan tanda</t>
-  </si>
-  <si>
-    <t>© 2016 powered by www</t>
-  </si>
-  <si>
-    <t xml:space="preserve">© 2019 bachors </t>
-  </si>
-  <si>
-    <t>★ ★ ★ ★ ★</t>
+    <t>tanda et , sebuah bagian dari setiap smtp kotak surel</t>
+  </si>
+  <si>
+    <t>teks tersedia di bawah lisensi atribusi-berbagiserupa creative commons ; ketentuan tambahan mungkin berlaku</t>
+  </si>
+  <si>
+    <t>tentang kami | kontak | tim redaksi | pedoman siber | privacy policy | media kits | sitemaps  </t>
+  </si>
+  <si>
+    <t>terima kasih</t>
+  </si>
+  <si>
+    <t>terkirim</t>
+  </si>
+  <si>
+    <t>tutorial cara menonaktifkan auto correct di microsoft word (semua versi)</t>
+  </si>
+  <si>
+    <t>tutorial cara menonaktifkan auto correct di microsoft …</t>
+  </si>
+  <si>
+    <t>tutorial kelas maya rumah belajar kemdikbud</t>
+  </si>
+  <si>
+    <t>tutorial membuat apps dengan appsgeyser</t>
+  </si>
+  <si>
+    <t>tutorial penggunaan editor online blogger</t>
+  </si>
+  <si>
+    <t>untuk fitur surat elektronik di wikipedia, lihat wikipedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">untuk mengirim surat elektronik kita memerlukan suatu program mail-client </t>
+  </si>
+  <si>
+    <t>vicon - analisis butir soal dan tindak lanjutnya</t>
+  </si>
+  <si>
+    <t>vicon - blog sebagai media pembelajaran</t>
+  </si>
+  <si>
+    <t>video profil smk negeri 1 panyingkiran</t>
+  </si>
+  <si>
+    <t>video tutorial menampilkan peta sekolah di blog</t>
+  </si>
+  <si>
+    <t>video tutorial, web online html, css editor</t>
+  </si>
+  <si>
+    <t>waptrick</t>
+  </si>
+  <si>
+    <t>welcome! log into your account</t>
+  </si>
+  <si>
+    <t>wikipedia</t>
+  </si>
+  <si>
+    <t>write css or less and hit save</t>
+  </si>
+  <si>
+    <t>you have entered an incorrect email address!</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>  presentasi</t>
+  </si>
+  <si>
+    <t> merupakan singkatan dari electronic mail dan jika diterjemahkan dalam bahasa indonesia berarti surat elektronik,  email  adalah sarana untuk megirim dan menerima pesan atau surat dan dengan waktu yang sangat singkat tanpa mengenal jarak dan waktu melalui jaringan internet</t>
+  </si>
+  <si>
+    <t>© 2019 maxmanroe</t>
+  </si>
+  <si>
+    <t>© pingkoweb - all rights reserved</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1507,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -1453,7 +1738,7 @@
         <v>1.0</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -1604,10 +1889,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,10 +1999,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -1926,7 +2211,7 @@
         <v>1.0</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -2033,10 +2318,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
@@ -2198,10 +2483,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="92">
@@ -2286,10 +2571,10 @@
         <v>100</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="100">
@@ -2344,7 +2629,7 @@
         <v>1.0</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="105">
@@ -2374,10 +2659,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="108">
@@ -2407,10 +2692,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="111">
@@ -2465,7 +2750,7 @@
         <v>1.0</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="116">
@@ -2506,10 +2791,10 @@
         <v>120</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="120">
@@ -2520,7 +2805,7 @@
         <v>1.0</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="121">
@@ -2542,7 +2827,7 @@
         <v>1.0</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>35.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="123">
@@ -2586,7 +2871,7 @@
         <v>1.0</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="127">
@@ -2608,7 +2893,7 @@
         <v>1.0</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="129">
@@ -2630,7 +2915,7 @@
         <v>1.0</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="131">
@@ -2641,7 +2926,7 @@
         <v>1.0</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="132">
@@ -2707,7 +2992,7 @@
         <v>1.0</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="138">
@@ -2729,7 +3014,7 @@
         <v>1.0</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="140">
@@ -2773,7 +3058,7 @@
         <v>1.0</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
@@ -2784,7 +3069,7 @@
         <v>1.0</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="145">
@@ -2828,7 +3113,7 @@
         <v>1.0</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="149">
@@ -3023,10 +3308,10 @@
         <v>167</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="167">
@@ -3166,10 +3451,10 @@
         <v>180</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C179" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="180">
@@ -3199,10 +3484,10 @@
         <v>183</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C182" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="183">
@@ -3221,10 +3506,10 @@
         <v>185</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C184" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="185">
@@ -3232,10 +3517,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C185" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="186">
@@ -3257,7 +3542,7 @@
         <v>1.0</v>
       </c>
       <c r="C187" s="2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="188">
@@ -3309,10 +3594,10 @@
         <v>193</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C192" s="2" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="193">
@@ -3342,10 +3627,10 @@
         <v>196</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C195" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="196">
@@ -3397,10 +3682,10 @@
         <v>201</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C200" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="201">
@@ -3430,10 +3715,10 @@
         <v>204</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C203" s="2" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="204">
@@ -3485,10 +3770,10 @@
         <v>209</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C208" s="2" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="209">
@@ -3532,7 +3817,7 @@
         <v>3.0</v>
       </c>
       <c r="C212" s="2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="213">
@@ -3573,7 +3858,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C216" s="2" t="n">
         <v>3.0</v>
@@ -3598,7 +3883,7 @@
         <v>1.0</v>
       </c>
       <c r="C218" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="219">
@@ -3664,7 +3949,7 @@
         <v>1.0</v>
       </c>
       <c r="C224" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="225">
@@ -3697,7 +3982,7 @@
         <v>1.0</v>
       </c>
       <c r="C227" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="228">
@@ -3804,10 +4089,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C237" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="238">
@@ -3818,7 +4103,7 @@
         <v>1.0</v>
       </c>
       <c r="C238" s="2" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="239">
@@ -3829,7 +4114,7 @@
         <v>1.0</v>
       </c>
       <c r="C239" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="240">
@@ -4046,10 +4331,10 @@
         <v>260</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C259" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="260">
@@ -4057,10 +4342,10 @@
         <v>261</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C260" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="261">
@@ -4079,10 +4364,10 @@
         <v>263</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C262" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="263">
@@ -4203,7 +4488,7 @@
         <v>1.0</v>
       </c>
       <c r="C273" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="274">
@@ -4302,7 +4587,7 @@
         <v>1.0</v>
       </c>
       <c r="C282" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="283">
@@ -4522,7 +4807,7 @@
         <v>1.0</v>
       </c>
       <c r="C302" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="303">
@@ -4632,7 +4917,7 @@
         <v>1.0</v>
       </c>
       <c r="C312" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="313">
@@ -4706,10 +4991,10 @@
         <v>320</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C319" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="320">
@@ -4742,7 +5027,7 @@
         <v>1.0</v>
       </c>
       <c r="C322" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="323">
@@ -4838,10 +5123,10 @@
         <v>332</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C331" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="332">
@@ -4874,7 +5159,7 @@
         <v>1.0</v>
       </c>
       <c r="C334" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="335">
@@ -4951,7 +5236,7 @@
         <v>1.0</v>
       </c>
       <c r="C341" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="342">
@@ -4984,7 +5269,7 @@
         <v>1.0</v>
       </c>
       <c r="C344" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="345">
@@ -5061,7 +5346,7 @@
         <v>1.0</v>
       </c>
       <c r="C351" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="352">
@@ -5083,7 +5368,7 @@
         <v>1.0</v>
       </c>
       <c r="C353" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="354">
@@ -5190,10 +5475,10 @@
         <v>364</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C363" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="364">
@@ -5289,10 +5574,10 @@
         <v>373</v>
       </c>
       <c r="B372" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C372" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="373">
@@ -5303,6 +5588,1051 @@
         <v>1.0</v>
       </c>
       <c r="C373" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C374" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C375" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C376" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C377" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C378" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C379" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C380" s="2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C381" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C382" s="2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C383" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C384" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C385" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C386" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C387" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B388" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C388" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B389" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C389" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C390" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B391" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C391" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B392" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C392" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C393" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B394" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C394" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B395" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C395" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B396" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C396" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C397" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C398" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C399" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C400" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C401" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C402" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C403" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C404" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C405" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C406" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C407" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C408" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C409" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B410" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C410" s="2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C411" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C412" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B413" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C413" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C414" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B415" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C415" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C416" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C417" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C418" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C419" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C420" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C421" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C422" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C423" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B424" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C424" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B425" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C425" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B426" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C426" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B427" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C427" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C428" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B429" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C429" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B430" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C430" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B431" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C431" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B432" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C432" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B433" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C433" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B434" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C434" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B435" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C435" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B436" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C436" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B437" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C437" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B438" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C438" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B439" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C439" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B440" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C440" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B441" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C441" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B442" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C442" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B443" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C443" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B444" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C444" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B445" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C445" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B446" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C446" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B447" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C447" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B448" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C448" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B449" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C449" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B450" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C450" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B451" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C451" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B452" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C452" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B453" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C453" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B454" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C454" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B455" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C455" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B456" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C456" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B457" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C457" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B458" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C458" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B459" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C459" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B460" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C460" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B461" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C461" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B462" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C462" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B463" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C463" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B464" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C464" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B465" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C465" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B466" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C466" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B467" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C467" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B468" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C468" s="2" t="n">
         <v>1.0</v>
       </c>
     </row>
